--- a/QuantLibXL/Data2/XLS/JPY/JPY_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY/JPY_Market.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="-15" windowWidth="5070" windowHeight="8265" tabRatio="879"/>
+    <workbookView xWindow="15195" yWindow="-15" windowWidth="5070" windowHeight="8265" tabRatio="879" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="56" r:id="rId1"/>
@@ -3224,134 +3224,134 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
         <stp/>
-        <stp>{FE6C6551-6E61-4ACB-BAB0-156CAFD85913}_x0000_</stp>
-        <tr r="N23" s="6"/>
+        <stp>{F7EBE05D-D3F2-48A4-A7F2-A1684D76FAC6}_x0000_</stp>
+        <tr r="K18" s="6"/>
       </tp>
     </main>
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
         <stp/>
-        <stp>{57411E5C-4B3F-427C-B61F-A7AD0D06AEB3}</stp>
+        <stp>{25C0FE5B-2FC6-42AC-93F3-9A4E9C451B54}</stp>
+        <tr r="M6" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{1DEE6D1F-AF6C-45DD-81EA-02A9EE3C3C64}</stp>
+        <tr r="O4" s="23"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{B97FC593-E705-4FD8-AC62-1D5923939B99}</stp>
+        <tr r="O5" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{E4FBCC4D-7E75-45B3-B9D6-2A32A98B3C70}</stp>
+        <tr r="S4" s="65"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{FF37966C-415A-4DB2-B136-F73CEC81573B}</stp>
+        <tr r="M6" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{F87FCB3D-D918-4579-9E1A-0DDCED31C125}</stp>
+        <tr r="S4" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{9D989373-E952-483C-B080-7F4ED1AA274E}</stp>
         <tr r="K5" s="6"/>
       </tp>
       <tp t="s">
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
         <stp/>
-        <stp>{EAA2A2EB-8C88-4BE5-B201-86D8EEDCD3AA}</stp>
-        <tr r="M6" s="8"/>
+        <stp>{D3D4B9BA-9C7E-47B7-926D-E9DF8E2C8E0C}</stp>
+        <tr r="J4" s="15"/>
       </tp>
       <tp t="s">
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
         <stp/>
-        <stp>{AB7217E0-A083-4216-9397-9E3827A1522A}</stp>
+        <stp>{B4F0B75C-177C-42C3-AF1C-6461C4CB3957}</stp>
+        <tr r="O5" s="66"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{876DF174-1687-42E8-871E-DD56165C9569}</stp>
+        <tr r="S4" s="11"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{E54E6BAC-3F7C-4550-B603-DECF0977AF1F}</stp>
+        <tr r="H4" s="20"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{7B173991-6551-4BAD-BBA4-B17DCBFB7E82}</stp>
+        <tr r="U27" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{B25D5F13-C1E0-42BB-A19B-534034582275}</stp>
+        <tr r="S4" s="26"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{BE96942E-BD4B-479B-ADA7-03E57C4C59FD}</stp>
+        <tr r="O4" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{D22A013A-F8BC-4210-88AA-DF2C5371AC2B}</stp>
         <tr r="N4" s="16"/>
       </tp>
       <tp t="s">
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
         <stp/>
-        <stp>{C285E296-546E-4000-A4C3-F2BA3F3324E5}</stp>
-        <tr r="H4" s="20"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{6551D3B4-11DD-4B89-9821-D2E7ADC0AFB2}</stp>
-        <tr r="M6" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{D7BD2CCD-B143-4C38-8988-AF332F838523}</stp>
-        <tr r="O4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{57249D5F-7E75-49E8-AA78-410A63BC759D}</stp>
-        <tr r="Q5" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{3F52D0A9-C64D-4425-83DD-DC55E99EFA40}</stp>
-        <tr r="O5" s="66"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{4758E79F-C699-495E-A09A-62163DCE6E34}</stp>
+        <stp>{F9B581A6-5899-470D-8E99-9691561372A6}</stp>
         <tr r="S4" s="25"/>
       </tp>
       <tp t="s">
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
         <stp/>
-        <stp>{6B6D3444-859F-4E1B-8CC1-590679E98657}</stp>
-        <tr r="S4" s="11"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{F163F51F-C78C-47A8-8456-B7E51D63F90E}</stp>
-        <tr r="J4" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{98900B56-FAB2-47EC-BEC1-113C424F438E}</stp>
-        <tr r="O5" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{CA06B8C9-586E-463B-BD1E-6501D1114FBF}</stp>
-        <tr r="U27" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{1402123A-8AAF-48C1-890E-629533B4A011}</stp>
-        <tr r="S4" s="65"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{23E4DD6B-E4DA-448B-B088-82A7B7F8A12E}</stp>
-        <tr r="O4" s="23"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{039720CE-17A4-4D5B-B74E-A3BF62D5ACE0}</stp>
-        <tr r="S4" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{3B7D2E8F-1BC7-4786-AB21-873F2955C122}</stp>
-        <tr r="S4" s="26"/>
+        <stp>{C48EE872-8AF7-4648-B8D0-A9AC632D21DC}</stp>
+        <tr r="Q5" s="64"/>
       </tp>
     </main>
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
         <stp/>
-        <stp>{112A2CF8-2EB7-4307-B426-6AC02CF66179}_x0000_</stp>
-        <tr r="K18" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:22:03</v>
-        <stp/>
-        <stp>{1B2AD9C6-B5CC-4CCE-92CB-7AA9BCEB7A3B}_x0000_</stp>
+        <stp>{7416AC9D-AAF6-41E7-B031-63B9FD631418}_x0000_</stp>
         <tr r="K23" s="6"/>
       </tp>
       <tp t="s">
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
         <stp/>
-        <stp>{C57890A0-8FA4-4BB5-8B42-B9C217FF0D45}_x0000_</stp>
+        <stp>{D921C9CC-34DC-4B39-87E7-C31DC8A835CF}_x0000_</stp>
         <tr r="N18" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:27:58</v>
+        <stp/>
+        <stp>{85B9F6CF-7901-4DCF-B522-7CCAAB44F06E}_x0000_</stp>
+        <tr r="N23" s="6"/>
       </tp>
     </main>
   </volType>
@@ -3648,7 +3648,7 @@
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3668,7 +3668,7 @@
       <c r="A1" s="445"/>
       <c r="B1" s="445" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  5 2015 15:27:06</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 18 2015 16:49:40</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
@@ -3729,7 +3729,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="423">
-        <v>42135.723576388889</v>
+        <v>42180.602685185186</v>
       </c>
       <c r="J4" s="424"/>
       <c r="K4" s="445"/>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="I13" s="436">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="J13" s="322"/>
       <c r="K13" s="445"/>
@@ -4074,7 +4074,7 @@
         <v>233</v>
       </c>
       <c r="D21" s="442">
-        <v>42135.723807870374</v>
+        <v>42180.603298611109</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="445"/>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="O5" s="252" t="str">
         <f>_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="P5" s="249" t="s">
         <v>214</v>
@@ -4619,15 +4619,15 @@
       </c>
       <c r="D6" s="100" t="str">
         <f t="array" ref="D6:D47">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C6:$C47)</f>
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="E6" s="93" t="str">
         <f t="shared" ref="E6:E47" si="0">Currency&amp;$D$4&amp;$E$4&amp;$D6&amp;QuoteSuffix</f>
-        <v>JPYFUT3MTIBORK5_Quote</v>
+        <v>JPYFUT3MTIBORN5_Quote</v>
       </c>
       <c r="F6" s="99" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORK5_Quote#0001</v>
+        <v>JPYFUT3MTIBORN5_Quote#0001</v>
       </c>
       <c r="G6" s="98" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -4643,18 +4643,18 @@
       </c>
       <c r="M6" s="188" t="str">
         <f t="array" ref="M6:M47">_xll.qlIMMcode(FuturesDates)</f>
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="N6" s="241">
         <f t="array" ref="N6:N47">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,$L6:$L47)</f>
-        <v>42144</v>
+        <v>42200</v>
       </c>
       <c r="O6" s="188" t="str">
         <f t="array" ref="O6:O47">VLOOKUP(Currency,LiffeCodes,2)&amp;FuturesCodes</f>
-        <v>JEYK5</v>
+        <v>JEYN5</v>
       </c>
       <c r="P6" s="240">
-        <v>42142</v>
+        <v>42198</v>
       </c>
       <c r="Q6" s="188">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="188">
-        <v>99.835000000000008</v>
+        <v>99.83</v>
       </c>
       <c r="U6" s="190" t="e">
         <f>_xll.qlMidSafe($Q6,$R6)</f>
@@ -4702,15 +4702,15 @@
       </c>
       <c r="AK6" s="100" t="str">
         <f t="array" ref="AK6:AK47">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$AJ6:$AJ47)</f>
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="AL6" s="163" t="str">
         <f t="shared" ref="AL6:AL47" si="1">Currency&amp;"FUT"&amp;$AN$4&amp;$AK6&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MTIBORK5ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORN5ConvAdj_Quote</v>
       </c>
       <c r="AM6" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL6,IborIndex,AK6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORK5ConvAdj_Quote#0006</v>
+        <v>JPYFUT3MTIBORN5ConvAdj_Quote#0007</v>
       </c>
       <c r="AN6" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM6)</f>
@@ -4727,15 +4727,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="94" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="E7" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORM5_Quote</v>
+        <v>JPYFUT3MTIBORQ5_Quote</v>
       </c>
       <c r="F7" s="92" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM5_Quote#0001</v>
+        <v>JPYFUT3MTIBORQ5_Quote#0001</v>
       </c>
       <c r="G7" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4750,40 +4750,40 @@
         <v>0</v>
       </c>
       <c r="M7" s="169" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="N7" s="234">
-        <v>42172</v>
+        <v>42235</v>
       </c>
       <c r="O7" s="169" t="str">
-        <v>JEYM5</v>
+        <v>JEYQ5</v>
       </c>
       <c r="P7" s="233">
-        <v>42170</v>
+        <v>42233</v>
       </c>
       <c r="Q7" s="169">
+        <v>0</v>
+      </c>
+      <c r="R7" s="169">
+        <v>0</v>
+      </c>
+      <c r="S7" s="169">
+        <v>0</v>
+      </c>
+      <c r="T7" s="169">
         <v>99.83</v>
       </c>
-      <c r="R7" s="169">
-        <v>99.835000000000008</v>
-      </c>
-      <c r="S7" s="169">
-        <v>99.83</v>
-      </c>
-      <c r="T7" s="169">
-        <v>99.835000000000008</v>
-      </c>
-      <c r="U7" s="173">
+      <c r="U7" s="173" t="e">
         <f>_xll.qlMidSafe($Q7,$R7)</f>
-        <v>99.83250000000001</v>
+        <v>#NUM!</v>
       </c>
       <c r="V7" s="171"/>
-      <c r="W7" s="237">
-        <v>99.83250000000001</v>
+      <c r="W7" s="237" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X7" s="171"/>
-      <c r="Y7" s="231">
-        <v>99.83250000000001</v>
+      <c r="Y7" s="231" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="Z7" s="173" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F7,Y7,Trigger)</f>
@@ -4805,15 +4805,15 @@
         <v>0</v>
       </c>
       <c r="AK7" s="94" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="AL7" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORM5ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORQ5ConvAdj_Quote</v>
       </c>
       <c r="AM7" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL7,IborIndex,AK7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORQ5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM7)</f>
@@ -4830,15 +4830,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="94" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="E8" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORN5_Quote</v>
+        <v>JPYFUT3MTIBORU5_Quote</v>
       </c>
       <c r="F8" s="92" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORN5_Quote#0001</v>
+        <v>JPYFUT3MTIBORU5_Quote#0001</v>
       </c>
       <c r="G8" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4853,40 +4853,40 @@
         <v>0</v>
       </c>
       <c r="M8" s="169" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="N8" s="234">
-        <v>42200</v>
+        <v>42263</v>
       </c>
       <c r="O8" s="169" t="str">
-        <v>JEYN5</v>
+        <v>JEYU5</v>
       </c>
       <c r="P8" s="233">
-        <v>42198</v>
+        <v>42261</v>
       </c>
       <c r="Q8" s="169">
-        <v>0</v>
+        <v>99.83</v>
       </c>
       <c r="R8" s="169">
-        <v>0</v>
+        <v>99.835000000000008</v>
       </c>
       <c r="S8" s="169">
-        <v>0</v>
+        <v>99.83</v>
       </c>
       <c r="T8" s="169">
-        <v>99.84</v>
-      </c>
-      <c r="U8" s="173" t="e">
+        <v>99.83</v>
+      </c>
+      <c r="U8" s="173">
         <f>_xll.qlMidSafe($Q8,$R8)</f>
-        <v>#NUM!</v>
+        <v>99.83250000000001</v>
       </c>
       <c r="V8" s="171"/>
-      <c r="W8" s="237" t="e">
-        <v>#NUM!</v>
+      <c r="W8" s="237">
+        <v>99.83250000000001</v>
       </c>
       <c r="X8" s="171"/>
-      <c r="Y8" s="231" t="e">
-        <v>#NUM!</v>
+      <c r="Y8" s="231">
+        <v>99.83250000000001</v>
       </c>
       <c r="Z8" s="173" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8,Trigger)</f>
@@ -4908,15 +4908,15 @@
         <v>0</v>
       </c>
       <c r="AK8" s="94" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="AL8" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORN5ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORU5ConvAdj_Quote</v>
       </c>
       <c r="AM8" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL8,IborIndex,AK8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORN5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORU5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM8)</f>
@@ -4933,15 +4933,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="94" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="E9" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORQ5_Quote</v>
+        <v>JPYFUT3MTIBORV5_Quote</v>
       </c>
       <c r="F9" s="92" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORQ5_Quote#0001</v>
+        <v>JPYFUT3MTIBORV5_Quote#0001</v>
       </c>
       <c r="G9" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4956,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="169" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="N9" s="234">
-        <v>42235</v>
+        <v>42298</v>
       </c>
       <c r="O9" s="169" t="str">
-        <v>JEYQ5</v>
+        <v>JEYV5</v>
       </c>
       <c r="P9" s="233" t="s">
         <v>315</v>
@@ -5013,15 +5013,15 @@
         <v>0</v>
       </c>
       <c r="AK9" s="94" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="AL9" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORQ5ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORV5ConvAdj_Quote</v>
       </c>
       <c r="AM9" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL9,IborIndex,AK9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORQ5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORV5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM9)</f>
@@ -5038,15 +5038,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="94" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="E10" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORU5_Quote</v>
+        <v>JPYFUT3MTIBORX5_Quote</v>
       </c>
       <c r="F10" s="92" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU5_Quote#0001</v>
+        <v>JPYFUT3MTIBORX5_Quote#0001</v>
       </c>
       <c r="G10" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -5062,40 +5062,40 @@
         <v>0</v>
       </c>
       <c r="M10" s="169" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="N10" s="234">
-        <v>42263</v>
+        <v>42326</v>
       </c>
       <c r="O10" s="169" t="str">
-        <v>JEYU5</v>
-      </c>
-      <c r="P10" s="233">
-        <v>42261</v>
-      </c>
-      <c r="Q10" s="169">
-        <v>99.84</v>
-      </c>
-      <c r="R10" s="169">
-        <v>99.844999999999999</v>
-      </c>
-      <c r="S10" s="169">
-        <v>99.844999999999999</v>
-      </c>
-      <c r="T10" s="169">
-        <v>99.844999999999999</v>
-      </c>
-      <c r="U10" s="173">
+        <v>JEYX5</v>
+      </c>
+      <c r="P10" s="233" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q10" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="R10" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="S10" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="T10" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="U10" s="173" t="e">
         <f>_xll.qlMidSafe($Q10,$R10)</f>
-        <v>99.842500000000001</v>
+        <v>#NUM!</v>
       </c>
       <c r="V10" s="171"/>
-      <c r="W10" s="232">
-        <v>99.842500000000001</v>
+      <c r="W10" s="232" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X10" s="171"/>
-      <c r="Y10" s="231">
-        <v>99.842500000000001</v>
+      <c r="Y10" s="231" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="Z10" s="173" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10,Trigger)</f>
@@ -5117,15 +5117,15 @@
         <v>0</v>
       </c>
       <c r="AK10" s="94" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="AL10" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORU5ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORX5ConvAdj_Quote</v>
       </c>
       <c r="AM10" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL10,IborIndex,AK10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORX5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM10)</f>
@@ -5142,15 +5142,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="94" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="E11" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORV5_Quote</v>
+        <v>JPYFUT3MTIBORZ5_Quote</v>
       </c>
       <c r="F11" s="92" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORV5_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ5_Quote#0001</v>
       </c>
       <c r="G11" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -5165,40 +5165,40 @@
         <v>0</v>
       </c>
       <c r="M11" s="169" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="N11" s="234">
-        <v>42298</v>
+        <v>42354</v>
       </c>
       <c r="O11" s="169" t="str">
-        <v>JEYV5</v>
-      </c>
-      <c r="P11" s="233" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q11" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="R11" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="S11" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="T11" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="U11" s="173" t="e">
+        <v>JEYZ5</v>
+      </c>
+      <c r="P11" s="233">
+        <v>42352</v>
+      </c>
+      <c r="Q11" s="169">
+        <v>99.835000000000008</v>
+      </c>
+      <c r="R11" s="169">
+        <v>99.84</v>
+      </c>
+      <c r="S11" s="169">
+        <v>99.835000000000008</v>
+      </c>
+      <c r="T11" s="169">
+        <v>99.835000000000008</v>
+      </c>
+      <c r="U11" s="173">
         <f>_xll.qlMidSafe($Q11,$R11)</f>
-        <v>#NUM!</v>
+        <v>99.837500000000006</v>
       </c>
       <c r="V11" s="171"/>
-      <c r="W11" s="232" t="e">
-        <v>#NUM!</v>
+      <c r="W11" s="232">
+        <v>99.837500000000006</v>
       </c>
       <c r="X11" s="171"/>
-      <c r="Y11" s="231" t="e">
-        <v>#NUM!</v>
+      <c r="Y11" s="231">
+        <v>99.837500000000006</v>
       </c>
       <c r="Z11" s="173" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11,Trigger)</f>
@@ -5218,15 +5218,15 @@
         <v>0</v>
       </c>
       <c r="AK11" s="94" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="AL11" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORV5ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORZ5ConvAdj_Quote</v>
       </c>
       <c r="AM11" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL11,IborIndex,AK11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORV5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORZ5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM11)</f>
@@ -5243,15 +5243,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="94" t="str">
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="E12" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORX5_Quote</v>
+        <v>JPYFUT3MTIBORF6_Quote</v>
       </c>
       <c r="F12" s="92" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORX5_Quote#0001</v>
+        <v>JPYFUT3MTIBORF6_Quote#0001</v>
       </c>
       <c r="G12" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -5266,13 +5266,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="169" t="str">
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="N12" s="234">
-        <v>42326</v>
+        <v>42389</v>
       </c>
       <c r="O12" s="169" t="str">
-        <v>JEYX5</v>
+        <v>JEYF6</v>
       </c>
       <c r="P12" s="233" t="s">
         <v>315</v>
@@ -5319,15 +5319,15 @@
         <v>0</v>
       </c>
       <c r="AK12" s="94" t="str">
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="AL12" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORX5ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORF6ConvAdj_Quote</v>
       </c>
       <c r="AM12" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL12,IborIndex,AK12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORX5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORF6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM12)</f>
@@ -5344,15 +5344,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="94" t="str">
-        <v>Z5</v>
+        <v>G6</v>
       </c>
       <c r="E13" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORZ5_Quote</v>
+        <v>JPYFUT3MTIBORG6_Quote</v>
       </c>
       <c r="F13" s="92" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ5_Quote#0001</v>
+        <v>JPYFUT3MTIBORG6_Quote#0001</v>
       </c>
       <c r="G13" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -5367,40 +5367,40 @@
         <v>0</v>
       </c>
       <c r="M13" s="169" t="str">
-        <v>Z5</v>
+        <v>G6</v>
       </c>
       <c r="N13" s="234">
-        <v>42354</v>
+        <v>42417</v>
       </c>
       <c r="O13" s="169" t="str">
-        <v>JEYZ5</v>
-      </c>
-      <c r="P13" s="233">
-        <v>42352</v>
-      </c>
-      <c r="Q13" s="169">
-        <v>99.850000000000009</v>
-      </c>
-      <c r="R13" s="169">
-        <v>99.855000000000004</v>
-      </c>
-      <c r="S13" s="169">
-        <v>99.855000000000004</v>
-      </c>
-      <c r="T13" s="169">
-        <v>99.850000000000009</v>
-      </c>
-      <c r="U13" s="173">
+        <v>JEYG6</v>
+      </c>
+      <c r="P13" s="233" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q13" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="R13" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="S13" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="T13" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="U13" s="173" t="e">
         <f>_xll.qlMidSafe($Q13,$R13)</f>
-        <v>99.852500000000006</v>
+        <v>#NUM!</v>
       </c>
       <c r="V13" s="171"/>
-      <c r="W13" s="232">
-        <v>99.852500000000006</v>
+      <c r="W13" s="232" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X13" s="171"/>
-      <c r="Y13" s="231">
-        <v>99.852500000000006</v>
+      <c r="Y13" s="231" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="Z13" s="173" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13,Trigger)</f>
@@ -5420,15 +5420,15 @@
         <v>0</v>
       </c>
       <c r="AK13" s="94" t="str">
-        <v>Z5</v>
+        <v>G6</v>
       </c>
       <c r="AL13" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORZ5ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORG6ConvAdj_Quote</v>
       </c>
       <c r="AM13" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL13,IborIndex,AK13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORG6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM13)</f>
@@ -5445,15 +5445,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="94" t="str">
-        <v>F6</v>
+        <v>H6</v>
       </c>
       <c r="E14" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORF6_Quote</v>
+        <v>JPYFUT3MTIBORH6_Quote</v>
       </c>
       <c r="F14" s="92" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORF6_Quote#0001</v>
+        <v>JPYFUT3MTIBORH6_Quote#0001</v>
       </c>
       <c r="G14" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -5468,40 +5468,40 @@
         <v>0</v>
       </c>
       <c r="M14" s="169" t="str">
-        <v>F6</v>
+        <v>H6</v>
       </c>
       <c r="N14" s="234">
-        <v>42389</v>
+        <v>42445</v>
       </c>
       <c r="O14" s="169" t="str">
-        <v>JEYF6</v>
-      </c>
-      <c r="P14" s="233" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q14" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="R14" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="S14" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="T14" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="U14" s="173" t="e">
+        <v>JEYH6</v>
+      </c>
+      <c r="P14" s="233">
+        <v>42443</v>
+      </c>
+      <c r="Q14" s="169">
+        <v>99.84</v>
+      </c>
+      <c r="R14" s="169">
+        <v>99.844999999999999</v>
+      </c>
+      <c r="S14" s="169">
+        <v>99.844999999999999</v>
+      </c>
+      <c r="T14" s="169">
+        <v>99.84</v>
+      </c>
+      <c r="U14" s="173">
         <f>_xll.qlMidSafe($Q14,$R14)</f>
-        <v>#NUM!</v>
+        <v>99.842500000000001</v>
       </c>
       <c r="V14" s="171"/>
-      <c r="W14" s="232" t="e">
-        <v>#NUM!</v>
+      <c r="W14" s="232">
+        <v>99.842500000000001</v>
       </c>
       <c r="X14" s="171"/>
-      <c r="Y14" s="231" t="e">
-        <v>#NUM!</v>
+      <c r="Y14" s="231">
+        <v>99.842500000000001</v>
       </c>
       <c r="Z14" s="173" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14,Trigger)</f>
@@ -5521,15 +5521,15 @@
         <v>0</v>
       </c>
       <c r="AK14" s="94" t="str">
-        <v>F6</v>
+        <v>H6</v>
       </c>
       <c r="AL14" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORF6ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORH6ConvAdj_Quote</v>
       </c>
       <c r="AM14" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL14,IborIndex,AK14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORF6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORH6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM14)</f>
@@ -5546,15 +5546,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="94" t="str">
-        <v>G6</v>
+        <v>J6</v>
       </c>
       <c r="E15" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORG6_Quote</v>
+        <v>JPYFUT3MTIBORJ6_Quote</v>
       </c>
       <c r="F15" s="92" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORG6_Quote#0001</v>
+        <v>JPYFUT3MTIBORJ6_Quote#0001</v>
       </c>
       <c r="G15" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -5569,13 +5569,13 @@
         <v>0</v>
       </c>
       <c r="M15" s="169" t="str">
-        <v>G6</v>
+        <v>J6</v>
       </c>
       <c r="N15" s="234">
-        <v>42417</v>
+        <v>42480</v>
       </c>
       <c r="O15" s="169" t="str">
-        <v>JEYG6</v>
+        <v>JEYJ6</v>
       </c>
       <c r="P15" s="233" t="s">
         <v>315</v>
@@ -5622,15 +5622,15 @@
         <v>0</v>
       </c>
       <c r="AK15" s="94" t="str">
-        <v>G6</v>
+        <v>J6</v>
       </c>
       <c r="AL15" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORG6ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORJ6ConvAdj_Quote</v>
       </c>
       <c r="AM15" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL15,IborIndex,AK15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORG6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORJ6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM15)</f>
@@ -5647,15 +5647,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="94" t="str">
-        <v>H6</v>
+        <v>K6</v>
       </c>
       <c r="E16" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORH6_Quote</v>
+        <v>JPYFUT3MTIBORK6_Quote</v>
       </c>
       <c r="F16" s="92" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH6_Quote#0001</v>
+        <v>JPYFUT3MTIBORK6_Quote#0001</v>
       </c>
       <c r="G16" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -5670,40 +5670,40 @@
         <v>0</v>
       </c>
       <c r="M16" s="169" t="str">
-        <v>H6</v>
+        <v>K6</v>
       </c>
       <c r="N16" s="234">
-        <v>42445</v>
+        <v>42508</v>
       </c>
       <c r="O16" s="169" t="str">
-        <v>JEYH6</v>
-      </c>
-      <c r="P16" s="233">
-        <v>42443</v>
-      </c>
-      <c r="Q16" s="169">
-        <v>99.850000000000009</v>
-      </c>
-      <c r="R16" s="169">
-        <v>99.855000000000004</v>
-      </c>
-      <c r="S16" s="169">
-        <v>99.855000000000004</v>
-      </c>
-      <c r="T16" s="169">
-        <v>99.850000000000009</v>
-      </c>
-      <c r="U16" s="173">
+        <v>JEYK6</v>
+      </c>
+      <c r="P16" s="233" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q16" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="R16" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="S16" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="T16" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="U16" s="173" t="e">
         <f>_xll.qlMidSafe($Q16,$R16)</f>
-        <v>99.852500000000006</v>
+        <v>#NUM!</v>
       </c>
       <c r="V16" s="171"/>
-      <c r="W16" s="232">
-        <v>99.852500000000006</v>
+      <c r="W16" s="232" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X16" s="171"/>
-      <c r="Y16" s="231">
-        <v>99.852500000000006</v>
+      <c r="Y16" s="231" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="Z16" s="173" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16,Trigger)</f>
@@ -5723,15 +5723,15 @@
         <v>0</v>
       </c>
       <c r="AK16" s="94" t="str">
-        <v>H6</v>
+        <v>K6</v>
       </c>
       <c r="AL16" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORH6ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORK6ConvAdj_Quote</v>
       </c>
       <c r="AM16" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL16,IborIndex,AK16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORK6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM16)</f>
@@ -5748,15 +5748,15 @@
         <v>0</v>
       </c>
       <c r="D17" s="94" t="str">
-        <v>J6</v>
+        <v>M6</v>
       </c>
       <c r="E17" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORJ6_Quote</v>
+        <v>JPYFUT3MTIBORM6_Quote</v>
       </c>
       <c r="F17" s="92" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORJ6_Quote#0001</v>
+        <v>JPYFUT3MTIBORM6_Quote#0001</v>
       </c>
       <c r="G17" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -5771,40 +5771,40 @@
         <v>0</v>
       </c>
       <c r="M17" s="169" t="str">
-        <v>J6</v>
+        <v>M6</v>
       </c>
       <c r="N17" s="234">
-        <v>42480</v>
+        <v>42536</v>
       </c>
       <c r="O17" s="169" t="str">
-        <v>JEYJ6</v>
-      </c>
-      <c r="P17" s="233" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q17" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="R17" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="S17" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="T17" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="U17" s="173" t="e">
+        <v>JEYM6</v>
+      </c>
+      <c r="P17" s="233">
+        <v>42534</v>
+      </c>
+      <c r="Q17" s="169">
+        <v>99.84</v>
+      </c>
+      <c r="R17" s="169">
+        <v>99.844999999999999</v>
+      </c>
+      <c r="S17" s="169">
+        <v>99.84</v>
+      </c>
+      <c r="T17" s="169">
+        <v>99.844999999999999</v>
+      </c>
+      <c r="U17" s="173">
         <f>_xll.qlMidSafe($Q17,$R17)</f>
-        <v>#NUM!</v>
+        <v>99.842500000000001</v>
       </c>
       <c r="V17" s="171"/>
-      <c r="W17" s="232" t="e">
-        <v>#NUM!</v>
+      <c r="W17" s="232">
+        <v>99.842500000000001</v>
       </c>
       <c r="X17" s="171"/>
-      <c r="Y17" s="231" t="e">
-        <v>#NUM!</v>
+      <c r="Y17" s="231">
+        <v>99.842500000000001</v>
       </c>
       <c r="Z17" s="173" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17,Trigger)</f>
@@ -5824,15 +5824,15 @@
         <v>0</v>
       </c>
       <c r="AK17" s="94" t="str">
-        <v>J6</v>
+        <v>M6</v>
       </c>
       <c r="AL17" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORJ6ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORM6ConvAdj_Quote</v>
       </c>
       <c r="AM17" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL17,IborIndex,AK17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORJ6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORM6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM17)</f>
@@ -5849,15 +5849,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="94" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E18" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORM6_Quote</v>
+        <v>JPYFUT3MTIBORU6_Quote</v>
       </c>
       <c r="F18" s="92" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM6_Quote#0001</v>
+        <v>JPYFUT3MTIBORU6_Quote#0001</v>
       </c>
       <c r="G18" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -5872,44 +5872,44 @@
         <v>1</v>
       </c>
       <c r="M18" s="169" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="N18" s="234">
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="O18" s="169" t="str">
-        <v>JEYM6</v>
+        <v>JEYU6</v>
       </c>
       <c r="P18" s="233">
-        <v>42534</v>
+        <v>42629</v>
       </c>
       <c r="Q18" s="169">
-        <v>99.850000000000009</v>
+        <v>99.835000000000008</v>
       </c>
       <c r="R18" s="169">
-        <v>99.855000000000004</v>
+        <v>99.84</v>
       </c>
       <c r="S18" s="169">
-        <v>99.855000000000004</v>
+        <v>99.84</v>
       </c>
       <c r="T18" s="169">
-        <v>99.844999999999999</v>
+        <v>99.84</v>
       </c>
       <c r="U18" s="173">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
-        <v>99.852500000000006</v>
+        <v>99.837500000000006</v>
       </c>
       <c r="V18" s="171"/>
       <c r="W18" s="232">
-        <v>99.852500000000006</v>
+        <v>99.837500000000006</v>
       </c>
       <c r="X18" s="171"/>
       <c r="Y18" s="231">
-        <v>99.852500000000006</v>
+        <v>99.837500000000006</v>
       </c>
       <c r="Z18" s="173">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18,Trigger)</f>
-        <v>-1.7499999999998295E-2</v>
+        <v>-1.5000000000000568E-2</v>
       </c>
       <c r="AA18" s="12"/>
       <c r="AB18" s="4"/>
@@ -5925,15 +5925,15 @@
         <v>1</v>
       </c>
       <c r="AK18" s="94" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="AL18" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORM6ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORU6ConvAdj_Quote</v>
       </c>
       <c r="AM18" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL18,IborIndex,AK18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORU6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM18)</f>
@@ -5950,15 +5950,15 @@
         <v>1</v>
       </c>
       <c r="D19" s="94" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E19" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORU6_Quote</v>
+        <v>JPYFUT3MTIBORZ6_Quote</v>
       </c>
       <c r="F19" s="92" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU6_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ6_Quote#0001</v>
       </c>
       <c r="G19" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -5973,44 +5973,44 @@
         <v>1</v>
       </c>
       <c r="M19" s="169" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="N19" s="234">
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="O19" s="169" t="str">
-        <v>JEYU6</v>
+        <v>JEYZ6</v>
       </c>
       <c r="P19" s="233">
-        <v>42629</v>
+        <v>42723</v>
       </c>
       <c r="Q19" s="169">
-        <v>99.844999999999999</v>
+        <v>99.83</v>
       </c>
       <c r="R19" s="169">
-        <v>99.850000000000009</v>
+        <v>99.84</v>
       </c>
       <c r="S19" s="169">
-        <v>99.844999999999999</v>
+        <v>99.84</v>
       </c>
       <c r="T19" s="169">
         <v>99.835000000000008</v>
       </c>
       <c r="U19" s="173">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
-        <v>99.847499999999997</v>
+        <v>99.835000000000008</v>
       </c>
       <c r="V19" s="171"/>
       <c r="W19" s="232">
-        <v>99.847499999999997</v>
+        <v>99.835000000000008</v>
       </c>
       <c r="X19" s="171"/>
       <c r="Y19" s="231">
-        <v>99.847499999999997</v>
+        <v>99.835000000000008</v>
       </c>
       <c r="Z19" s="173">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19,Trigger)</f>
-        <v>-2.7500000000003411E-2</v>
+        <v>-1.2499999999988631E-2</v>
       </c>
       <c r="AA19" s="12"/>
       <c r="AB19" s="4"/>
@@ -6026,15 +6026,15 @@
         <v>1</v>
       </c>
       <c r="AK19" s="94" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="AL19" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORU6ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORZ6ConvAdj_Quote</v>
       </c>
       <c r="AM19" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL19,IborIndex,AK19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORZ6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM19)</f>
@@ -6051,15 +6051,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="94" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E20" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORZ6_Quote</v>
+        <v>JPYFUT3MTIBORH7_Quote</v>
       </c>
       <c r="F20" s="92" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ6_Quote#0001</v>
+        <v>JPYFUT3MTIBORH7_Quote#0001</v>
       </c>
       <c r="G20" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -6074,44 +6074,44 @@
         <v>1</v>
       </c>
       <c r="M20" s="169" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="N20" s="234">
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="O20" s="169" t="str">
-        <v>JEYZ6</v>
+        <v>JEYH7</v>
       </c>
       <c r="P20" s="233">
-        <v>42723</v>
+        <v>42807</v>
       </c>
       <c r="Q20" s="169">
-        <v>99.835000000000008</v>
+        <v>99.820000000000007</v>
       </c>
       <c r="R20" s="169">
-        <v>99.84</v>
+        <v>99.83</v>
       </c>
       <c r="S20" s="169">
-        <v>99.835000000000008</v>
+        <v>99.820000000000007</v>
       </c>
       <c r="T20" s="169">
         <v>99.825000000000003</v>
       </c>
       <c r="U20" s="173">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
-        <v>99.837500000000006</v>
+        <v>99.825000000000003</v>
       </c>
       <c r="V20" s="171"/>
       <c r="W20" s="232">
-        <v>99.837500000000006</v>
+        <v>99.825000000000003</v>
       </c>
       <c r="X20" s="171"/>
       <c r="Y20" s="231">
-        <v>99.837500000000006</v>
+        <v>99.825000000000003</v>
       </c>
       <c r="Z20" s="173">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20,Trigger)</f>
-        <v>-3.4999999999996589E-2</v>
+        <v>-1.2500000000002842E-2</v>
       </c>
       <c r="AA20" s="12"/>
       <c r="AB20" s="4"/>
@@ -6127,15 +6127,15 @@
         <v>1</v>
       </c>
       <c r="AK20" s="94" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="AL20" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORZ6ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORH7ConvAdj_Quote</v>
       </c>
       <c r="AM20" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL20,IborIndex,AK20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORH7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM20)</f>
@@ -6152,15 +6152,15 @@
         <v>1</v>
       </c>
       <c r="D21" s="94" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E21" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORH7_Quote</v>
+        <v>JPYFUT3MTIBORM7_Quote</v>
       </c>
       <c r="F21" s="92" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH7_Quote#0001</v>
+        <v>JPYFUT3MTIBORM7_Quote#0001</v>
       </c>
       <c r="G21" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -6175,44 +6175,44 @@
         <v>1</v>
       </c>
       <c r="M21" s="169" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="N21" s="234">
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="O21" s="169" t="str">
-        <v>JEYH7</v>
+        <v>JEYM7</v>
       </c>
       <c r="P21" s="233">
-        <v>42807</v>
+        <v>42905</v>
       </c>
       <c r="Q21" s="169">
-        <v>99.820000000000007</v>
+        <v>99.8</v>
       </c>
       <c r="R21" s="169">
-        <v>99.83</v>
+        <v>99.81</v>
       </c>
       <c r="S21" s="169">
-        <v>99.825000000000003</v>
+        <v>0</v>
       </c>
       <c r="T21" s="169">
-        <v>99.814999999999998</v>
+        <v>99.81</v>
       </c>
       <c r="U21" s="173">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
-        <v>99.825000000000003</v>
+        <v>99.805000000000007</v>
       </c>
       <c r="V21" s="171"/>
       <c r="W21" s="232">
-        <v>99.825000000000003</v>
+        <v>99.805000000000007</v>
       </c>
       <c r="X21" s="171"/>
       <c r="Y21" s="231">
-        <v>99.825000000000003</v>
+        <v>99.805000000000007</v>
       </c>
       <c r="Z21" s="173">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
-        <v>-3.7499999999994316E-2</v>
+        <v>-1.9999999999996021E-2</v>
       </c>
       <c r="AA21" s="12"/>
       <c r="AB21" s="4"/>
@@ -6228,15 +6228,15 @@
         <v>1</v>
       </c>
       <c r="AK21" s="94" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="AL21" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORH7ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORM7ConvAdj_Quote</v>
       </c>
       <c r="AM21" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL21,IborIndex,AK21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH7ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORM7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM21)</f>
@@ -6253,15 +6253,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="94" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E22" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORM7_Quote</v>
+        <v>JPYFUT3MTIBORU7_Quote</v>
       </c>
       <c r="F22" s="92" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM7_Quote#0001</v>
+        <v>JPYFUT3MTIBORU7_Quote#0001</v>
       </c>
       <c r="G22" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -6276,44 +6276,44 @@
         <v>1</v>
       </c>
       <c r="M22" s="169" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="N22" s="234">
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="O22" s="169" t="str">
-        <v>JEYM7</v>
+        <v>JEYU7</v>
       </c>
       <c r="P22" s="233">
-        <v>42905</v>
+        <v>42993</v>
       </c>
       <c r="Q22" s="169">
-        <v>99.795000000000002</v>
+        <v>99.765000000000001</v>
       </c>
       <c r="R22" s="169">
-        <v>99.81</v>
+        <v>99.8</v>
       </c>
       <c r="S22" s="169">
-        <v>99.805000000000007</v>
+        <v>0</v>
       </c>
       <c r="T22" s="169">
         <v>99.795000000000002</v>
       </c>
       <c r="U22" s="173">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
-        <v>99.802500000000009</v>
+        <v>99.782499999999999</v>
       </c>
       <c r="V22" s="171"/>
       <c r="W22" s="232">
-        <v>99.802500000000009</v>
+        <v>99.782499999999999</v>
       </c>
       <c r="X22" s="171"/>
       <c r="Y22" s="231">
-        <v>99.802500000000009</v>
-      </c>
-      <c r="Z22" s="173" t="e">
+        <v>99.782499999999999</v>
+      </c>
+      <c r="Z22" s="173">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22,Trigger)</f>
-        <v>#N/A</v>
+        <v>-2.0000000000010232E-2</v>
       </c>
       <c r="AA22" s="12"/>
       <c r="AB22" s="4"/>
@@ -6329,15 +6329,15 @@
         <v>1</v>
       </c>
       <c r="AK22" s="94" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="AL22" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORM7ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORU7ConvAdj_Quote</v>
       </c>
       <c r="AM22" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL22,IborIndex,AK22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM7ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORU7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM22)</f>
@@ -6354,15 +6354,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="94" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E23" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORU7_Quote</v>
+        <v>JPYFUT3MTIBORZ7_Quote</v>
       </c>
       <c r="F23" s="92" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU7_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ7_Quote#0001</v>
       </c>
       <c r="G23" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -6377,44 +6377,44 @@
         <v>1</v>
       </c>
       <c r="M23" s="169" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="N23" s="234">
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="O23" s="169" t="str">
-        <v>JEYU7</v>
+        <v>JEYZ7</v>
       </c>
       <c r="P23" s="233">
-        <v>42993</v>
+        <v>43087</v>
       </c>
       <c r="Q23" s="169">
-        <v>99.77</v>
+        <v>99.745000000000005</v>
       </c>
       <c r="R23" s="169">
-        <v>99.79</v>
+        <v>99.8</v>
       </c>
       <c r="S23" s="169">
         <v>0</v>
       </c>
       <c r="T23" s="169">
-        <v>99.77</v>
+        <v>99.775000000000006</v>
       </c>
       <c r="U23" s="173">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
-        <v>99.78</v>
+        <v>99.772500000000008</v>
       </c>
       <c r="V23" s="171"/>
       <c r="W23" s="232">
-        <v>99.78</v>
+        <v>99.772500000000008</v>
       </c>
       <c r="X23" s="171"/>
       <c r="Y23" s="231">
-        <v>99.78</v>
-      </c>
-      <c r="Z23" s="173" t="e">
+        <v>99.772500000000008</v>
+      </c>
+      <c r="Z23" s="173">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23,Trigger)</f>
-        <v>#N/A</v>
+        <v>-7.4999999999931788E-3</v>
       </c>
       <c r="AA23" s="12"/>
       <c r="AB23" s="4"/>
@@ -6430,15 +6430,15 @@
         <v>1</v>
       </c>
       <c r="AK23" s="94" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="AL23" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORU7ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORZ7ConvAdj_Quote</v>
       </c>
       <c r="AM23" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL23,IborIndex,AK23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU7ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORZ7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM23)</f>
@@ -6455,15 +6455,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="94" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E24" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORZ7_Quote</v>
+        <v>JPYFUT3MTIBORH8_Quote</v>
       </c>
       <c r="F24" s="92" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ7_Quote#0001</v>
+        <v>JPYFUT3MTIBORH8_Quote#0001</v>
       </c>
       <c r="G24" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -6478,44 +6478,44 @@
         <v>1</v>
       </c>
       <c r="M24" s="169" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="N24" s="234">
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="O24" s="169" t="str">
-        <v>JEYZ7</v>
+        <v>JEYH8</v>
       </c>
       <c r="P24" s="233">
-        <v>43087</v>
+        <v>43178</v>
       </c>
       <c r="Q24" s="169">
-        <v>99.740000000000009</v>
+        <v>99.710000000000008</v>
       </c>
       <c r="R24" s="169">
-        <v>99.765000000000001</v>
+        <v>99.775000000000006</v>
       </c>
       <c r="S24" s="169">
         <v>0</v>
       </c>
       <c r="T24" s="169">
-        <v>99.734999999999999</v>
+        <v>99.754999999999995</v>
       </c>
       <c r="U24" s="173">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
-        <v>99.752499999999998</v>
+        <v>99.742500000000007</v>
       </c>
       <c r="V24" s="171"/>
       <c r="W24" s="232">
-        <v>99.752499999999998</v>
+        <v>99.742500000000007</v>
       </c>
       <c r="X24" s="171"/>
       <c r="Y24" s="231">
-        <v>99.752499999999998</v>
-      </c>
-      <c r="Z24" s="173" t="e">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="Z24" s="173">
         <f>_xll.qlSimpleQuoteSetValue(F24,Y24,Trigger)</f>
-        <v>#N/A</v>
+        <v>-9.9999999999909051E-3</v>
       </c>
       <c r="AA24" s="12"/>
       <c r="AB24" s="4"/>
@@ -6531,15 +6531,15 @@
         <v>1</v>
       </c>
       <c r="AK24" s="94" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="AL24" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORZ7ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORH8ConvAdj_Quote</v>
       </c>
       <c r="AM24" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL24,IborIndex,AK24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ7ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORH8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM24)</f>
@@ -6556,15 +6556,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="94" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E25" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORH8_Quote</v>
+        <v>JPYFUT3MTIBORM8_Quote</v>
       </c>
       <c r="F25" s="92" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH8_Quote#0001</v>
+        <v>JPYFUT3MTIBORM8_Quote#0001</v>
       </c>
       <c r="G25" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -6579,44 +6579,44 @@
         <v>1</v>
       </c>
       <c r="M25" s="169" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="N25" s="234">
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="O25" s="169" t="str">
-        <v>JEYH8</v>
+        <v>JEYM8</v>
       </c>
       <c r="P25" s="233">
-        <v>43178</v>
+        <v>43269</v>
       </c>
       <c r="Q25" s="169">
-        <v>99.710000000000008</v>
+        <v>99.685000000000002</v>
       </c>
       <c r="R25" s="169">
-        <v>99.734999999999999</v>
+        <v>99.75</v>
       </c>
       <c r="S25" s="169">
         <v>0</v>
       </c>
       <c r="T25" s="169">
-        <v>99.715000000000003</v>
+        <v>99.725000000000009</v>
       </c>
       <c r="U25" s="173">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
-        <v>99.722499999999997</v>
+        <v>99.717500000000001</v>
       </c>
       <c r="V25" s="171"/>
       <c r="W25" s="232">
-        <v>99.722499999999997</v>
+        <v>99.717500000000001</v>
       </c>
       <c r="X25" s="171"/>
       <c r="Y25" s="231">
-        <v>99.722499999999997</v>
-      </c>
-      <c r="Z25" s="173" t="e">
+        <v>99.717500000000001</v>
+      </c>
+      <c r="Z25" s="173">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25,Trigger)</f>
-        <v>#N/A</v>
+        <v>-4.9999999999954525E-3</v>
       </c>
       <c r="AA25" s="12"/>
       <c r="AB25" s="4"/>
@@ -6632,15 +6632,15 @@
         <v>1</v>
       </c>
       <c r="AK25" s="94" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="AL25" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORH8ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORM8ConvAdj_Quote</v>
       </c>
       <c r="AM25" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL25,IborIndex,AK25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH8ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORM8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM25)</f>
@@ -6657,15 +6657,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="94" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E26" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORM8_Quote</v>
+        <v>JPYFUT3MTIBORU8_Quote</v>
       </c>
       <c r="F26" s="92" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM8_Quote#0001</v>
+        <v>JPYFUT3MTIBORU8_Quote#0001</v>
       </c>
       <c r="G26" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -6680,16 +6680,16 @@
         <v>1</v>
       </c>
       <c r="M26" s="169" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="N26" s="234">
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="O26" s="169" t="str">
-        <v>JEYM8</v>
+        <v>JEYU8</v>
       </c>
       <c r="P26" s="233">
-        <v>43269</v>
+        <v>43357</v>
       </c>
       <c r="Q26" s="169">
         <v>0</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="169">
-        <v>99.64</v>
+        <v>99.65</v>
       </c>
       <c r="U26" s="173" t="e">
         <f>_xll.qlMidSafe($Q26,$R26)</f>
@@ -6733,15 +6733,15 @@
         <v>1</v>
       </c>
       <c r="AK26" s="94" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="AL26" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORM8ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORU8ConvAdj_Quote</v>
       </c>
       <c r="AM26" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL26,IborIndex,AK26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM8ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORU8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM26)</f>
@@ -6758,15 +6758,15 @@
         <v>1</v>
       </c>
       <c r="D27" s="94" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E27" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORU8_Quote</v>
+        <v>JPYFUT3MTIBORZ8_Quote</v>
       </c>
       <c r="F27" s="92" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU8_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ8_Quote#0001</v>
       </c>
       <c r="G27" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -6781,16 +6781,16 @@
         <v>1</v>
       </c>
       <c r="M27" s="169" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="N27" s="234">
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="O27" s="169" t="str">
-        <v>JEYU8</v>
+        <v>JEYZ8</v>
       </c>
       <c r="P27" s="233">
-        <v>43357</v>
+        <v>43451</v>
       </c>
       <c r="Q27" s="169">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="169">
-        <v>99.564999999999998</v>
+        <v>99.575000000000003</v>
       </c>
       <c r="U27" s="173" t="e">
         <f>_xll.qlMidSafe($Q27,$R27)</f>
@@ -6834,15 +6834,15 @@
         <v>1</v>
       </c>
       <c r="AK27" s="94" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="AL27" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORU8ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORZ8ConvAdj_Quote</v>
       </c>
       <c r="AM27" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL27,IborIndex,AK27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU8ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORZ8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM27)</f>
@@ -6859,15 +6859,15 @@
         <v>1</v>
       </c>
       <c r="D28" s="94" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E28" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORZ8_Quote</v>
+        <v>JPYFUT3MTIBORH9_Quote</v>
       </c>
       <c r="F28" s="92" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ8_Quote#0001</v>
+        <v>JPYFUT3MTIBORH9_Quote#0001</v>
       </c>
       <c r="G28" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -6882,16 +6882,16 @@
         <v>1</v>
       </c>
       <c r="M28" s="169" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="N28" s="234">
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="O28" s="169" t="str">
-        <v>JEYZ8</v>
+        <v>JEYH9</v>
       </c>
       <c r="P28" s="233">
-        <v>43451</v>
+        <v>43542</v>
       </c>
       <c r="Q28" s="169">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="169">
-        <v>99.490000000000009</v>
+        <v>99.5</v>
       </c>
       <c r="U28" s="173" t="e">
         <f>_xll.qlMidSafe($Q28,$R28)</f>
@@ -6935,15 +6935,15 @@
         <v>1</v>
       </c>
       <c r="AK28" s="94" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="AL28" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORZ8ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORH9ConvAdj_Quote</v>
       </c>
       <c r="AM28" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL28,IborIndex,AK28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ8ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORH9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM28)</f>
@@ -6960,15 +6960,15 @@
         <v>1</v>
       </c>
       <c r="D29" s="94" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E29" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORH9_Quote</v>
+        <v>JPYFUT3MTIBORM9_Quote</v>
       </c>
       <c r="F29" s="92" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH9_Quote#0001</v>
+        <v>JPYFUT3MTIBORM9_Quote#0001</v>
       </c>
       <c r="G29" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -6983,16 +6983,16 @@
         <v>1</v>
       </c>
       <c r="M29" s="169" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="N29" s="234">
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="O29" s="169" t="str">
-        <v>JEYH9</v>
+        <v>JEYM9</v>
       </c>
       <c r="P29" s="233">
-        <v>43542</v>
+        <v>43633</v>
       </c>
       <c r="Q29" s="169">
         <v>0</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="169">
-        <v>99.415000000000006</v>
+        <v>99.424999999999997</v>
       </c>
       <c r="U29" s="173" t="e">
         <f>_xll.qlMidSafe($Q29,$R29)</f>
@@ -7036,15 +7036,15 @@
         <v>1</v>
       </c>
       <c r="AK29" s="94" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="AL29" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORH9ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORM9ConvAdj_Quote</v>
       </c>
       <c r="AM29" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL29,IborIndex,AK29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH9ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORM9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM29)</f>
@@ -7061,15 +7061,15 @@
         <v>1</v>
       </c>
       <c r="D30" s="94" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E30" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORM9_Quote</v>
+        <v>JPYFUT3MTIBORU9_Quote</v>
       </c>
       <c r="F30" s="92" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM9_Quote#0001</v>
+        <v>JPYFUT3MTIBORU9_Quote#0001</v>
       </c>
       <c r="G30" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -7084,16 +7084,16 @@
         <v>1</v>
       </c>
       <c r="M30" s="169" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="N30" s="234">
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="O30" s="169" t="str">
-        <v>JEYM9</v>
+        <v>JEYU9</v>
       </c>
       <c r="P30" s="233">
-        <v>43633</v>
+        <v>43721</v>
       </c>
       <c r="Q30" s="169">
         <v>0</v>
@@ -7105,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="169">
-        <v>99.34</v>
+        <v>99.350000000000009</v>
       </c>
       <c r="U30" s="173" t="e">
         <f>_xll.qlMidSafe($Q30,$R30)</f>
@@ -7137,15 +7137,15 @@
         <v>1</v>
       </c>
       <c r="AK30" s="94" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="AL30" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORM9ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORU9ConvAdj_Quote</v>
       </c>
       <c r="AM30" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL30,IborIndex,AK30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM9ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORU9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM30)</f>
@@ -7162,15 +7162,15 @@
         <v>1</v>
       </c>
       <c r="D31" s="94" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E31" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORU9_Quote</v>
+        <v>JPYFUT3MTIBORZ9_Quote</v>
       </c>
       <c r="F31" s="92" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU9_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ9_Quote#0001</v>
       </c>
       <c r="G31" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -7185,16 +7185,16 @@
         <v>1</v>
       </c>
       <c r="M31" s="169" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="N31" s="234">
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="O31" s="169" t="str">
-        <v>JEYU9</v>
+        <v>JEYZ9</v>
       </c>
       <c r="P31" s="233">
-        <v>43721</v>
+        <v>43815</v>
       </c>
       <c r="Q31" s="169">
         <v>0</v>
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="169">
-        <v>99.265000000000001</v>
+        <v>99.275000000000006</v>
       </c>
       <c r="U31" s="173" t="e">
         <f>_xll.qlMidSafe($Q31,$R31)</f>
@@ -7238,15 +7238,15 @@
         <v>1</v>
       </c>
       <c r="AK31" s="94" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="AL31" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORU9ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORZ9ConvAdj_Quote</v>
       </c>
       <c r="AM31" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL31,IborIndex,AK31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU9ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORZ9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM31)</f>
@@ -7263,15 +7263,15 @@
         <v>1</v>
       </c>
       <c r="D32" s="94" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E32" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORZ9_Quote</v>
+        <v>JPYFUT3MTIBORH0_Quote</v>
       </c>
       <c r="F32" s="92" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ9_Quote#0001</v>
+        <v>JPYFUT3MTIBORH0_Quote#0001</v>
       </c>
       <c r="G32" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -7286,16 +7286,16 @@
         <v>1</v>
       </c>
       <c r="M32" s="169" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="N32" s="234">
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="O32" s="169" t="str">
-        <v>JEYZ9</v>
+        <v>JEYH0</v>
       </c>
       <c r="P32" s="233">
-        <v>43815</v>
+        <v>43906</v>
       </c>
       <c r="Q32" s="169">
         <v>0</v>
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="169">
-        <v>99.19</v>
+        <v>99.2</v>
       </c>
       <c r="U32" s="173" t="e">
         <f>_xll.qlMidSafe($Q32,$R32)</f>
@@ -7339,15 +7339,15 @@
         <v>1</v>
       </c>
       <c r="AK32" s="94" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="AL32" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORZ9ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORH0ConvAdj_Quote</v>
       </c>
       <c r="AM32" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL32,IborIndex,AK32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ9ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORH0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM32)</f>
@@ -7364,15 +7364,15 @@
         <v>1</v>
       </c>
       <c r="D33" s="94" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E33" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORH0_Quote</v>
+        <v>JPYFUT3MTIBORM0_Quote</v>
       </c>
       <c r="F33" s="92" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH0_Quote#0001</v>
+        <v>JPYFUT3MTIBORM0_Quote#0001</v>
       </c>
       <c r="G33" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -7387,16 +7387,16 @@
         <v>1</v>
       </c>
       <c r="M33" s="169" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="N33" s="234">
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="O33" s="169" t="str">
-        <v>JEYH0</v>
+        <v>JEYM0</v>
       </c>
       <c r="P33" s="233">
-        <v>43906</v>
+        <v>43997</v>
       </c>
       <c r="Q33" s="169">
         <v>0</v>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="169">
-        <v>99.115000000000009</v>
+        <v>99.125</v>
       </c>
       <c r="U33" s="173" t="e">
         <f>_xll.qlMidSafe($Q33,$R33)</f>
@@ -7440,15 +7440,15 @@
         <v>1</v>
       </c>
       <c r="AK33" s="94" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="AL33" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORH0ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORM0ConvAdj_Quote</v>
       </c>
       <c r="AM33" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL33,IborIndex,AK33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH0ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORM0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM33)</f>
@@ -7465,15 +7465,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="94" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E34" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORM0_Quote</v>
+        <v>JPYFUT3MTIBORU0_Quote</v>
       </c>
       <c r="F34" s="92" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM0_Quote#0001</v>
+        <v>JPYFUT3MTIBORU0_Quote#0001</v>
       </c>
       <c r="G34" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -7488,13 +7488,13 @@
         <v>1</v>
       </c>
       <c r="M34" s="169" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="N34" s="234">
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="O34" s="169" t="str">
-        <v>JEYM0</v>
+        <v>JEYU0</v>
       </c>
       <c r="P34" s="233" t="s">
         <v>315</v>
@@ -7541,15 +7541,15 @@
         <v>1</v>
       </c>
       <c r="AK34" s="94" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="AL34" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORM0ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORU0ConvAdj_Quote</v>
       </c>
       <c r="AM34" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL34,IborIndex,AK34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM0ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORU0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM34)</f>
@@ -7566,15 +7566,15 @@
         <v>1</v>
       </c>
       <c r="D35" s="94" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E35" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORU0_Quote</v>
+        <v>JPYFUT3MTIBORZ0_Quote</v>
       </c>
       <c r="F35" s="92" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU0_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ0_Quote#0001</v>
       </c>
       <c r="G35" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -7589,13 +7589,13 @@
         <v>1</v>
       </c>
       <c r="M35" s="169" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="N35" s="234">
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="O35" s="169" t="str">
-        <v>JEYU0</v>
+        <v>JEYZ0</v>
       </c>
       <c r="P35" s="233" t="s">
         <v>315</v>
@@ -7642,15 +7642,15 @@
         <v>1</v>
       </c>
       <c r="AK35" s="94" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="AL35" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORU0ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORZ0ConvAdj_Quote</v>
       </c>
       <c r="AM35" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL35,IborIndex,AK35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU0ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORZ0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM35)</f>
@@ -7667,15 +7667,15 @@
         <v>1</v>
       </c>
       <c r="D36" s="94" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E36" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORZ0_Quote</v>
+        <v>JPYFUT3MTIBORH1_Quote</v>
       </c>
       <c r="F36" s="92" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ0_Quote#0001</v>
+        <v>JPYFUT3MTIBORH1_Quote#0001</v>
       </c>
       <c r="G36" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -7690,13 +7690,13 @@
         <v>1</v>
       </c>
       <c r="M36" s="169" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="N36" s="234">
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="O36" s="169" t="str">
-        <v>JEYZ0</v>
+        <v>JEYH1</v>
       </c>
       <c r="P36" s="233" t="s">
         <v>315</v>
@@ -7743,15 +7743,15 @@
         <v>1</v>
       </c>
       <c r="AK36" s="94" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="AL36" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORZ0ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORH1ConvAdj_Quote</v>
       </c>
       <c r="AM36" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL36,IborIndex,AK36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ0ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORH1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM36)</f>
@@ -7768,15 +7768,15 @@
         <v>1</v>
       </c>
       <c r="D37" s="94" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E37" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORH1_Quote</v>
+        <v>JPYFUT3MTIBORM1_Quote</v>
       </c>
       <c r="F37" s="92" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH1_Quote#0001</v>
+        <v>JPYFUT3MTIBORM1_Quote#0001</v>
       </c>
       <c r="G37" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -7791,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="M37" s="169" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="N37" s="234">
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="O37" s="169" t="str">
-        <v>JEYH1</v>
+        <v>JEYM1</v>
       </c>
       <c r="P37" s="233" t="s">
         <v>315</v>
@@ -7844,15 +7844,15 @@
         <v>1</v>
       </c>
       <c r="AK37" s="94" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="AL37" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORH1ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORM1ConvAdj_Quote</v>
       </c>
       <c r="AM37" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL37,IborIndex,AK37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH1ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORM1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM37)</f>
@@ -7869,15 +7869,15 @@
         <v>1</v>
       </c>
       <c r="D38" s="94" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E38" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORM1_Quote</v>
+        <v>JPYFUT3MTIBORU1_Quote</v>
       </c>
       <c r="F38" s="92" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM1_Quote#0001</v>
+        <v>JPYFUT3MTIBORU1_Quote#0001</v>
       </c>
       <c r="G38" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -7892,13 +7892,13 @@
         <v>1</v>
       </c>
       <c r="M38" s="169" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="N38" s="234">
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="O38" s="169" t="str">
-        <v>JEYM1</v>
+        <v>JEYU1</v>
       </c>
       <c r="P38" s="233" t="s">
         <v>315</v>
@@ -7945,15 +7945,15 @@
         <v>1</v>
       </c>
       <c r="AK38" s="94" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="AL38" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORM1ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORU1ConvAdj_Quote</v>
       </c>
       <c r="AM38" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL38,IborIndex,AK38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM1ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORU1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM38)</f>
@@ -7970,15 +7970,15 @@
         <v>1</v>
       </c>
       <c r="D39" s="94" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E39" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORU1_Quote</v>
+        <v>JPYFUT3MTIBORZ1_Quote</v>
       </c>
       <c r="F39" s="92" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU1_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ1_Quote#0001</v>
       </c>
       <c r="G39" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -7993,13 +7993,13 @@
         <v>1</v>
       </c>
       <c r="M39" s="169" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="N39" s="234">
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="O39" s="169" t="str">
-        <v>JEYU1</v>
+        <v>JEYZ1</v>
       </c>
       <c r="P39" s="233" t="s">
         <v>315</v>
@@ -8046,15 +8046,15 @@
         <v>1</v>
       </c>
       <c r="AK39" s="94" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="AL39" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORU1ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORZ1ConvAdj_Quote</v>
       </c>
       <c r="AM39" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL39,IborIndex,AK39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU1ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORZ1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM39)</f>
@@ -8071,15 +8071,15 @@
         <v>1</v>
       </c>
       <c r="D40" s="94" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E40" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORZ1_Quote</v>
+        <v>JPYFUT3MTIBORH2_Quote</v>
       </c>
       <c r="F40" s="92" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ1_Quote#0001</v>
+        <v>JPYFUT3MTIBORH2_Quote#0001</v>
       </c>
       <c r="G40" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -8094,13 +8094,13 @@
         <v>1</v>
       </c>
       <c r="M40" s="169" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="N40" s="234">
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="O40" s="169" t="str">
-        <v>JEYZ1</v>
+        <v>JEYH2</v>
       </c>
       <c r="P40" s="233" t="s">
         <v>315</v>
@@ -8147,15 +8147,15 @@
         <v>1</v>
       </c>
       <c r="AK40" s="94" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="AL40" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORZ1ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORH2ConvAdj_Quote</v>
       </c>
       <c r="AM40" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL40,IborIndex,AK40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ1ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORH2ConvAdj_Quote#0005</v>
       </c>
       <c r="AN40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM40)</f>
@@ -8172,15 +8172,15 @@
         <v>1</v>
       </c>
       <c r="D41" s="94" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E41" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORH2_Quote</v>
+        <v>JPYFUT3MTIBORM2_Quote</v>
       </c>
       <c r="F41" s="92" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH2_Quote#0001</v>
+        <v>JPYFUT3MTIBORM2_Quote#0001</v>
       </c>
       <c r="G41" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -8195,13 +8195,13 @@
         <v>1</v>
       </c>
       <c r="M41" s="169" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="N41" s="234">
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="O41" s="169" t="str">
-        <v>JEYH2</v>
+        <v>JEYM2</v>
       </c>
       <c r="P41" s="233" t="s">
         <v>315</v>
@@ -8248,15 +8248,15 @@
         <v>1</v>
       </c>
       <c r="AK41" s="94" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="AL41" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORH2ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORM2ConvAdj_Quote</v>
       </c>
       <c r="AM41" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL41,IborIndex,AK41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH2ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORM2ConvAdj_Quote#0005</v>
       </c>
       <c r="AN41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM41)</f>
@@ -8273,15 +8273,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="94" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E42" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORM2_Quote</v>
+        <v>JPYFUT3MTIBORU2_Quote</v>
       </c>
       <c r="F42" s="92" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM2_Quote#0001</v>
+        <v>JPYFUT3MTIBORU2_Quote#0001</v>
       </c>
       <c r="G42" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -8296,13 +8296,13 @@
         <v>1</v>
       </c>
       <c r="M42" s="169" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="N42" s="234">
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="O42" s="169" t="str">
-        <v>JEYM2</v>
+        <v>JEYU2</v>
       </c>
       <c r="P42" s="233" t="s">
         <v>315</v>
@@ -8349,15 +8349,15 @@
         <v>1</v>
       </c>
       <c r="AK42" s="94" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="AL42" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORM2ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORU2ConvAdj_Quote</v>
       </c>
       <c r="AM42" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL42,IborIndex,AK42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM2ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORU2ConvAdj_Quote#0005</v>
       </c>
       <c r="AN42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM42)</f>
@@ -8374,15 +8374,15 @@
         <v>1</v>
       </c>
       <c r="D43" s="94" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E43" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORU2_Quote</v>
+        <v>JPYFUT3MTIBORZ2_Quote</v>
       </c>
       <c r="F43" s="92" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU2_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ2_Quote#0001</v>
       </c>
       <c r="G43" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -8397,13 +8397,13 @@
         <v>1</v>
       </c>
       <c r="M43" s="169" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="N43" s="234">
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="O43" s="169" t="str">
-        <v>JEYU2</v>
+        <v>JEYZ2</v>
       </c>
       <c r="P43" s="233" t="s">
         <v>315</v>
@@ -8450,15 +8450,15 @@
         <v>1</v>
       </c>
       <c r="AK43" s="94" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="AL43" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORU2ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORZ2ConvAdj_Quote</v>
       </c>
       <c r="AM43" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL43,IborIndex,AK43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU2ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORZ2ConvAdj_Quote#0005</v>
       </c>
       <c r="AN43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM43)</f>
@@ -8475,15 +8475,15 @@
         <v>1</v>
       </c>
       <c r="D44" s="94" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E44" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORZ2_Quote</v>
+        <v>JPYFUT3MTIBORH3_Quote</v>
       </c>
       <c r="F44" s="92" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ2_Quote#0001</v>
+        <v>JPYFUT3MTIBORH3_Quote#0001</v>
       </c>
       <c r="G44" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -8498,13 +8498,13 @@
         <v>1</v>
       </c>
       <c r="M44" s="169" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="N44" s="234">
-        <v>44916</v>
+        <v>45000</v>
       </c>
       <c r="O44" s="169" t="str">
-        <v>JEYZ2</v>
+        <v>JEYH3</v>
       </c>
       <c r="P44" s="233" t="s">
         <v>315</v>
@@ -8551,15 +8551,15 @@
         <v>1</v>
       </c>
       <c r="AK44" s="94" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="AL44" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORZ2ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORH3ConvAdj_Quote</v>
       </c>
       <c r="AM44" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL44,IborIndex,AK44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ2ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORH3ConvAdj_Quote#0005</v>
       </c>
       <c r="AN44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM44)</f>
@@ -8576,15 +8576,15 @@
         <v>1</v>
       </c>
       <c r="D45" s="94" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E45" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORH3_Quote</v>
+        <v>JPYFUT3MTIBORM3_Quote</v>
       </c>
       <c r="F45" s="92" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH3_Quote#0001</v>
+        <v>JPYFUT3MTIBORM3_Quote#0001</v>
       </c>
       <c r="G45" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -8599,13 +8599,13 @@
         <v>1</v>
       </c>
       <c r="M45" s="169" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="N45" s="234">
-        <v>45000</v>
+        <v>45098</v>
       </c>
       <c r="O45" s="169" t="str">
-        <v>JEYH3</v>
+        <v>JEYM3</v>
       </c>
       <c r="P45" s="233" t="s">
         <v>315</v>
@@ -8652,15 +8652,15 @@
         <v>1</v>
       </c>
       <c r="AK45" s="94" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="AL45" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORH3ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORM3ConvAdj_Quote</v>
       </c>
       <c r="AM45" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL45,IborIndex,AK45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH3ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORM3ConvAdj_Quote#0005</v>
       </c>
       <c r="AN45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM45)</f>
@@ -8677,15 +8677,15 @@
         <v>1</v>
       </c>
       <c r="D46" s="94" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="E46" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORM3_Quote</v>
+        <v>JPYFUT3MTIBORU3_Quote</v>
       </c>
       <c r="F46" s="92" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM3_Quote#0001</v>
+        <v>JPYFUT3MTIBORU3_Quote#0001</v>
       </c>
       <c r="G46" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -8700,13 +8700,13 @@
         <v>1</v>
       </c>
       <c r="M46" s="169" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="N46" s="234">
-        <v>45098</v>
+        <v>45189</v>
       </c>
       <c r="O46" s="169" t="str">
-        <v>JEYM3</v>
+        <v>JEYU3</v>
       </c>
       <c r="P46" s="233" t="s">
         <v>315</v>
@@ -8753,15 +8753,15 @@
         <v>1</v>
       </c>
       <c r="AK46" s="94" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="AL46" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORM3ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORU3ConvAdj_Quote</v>
       </c>
       <c r="AM46" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL46,IborIndex,AK46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM3ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORU3ConvAdj_Quote#0005</v>
       </c>
       <c r="AN46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM46)</f>
@@ -8778,15 +8778,15 @@
         <v>1</v>
       </c>
       <c r="D47" s="94" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="E47" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MTIBORU3_Quote</v>
+        <v>JPYFUT3MTIBORZ3_Quote</v>
       </c>
       <c r="F47" s="92" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU3_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ3_Quote#0001</v>
       </c>
       <c r="G47" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -8801,13 +8801,13 @@
         <v>1</v>
       </c>
       <c r="M47" s="182" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="N47" s="227">
-        <v>45189</v>
+        <v>45280</v>
       </c>
       <c r="O47" s="182" t="str">
-        <v>JEYU3</v>
+        <v>JEYZ3</v>
       </c>
       <c r="P47" s="226" t="s">
         <v>315</v>
@@ -8854,15 +8854,15 @@
         <v>1</v>
       </c>
       <c r="AK47" s="94" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="AL47" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MTIBORU3ConvAdj_Quote</v>
+        <v>JPYFUT3MTIBORZ3ConvAdj_Quote</v>
       </c>
       <c r="AM47" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL47,IborIndex,AK47,F47,Volatility,MeanReversion,Permanent,AND(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU3ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MTIBORZ3ConvAdj_Quote#0005</v>
       </c>
       <c r="AN47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AM47)</f>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="O5" s="252" t="str">
         <f>_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="P5" s="249" t="s">
         <v>214</v>
@@ -9238,15 +9238,15 @@
       </c>
       <c r="D6" s="100" t="str">
         <f t="array" ref="D6:D47">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C6:$C47)</f>
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="E6" s="93" t="str">
         <f t="shared" ref="E6:E37" si="0">Currency&amp;$D$4&amp;$E$4&amp;$D6&amp;QuoteSuffix</f>
-        <v>JPYFUT3MK5_Quote</v>
+        <v>JPYFUT3MN5_Quote</v>
       </c>
       <c r="F6" s="99" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MK5_Quote#0001</v>
+        <v>JPYFUT3MN5_Quote#0001</v>
       </c>
       <c r="G6" s="98" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -9262,15 +9262,15 @@
       </c>
       <c r="M6" s="188" t="str">
         <f t="array" ref="M6:M47">_xll.qlIMMcode(FuturesDates)</f>
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="N6" s="241">
         <f t="array" ref="N6:N47">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,$L6:$L47)</f>
-        <v>42144</v>
+        <v>42200</v>
       </c>
       <c r="O6" s="188" t="str">
         <f t="array" ref="O6:O47">VLOOKUP(Currency,LiffeCodes,2)&amp;FuturesCodes</f>
-        <v>FEYK5</v>
+        <v>FEYN5</v>
       </c>
       <c r="P6" s="240" t="s">
         <v>315</v>
@@ -9321,15 +9321,15 @@
       </c>
       <c r="AI6" s="100" t="str">
         <f t="array" ref="AI6:AI47">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$AH6:$AH47)</f>
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="AJ6" s="163" t="str">
         <f t="shared" ref="AJ6:AJ47" si="1">Currency&amp;"FUT"&amp;$AL$4&amp;$AI6&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MK5ConvAdj_Quote</v>
+        <v>JPYFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="AK6" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ6,IborIndex,AI6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>JPYFUT3MK5ConvAdj_Quote#0006</v>
+        <v>JPYFUT3MN5ConvAdj_Quote#0006</v>
       </c>
       <c r="AL6" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK6)</f>
@@ -9346,15 +9346,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="94" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="E7" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MM5_Quote</v>
+        <v>JPYFUT3MQ5_Quote</v>
       </c>
       <c r="F7" s="92" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MM5_Quote#0001</v>
+        <v>JPYFUT3MQ5_Quote#0001</v>
       </c>
       <c r="G7" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -9369,13 +9369,13 @@
         <v>0</v>
       </c>
       <c r="M7" s="169" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="N7" s="234">
-        <v>42172</v>
+        <v>42235</v>
       </c>
       <c r="O7" s="169" t="str">
-        <v>FEYM5</v>
+        <v>FEYQ5</v>
       </c>
       <c r="P7" s="233" t="s">
         <v>315</v>
@@ -9424,15 +9424,15 @@
         <v>0</v>
       </c>
       <c r="AI7" s="94" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="AJ7" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM5ConvAdj_Quote</v>
+        <v>JPYFUT3MQ5ConvAdj_Quote</v>
       </c>
       <c r="AK7" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ7,IborIndex,AI7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MQ5ConvAdj_Quote#0005</v>
       </c>
       <c r="AL7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK7)</f>
@@ -9449,15 +9449,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="94" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="E8" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MN5_Quote</v>
+        <v>JPYFUT3MU5_Quote</v>
       </c>
       <c r="F8" s="92" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MN5_Quote#0001</v>
+        <v>JPYFUT3MU5_Quote#0001</v>
       </c>
       <c r="G8" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -9472,13 +9472,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="169" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="N8" s="234">
-        <v>42200</v>
+        <v>42263</v>
       </c>
       <c r="O8" s="169" t="str">
-        <v>FEYN5</v>
+        <v>FEYU5</v>
       </c>
       <c r="P8" s="233" t="s">
         <v>315</v>
@@ -9527,15 +9527,15 @@
         <v>0</v>
       </c>
       <c r="AI8" s="94" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="AJ8" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MN5ConvAdj_Quote</v>
+        <v>JPYFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="AK8" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ8,IborIndex,AI8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>JPYFUT3MN5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MU5ConvAdj_Quote#0005</v>
       </c>
       <c r="AL8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK8)</f>
@@ -9552,15 +9552,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="94" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="E9" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MQ5_Quote</v>
+        <v>JPYFUT3MV5_Quote</v>
       </c>
       <c r="F9" s="92" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MQ5_Quote#0001</v>
+        <v>JPYFUT3MV5_Quote#0001</v>
       </c>
       <c r="G9" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -9575,13 +9575,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="169" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="N9" s="234">
-        <v>42235</v>
+        <v>42298</v>
       </c>
       <c r="O9" s="169" t="str">
-        <v>FEYQ5</v>
+        <v>FEYV5</v>
       </c>
       <c r="P9" s="233" t="s">
         <v>315</v>
@@ -9630,15 +9630,15 @@
         <v>0</v>
       </c>
       <c r="AI9" s="94" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="AJ9" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MQ5ConvAdj_Quote</v>
+        <v>JPYFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="AK9" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ9,IborIndex,AI9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>JPYFUT3MQ5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MV5ConvAdj_Quote#0005</v>
       </c>
       <c r="AL9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK9)</f>
@@ -9655,15 +9655,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="94" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="E10" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MU5_Quote</v>
+        <v>JPYFUT3MX5_Quote</v>
       </c>
       <c r="F10" s="92" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MU5_Quote#0001</v>
+        <v>JPYFUT3MX5_Quote#0001</v>
       </c>
       <c r="G10" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -9679,13 +9679,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="169" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="N10" s="234">
-        <v>42263</v>
+        <v>42326</v>
       </c>
       <c r="O10" s="169" t="str">
-        <v>FEYU5</v>
+        <v>FEYX5</v>
       </c>
       <c r="P10" s="233" t="s">
         <v>315</v>
@@ -9734,15 +9734,15 @@
         <v>0</v>
       </c>
       <c r="AI10" s="94" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="AJ10" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU5ConvAdj_Quote</v>
+        <v>JPYFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="AK10" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ10,IborIndex,AI10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MX5ConvAdj_Quote#0005</v>
       </c>
       <c r="AL10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK10)</f>
@@ -9759,15 +9759,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="94" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="E11" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MV5_Quote</v>
+        <v>JPYFUT3MZ5_Quote</v>
       </c>
       <c r="F11" s="92" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MV5_Quote#0001</v>
+        <v>JPYFUT3MZ5_Quote#0001</v>
       </c>
       <c r="G11" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -9782,13 +9782,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="169" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="N11" s="234">
-        <v>42298</v>
+        <v>42354</v>
       </c>
       <c r="O11" s="169" t="str">
-        <v>FEYV5</v>
+        <v>FEYZ5</v>
       </c>
       <c r="P11" s="233" t="s">
         <v>315</v>
@@ -9833,15 +9833,15 @@
         <v>0</v>
       </c>
       <c r="AI11" s="94" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="AJ11" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MV5ConvAdj_Quote</v>
+        <v>JPYFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="AK11" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ11,IborIndex,AI11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>JPYFUT3MV5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MZ5ConvAdj_Quote#0005</v>
       </c>
       <c r="AL11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK11)</f>
@@ -9858,15 +9858,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="94" t="str">
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="E12" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MX5_Quote</v>
+        <v>JPYFUT3MF6_Quote</v>
       </c>
       <c r="F12" s="92" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MX5_Quote#0001</v>
+        <v>JPYFUT3MF6_Quote#0001</v>
       </c>
       <c r="G12" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="169" t="str">
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="N12" s="234">
-        <v>42326</v>
+        <v>42389</v>
       </c>
       <c r="O12" s="169" t="str">
-        <v>FEYX5</v>
+        <v>FEYF6</v>
       </c>
       <c r="P12" s="233" t="s">
         <v>315</v>
@@ -9932,15 +9932,15 @@
         <v>0</v>
       </c>
       <c r="AI12" s="94" t="str">
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="AJ12" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MX5ConvAdj_Quote</v>
+        <v>JPYFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="AK12" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ12,IborIndex,AI12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>JPYFUT3MX5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MF6ConvAdj_Quote#0005</v>
       </c>
       <c r="AL12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK12)</f>
@@ -9957,15 +9957,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="94" t="str">
-        <v>Z5</v>
+        <v>G6</v>
       </c>
       <c r="E13" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MZ5_Quote</v>
+        <v>JPYFUT3MG6_Quote</v>
       </c>
       <c r="F13" s="92" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MZ5_Quote#0001</v>
+        <v>JPYFUT3MG6_Quote#0001</v>
       </c>
       <c r="G13" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -9980,13 +9980,13 @@
         <v>0</v>
       </c>
       <c r="M13" s="169" t="str">
-        <v>Z5</v>
+        <v>G6</v>
       </c>
       <c r="N13" s="234">
-        <v>42354</v>
+        <v>42417</v>
       </c>
       <c r="O13" s="169" t="str">
-        <v>FEYZ5</v>
+        <v>FEYG6</v>
       </c>
       <c r="P13" s="233" t="s">
         <v>315</v>
@@ -10031,15 +10031,15 @@
         <v>0</v>
       </c>
       <c r="AI13" s="94" t="str">
-        <v>Z5</v>
+        <v>G6</v>
       </c>
       <c r="AJ13" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ5ConvAdj_Quote</v>
+        <v>JPYFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="AK13" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ13,IborIndex,AI13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ5ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MG6ConvAdj_Quote#0005</v>
       </c>
       <c r="AL13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK13)</f>
@@ -10056,15 +10056,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="94" t="str">
-        <v>F6</v>
+        <v>H6</v>
       </c>
       <c r="E14" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MF6_Quote</v>
+        <v>JPYFUT3MH6_Quote</v>
       </c>
       <c r="F14" s="92" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MF6_Quote#0001</v>
+        <v>JPYFUT3MH6_Quote#0001</v>
       </c>
       <c r="G14" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -10079,13 +10079,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="169" t="str">
-        <v>F6</v>
+        <v>H6</v>
       </c>
       <c r="N14" s="234">
-        <v>42389</v>
+        <v>42445</v>
       </c>
       <c r="O14" s="169" t="str">
-        <v>FEYF6</v>
+        <v>FEYH6</v>
       </c>
       <c r="P14" s="233" t="s">
         <v>315</v>
@@ -10130,15 +10130,15 @@
         <v>0</v>
       </c>
       <c r="AI14" s="94" t="str">
-        <v>F6</v>
+        <v>H6</v>
       </c>
       <c r="AJ14" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MF6ConvAdj_Quote</v>
+        <v>JPYFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="AK14" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ14,IborIndex,AI14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>JPYFUT3MF6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MH6ConvAdj_Quote#0005</v>
       </c>
       <c r="AL14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK14)</f>
@@ -10155,15 +10155,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="94" t="str">
-        <v>G6</v>
+        <v>J6</v>
       </c>
       <c r="E15" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MG6_Quote</v>
+        <v>JPYFUT3MJ6_Quote</v>
       </c>
       <c r="F15" s="92" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MG6_Quote#0001</v>
+        <v>JPYFUT3MJ6_Quote#0001</v>
       </c>
       <c r="G15" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -10178,13 +10178,13 @@
         <v>0</v>
       </c>
       <c r="M15" s="169" t="str">
-        <v>G6</v>
+        <v>J6</v>
       </c>
       <c r="N15" s="234">
-        <v>42417</v>
+        <v>42480</v>
       </c>
       <c r="O15" s="169" t="str">
-        <v>FEYG6</v>
+        <v>FEYJ6</v>
       </c>
       <c r="P15" s="233" t="s">
         <v>315</v>
@@ -10229,15 +10229,15 @@
         <v>0</v>
       </c>
       <c r="AI15" s="94" t="str">
-        <v>G6</v>
+        <v>J6</v>
       </c>
       <c r="AJ15" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MG6ConvAdj_Quote</v>
+        <v>JPYFUT3MJ6ConvAdj_Quote</v>
       </c>
       <c r="AK15" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ15,IborIndex,AI15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>JPYFUT3MG6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MJ6ConvAdj_Quote#0005</v>
       </c>
       <c r="AL15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK15)</f>
@@ -10254,15 +10254,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="94" t="str">
-        <v>H6</v>
+        <v>K6</v>
       </c>
       <c r="E16" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MH6_Quote</v>
+        <v>JPYFUT3MK6_Quote</v>
       </c>
       <c r="F16" s="92" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MH6_Quote#0001</v>
+        <v>JPYFUT3MK6_Quote#0001</v>
       </c>
       <c r="G16" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -10277,13 +10277,13 @@
         <v>0</v>
       </c>
       <c r="M16" s="169" t="str">
-        <v>H6</v>
+        <v>K6</v>
       </c>
       <c r="N16" s="234">
-        <v>42445</v>
+        <v>42508</v>
       </c>
       <c r="O16" s="169" t="str">
-        <v>FEYH6</v>
+        <v>FEYK6</v>
       </c>
       <c r="P16" s="233" t="s">
         <v>315</v>
@@ -10328,15 +10328,15 @@
         <v>0</v>
       </c>
       <c r="AI16" s="94" t="str">
-        <v>H6</v>
+        <v>K6</v>
       </c>
       <c r="AJ16" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH6ConvAdj_Quote</v>
+        <v>JPYFUT3MK6ConvAdj_Quote</v>
       </c>
       <c r="AK16" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ16,IborIndex,AI16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MK6ConvAdj_Quote#0005</v>
       </c>
       <c r="AL16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK16)</f>
@@ -10353,15 +10353,15 @@
         <v>0</v>
       </c>
       <c r="D17" s="94" t="str">
-        <v>J6</v>
+        <v>M6</v>
       </c>
       <c r="E17" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MJ6_Quote</v>
+        <v>JPYFUT3MM6_Quote</v>
       </c>
       <c r="F17" s="92" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MJ6_Quote#0001</v>
+        <v>JPYFUT3MM6_Quote#0001</v>
       </c>
       <c r="G17" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -10376,13 +10376,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="169" t="str">
-        <v>J6</v>
+        <v>M6</v>
       </c>
       <c r="N17" s="234">
-        <v>42480</v>
+        <v>42536</v>
       </c>
       <c r="O17" s="169" t="str">
-        <v>FEYJ6</v>
+        <v>FEYM6</v>
       </c>
       <c r="P17" s="233" t="s">
         <v>315</v>
@@ -10427,15 +10427,15 @@
         <v>0</v>
       </c>
       <c r="AI17" s="94" t="str">
-        <v>J6</v>
+        <v>M6</v>
       </c>
       <c r="AJ17" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MJ6ConvAdj_Quote</v>
+        <v>JPYFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="AK17" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ17,IborIndex,AI17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>JPYFUT3MJ6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MM6ConvAdj_Quote#0005</v>
       </c>
       <c r="AL17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK17)</f>
@@ -10452,15 +10452,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="94" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E18" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MM6_Quote</v>
+        <v>JPYFUT3MU6_Quote</v>
       </c>
       <c r="F18" s="92" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MM6_Quote#0001</v>
+        <v>JPYFUT3MU6_Quote#0001</v>
       </c>
       <c r="G18" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -10475,13 +10475,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="169" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="N18" s="234">
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="O18" s="169" t="str">
-        <v>FEYM6</v>
+        <v>FEYU6</v>
       </c>
       <c r="P18" s="233" t="s">
         <v>315</v>
@@ -10526,15 +10526,15 @@
         <v>1</v>
       </c>
       <c r="AI18" s="94" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="AJ18" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM6ConvAdj_Quote</v>
+        <v>JPYFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="AK18" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ18,IborIndex,AI18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MU6ConvAdj_Quote#0005</v>
       </c>
       <c r="AL18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK18)</f>
@@ -10551,15 +10551,15 @@
         <v>1</v>
       </c>
       <c r="D19" s="94" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E19" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MU6_Quote</v>
+        <v>JPYFUT3MZ6_Quote</v>
       </c>
       <c r="F19" s="92" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MU6_Quote#0001</v>
+        <v>JPYFUT3MZ6_Quote#0001</v>
       </c>
       <c r="G19" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -10574,13 +10574,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="169" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="N19" s="234">
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="O19" s="169" t="str">
-        <v>FEYU6</v>
+        <v>FEYZ6</v>
       </c>
       <c r="P19" s="233" t="s">
         <v>315</v>
@@ -10625,15 +10625,15 @@
         <v>1</v>
       </c>
       <c r="AI19" s="94" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="AJ19" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU6ConvAdj_Quote</v>
+        <v>JPYFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="AK19" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ19,IborIndex,AI19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MZ6ConvAdj_Quote#0005</v>
       </c>
       <c r="AL19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK19)</f>
@@ -10650,15 +10650,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="94" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E20" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MZ6_Quote</v>
+        <v>JPYFUT3MH7_Quote</v>
       </c>
       <c r="F20" s="92" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MZ6_Quote#0001</v>
+        <v>JPYFUT3MH7_Quote#0001</v>
       </c>
       <c r="G20" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -10673,13 +10673,13 @@
         <v>1</v>
       </c>
       <c r="M20" s="169" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="N20" s="234">
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="O20" s="169" t="str">
-        <v>FEYZ6</v>
+        <v>FEYH7</v>
       </c>
       <c r="P20" s="233" t="s">
         <v>315</v>
@@ -10724,15 +10724,15 @@
         <v>1</v>
       </c>
       <c r="AI20" s="94" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="AJ20" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ6ConvAdj_Quote</v>
+        <v>JPYFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="AK20" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ20,IborIndex,AI20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ6ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MH7ConvAdj_Quote#0005</v>
       </c>
       <c r="AL20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK20)</f>
@@ -10749,15 +10749,15 @@
         <v>1</v>
       </c>
       <c r="D21" s="94" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E21" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MH7_Quote</v>
+        <v>JPYFUT3MM7_Quote</v>
       </c>
       <c r="F21" s="92" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MH7_Quote#0001</v>
+        <v>JPYFUT3MM7_Quote#0001</v>
       </c>
       <c r="G21" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -10772,13 +10772,13 @@
         <v>1</v>
       </c>
       <c r="M21" s="169" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="N21" s="234">
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="O21" s="169" t="str">
-        <v>FEYH7</v>
+        <v>FEYM7</v>
       </c>
       <c r="P21" s="233" t="s">
         <v>315</v>
@@ -10823,15 +10823,15 @@
         <v>1</v>
       </c>
       <c r="AI21" s="94" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="AJ21" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH7ConvAdj_Quote</v>
+        <v>JPYFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="AK21" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ21,IborIndex,AI21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH7ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MM7ConvAdj_Quote#0005</v>
       </c>
       <c r="AL21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK21)</f>
@@ -10848,15 +10848,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="94" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E22" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MM7_Quote</v>
+        <v>JPYFUT3MU7_Quote</v>
       </c>
       <c r="F22" s="92" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MM7_Quote#0001</v>
+        <v>JPYFUT3MU7_Quote#0001</v>
       </c>
       <c r="G22" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -10871,13 +10871,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="169" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="N22" s="234">
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="O22" s="169" t="str">
-        <v>FEYM7</v>
+        <v>FEYU7</v>
       </c>
       <c r="P22" s="233" t="s">
         <v>315</v>
@@ -10922,15 +10922,15 @@
         <v>1</v>
       </c>
       <c r="AI22" s="94" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="AJ22" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM7ConvAdj_Quote</v>
+        <v>JPYFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="AK22" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ22,IborIndex,AI22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM7ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MU7ConvAdj_Quote#0005</v>
       </c>
       <c r="AL22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK22)</f>
@@ -10947,15 +10947,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="94" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E23" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MU7_Quote</v>
+        <v>JPYFUT3MZ7_Quote</v>
       </c>
       <c r="F23" s="92" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MU7_Quote#0001</v>
+        <v>JPYFUT3MZ7_Quote#0001</v>
       </c>
       <c r="G23" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -10970,13 +10970,13 @@
         <v>1</v>
       </c>
       <c r="M23" s="169" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="N23" s="234">
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="O23" s="169" t="str">
-        <v>FEYU7</v>
+        <v>FEYZ7</v>
       </c>
       <c r="P23" s="233" t="s">
         <v>315</v>
@@ -11021,15 +11021,15 @@
         <v>1</v>
       </c>
       <c r="AI23" s="94" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="AJ23" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU7ConvAdj_Quote</v>
+        <v>JPYFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="AK23" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ23,IborIndex,AI23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU7ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MZ7ConvAdj_Quote#0005</v>
       </c>
       <c r="AL23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK23)</f>
@@ -11046,15 +11046,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="94" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E24" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MZ7_Quote</v>
+        <v>JPYFUT3MH8_Quote</v>
       </c>
       <c r="F24" s="92" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MZ7_Quote#0001</v>
+        <v>JPYFUT3MH8_Quote#0001</v>
       </c>
       <c r="G24" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -11069,13 +11069,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="169" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="N24" s="234">
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="O24" s="169" t="str">
-        <v>FEYZ7</v>
+        <v>FEYH8</v>
       </c>
       <c r="P24" s="233" t="s">
         <v>315</v>
@@ -11120,15 +11120,15 @@
         <v>1</v>
       </c>
       <c r="AI24" s="94" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="AJ24" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ7ConvAdj_Quote</v>
+        <v>JPYFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="AK24" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ24,IborIndex,AI24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ7ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MH8ConvAdj_Quote#0005</v>
       </c>
       <c r="AL24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK24)</f>
@@ -11145,15 +11145,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="94" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E25" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MH8_Quote</v>
+        <v>JPYFUT3MM8_Quote</v>
       </c>
       <c r="F25" s="92" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MH8_Quote#0001</v>
+        <v>JPYFUT3MM8_Quote#0001</v>
       </c>
       <c r="G25" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -11168,13 +11168,13 @@
         <v>1</v>
       </c>
       <c r="M25" s="169" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="N25" s="234">
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="O25" s="169" t="str">
-        <v>FEYH8</v>
+        <v>FEYM8</v>
       </c>
       <c r="P25" s="233" t="s">
         <v>315</v>
@@ -11219,15 +11219,15 @@
         <v>1</v>
       </c>
       <c r="AI25" s="94" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="AJ25" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH8ConvAdj_Quote</v>
+        <v>JPYFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="AK25" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ25,IborIndex,AI25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH8ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MM8ConvAdj_Quote#0005</v>
       </c>
       <c r="AL25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK25)</f>
@@ -11244,15 +11244,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="94" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E26" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MM8_Quote</v>
+        <v>JPYFUT3MU8_Quote</v>
       </c>
       <c r="F26" s="92" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MM8_Quote#0001</v>
+        <v>JPYFUT3MU8_Quote#0001</v>
       </c>
       <c r="G26" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -11267,13 +11267,13 @@
         <v>1</v>
       </c>
       <c r="M26" s="169" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="N26" s="234">
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="O26" s="169" t="str">
-        <v>FEYM8</v>
+        <v>FEYU8</v>
       </c>
       <c r="P26" s="233" t="s">
         <v>315</v>
@@ -11318,15 +11318,15 @@
         <v>1</v>
       </c>
       <c r="AI26" s="94" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="AJ26" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM8ConvAdj_Quote</v>
+        <v>JPYFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="AK26" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ26,IborIndex,AI26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM8ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MU8ConvAdj_Quote#0005</v>
       </c>
       <c r="AL26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK26)</f>
@@ -11343,15 +11343,15 @@
         <v>1</v>
       </c>
       <c r="D27" s="94" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E27" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MU8_Quote</v>
+        <v>JPYFUT3MZ8_Quote</v>
       </c>
       <c r="F27" s="92" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MU8_Quote#0001</v>
+        <v>JPYFUT3MZ8_Quote#0001</v>
       </c>
       <c r="G27" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -11366,13 +11366,13 @@
         <v>1</v>
       </c>
       <c r="M27" s="169" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="N27" s="234">
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="O27" s="169" t="str">
-        <v>FEYU8</v>
+        <v>FEYZ8</v>
       </c>
       <c r="P27" s="233" t="s">
         <v>315</v>
@@ -11417,15 +11417,15 @@
         <v>1</v>
       </c>
       <c r="AI27" s="94" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="AJ27" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU8ConvAdj_Quote</v>
+        <v>JPYFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="AK27" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ27,IborIndex,AI27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU8ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MZ8ConvAdj_Quote#0005</v>
       </c>
       <c r="AL27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK27)</f>
@@ -11442,15 +11442,15 @@
         <v>1</v>
       </c>
       <c r="D28" s="94" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E28" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MZ8_Quote</v>
+        <v>JPYFUT3MH9_Quote</v>
       </c>
       <c r="F28" s="92" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MZ8_Quote#0001</v>
+        <v>JPYFUT3MH9_Quote#0001</v>
       </c>
       <c r="G28" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -11465,13 +11465,13 @@
         <v>1</v>
       </c>
       <c r="M28" s="169" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="N28" s="234">
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="O28" s="169" t="str">
-        <v>FEYZ8</v>
+        <v>FEYH9</v>
       </c>
       <c r="P28" s="233" t="s">
         <v>315</v>
@@ -11516,15 +11516,15 @@
         <v>1</v>
       </c>
       <c r="AI28" s="94" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="AJ28" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ8ConvAdj_Quote</v>
+        <v>JPYFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="AK28" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ28,IborIndex,AI28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ8ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MH9ConvAdj_Quote#0005</v>
       </c>
       <c r="AL28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK28)</f>
@@ -11541,15 +11541,15 @@
         <v>1</v>
       </c>
       <c r="D29" s="94" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E29" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MH9_Quote</v>
+        <v>JPYFUT3MM9_Quote</v>
       </c>
       <c r="F29" s="92" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MH9_Quote#0001</v>
+        <v>JPYFUT3MM9_Quote#0001</v>
       </c>
       <c r="G29" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -11564,13 +11564,13 @@
         <v>1</v>
       </c>
       <c r="M29" s="169" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="N29" s="234">
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="O29" s="169" t="str">
-        <v>FEYH9</v>
+        <v>FEYM9</v>
       </c>
       <c r="P29" s="233" t="s">
         <v>315</v>
@@ -11615,15 +11615,15 @@
         <v>1</v>
       </c>
       <c r="AI29" s="94" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="AJ29" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH9ConvAdj_Quote</v>
+        <v>JPYFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="AK29" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ29,IborIndex,AI29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH9ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MM9ConvAdj_Quote#0005</v>
       </c>
       <c r="AL29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK29)</f>
@@ -11640,15 +11640,15 @@
         <v>1</v>
       </c>
       <c r="D30" s="94" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E30" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MM9_Quote</v>
+        <v>JPYFUT3MU9_Quote</v>
       </c>
       <c r="F30" s="92" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MM9_Quote#0001</v>
+        <v>JPYFUT3MU9_Quote#0001</v>
       </c>
       <c r="G30" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -11663,13 +11663,13 @@
         <v>1</v>
       </c>
       <c r="M30" s="169" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="N30" s="234">
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="O30" s="169" t="str">
-        <v>FEYM9</v>
+        <v>FEYU9</v>
       </c>
       <c r="P30" s="233" t="s">
         <v>315</v>
@@ -11714,15 +11714,15 @@
         <v>1</v>
       </c>
       <c r="AI30" s="94" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="AJ30" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM9ConvAdj_Quote</v>
+        <v>JPYFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="AK30" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ30,IborIndex,AI30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM9ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MU9ConvAdj_Quote#0005</v>
       </c>
       <c r="AL30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK30)</f>
@@ -11739,15 +11739,15 @@
         <v>1</v>
       </c>
       <c r="D31" s="94" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E31" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MU9_Quote</v>
+        <v>JPYFUT3MZ9_Quote</v>
       </c>
       <c r="F31" s="92" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MU9_Quote#0001</v>
+        <v>JPYFUT3MZ9_Quote#0001</v>
       </c>
       <c r="G31" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -11762,13 +11762,13 @@
         <v>1</v>
       </c>
       <c r="M31" s="169" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="N31" s="234">
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="O31" s="169" t="str">
-        <v>FEYU9</v>
+        <v>FEYZ9</v>
       </c>
       <c r="P31" s="233" t="s">
         <v>315</v>
@@ -11813,15 +11813,15 @@
         <v>1</v>
       </c>
       <c r="AI31" s="94" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="AJ31" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU9ConvAdj_Quote</v>
+        <v>JPYFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="AK31" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ31,IborIndex,AI31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU9ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MZ9ConvAdj_Quote#0005</v>
       </c>
       <c r="AL31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK31)</f>
@@ -11838,15 +11838,15 @@
         <v>1</v>
       </c>
       <c r="D32" s="94" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E32" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MZ9_Quote</v>
+        <v>JPYFUT3MH0_Quote</v>
       </c>
       <c r="F32" s="92" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MZ9_Quote#0001</v>
+        <v>JPYFUT3MH0_Quote#0001</v>
       </c>
       <c r="G32" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -11861,13 +11861,13 @@
         <v>1</v>
       </c>
       <c r="M32" s="169" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="N32" s="234">
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="O32" s="169" t="str">
-        <v>FEYZ9</v>
+        <v>FEYH0</v>
       </c>
       <c r="P32" s="233" t="s">
         <v>315</v>
@@ -11912,15 +11912,15 @@
         <v>1</v>
       </c>
       <c r="AI32" s="94" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="AJ32" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ9ConvAdj_Quote</v>
+        <v>JPYFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="AK32" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ32,IborIndex,AI32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ9ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MH0ConvAdj_Quote#0005</v>
       </c>
       <c r="AL32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK32)</f>
@@ -11937,15 +11937,15 @@
         <v>1</v>
       </c>
       <c r="D33" s="94" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E33" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MH0_Quote</v>
+        <v>JPYFUT3MM0_Quote</v>
       </c>
       <c r="F33" s="92" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MH0_Quote#0001</v>
+        <v>JPYFUT3MM0_Quote#0001</v>
       </c>
       <c r="G33" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -11960,13 +11960,13 @@
         <v>1</v>
       </c>
       <c r="M33" s="169" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="N33" s="234">
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="O33" s="169" t="str">
-        <v>FEYH0</v>
+        <v>FEYM0</v>
       </c>
       <c r="P33" s="233" t="s">
         <v>315</v>
@@ -12011,15 +12011,15 @@
         <v>1</v>
       </c>
       <c r="AI33" s="94" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="AJ33" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH0ConvAdj_Quote</v>
+        <v>JPYFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="AK33" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ33,IborIndex,AI33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH0ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MM0ConvAdj_Quote#0005</v>
       </c>
       <c r="AL33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK33)</f>
@@ -12036,15 +12036,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="94" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E34" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MM0_Quote</v>
+        <v>JPYFUT3MU0_Quote</v>
       </c>
       <c r="F34" s="92" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MM0_Quote#0001</v>
+        <v>JPYFUT3MU0_Quote#0001</v>
       </c>
       <c r="G34" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -12059,13 +12059,13 @@
         <v>1</v>
       </c>
       <c r="M34" s="169" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="N34" s="234">
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="O34" s="169" t="str">
-        <v>FEYM0</v>
+        <v>FEYU0</v>
       </c>
       <c r="P34" s="233" t="s">
         <v>315</v>
@@ -12110,15 +12110,15 @@
         <v>1</v>
       </c>
       <c r="AI34" s="94" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="AJ34" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM0ConvAdj_Quote</v>
+        <v>JPYFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="AK34" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ34,IborIndex,AI34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM0ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MU0ConvAdj_Quote#0005</v>
       </c>
       <c r="AL34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK34)</f>
@@ -12135,15 +12135,15 @@
         <v>1</v>
       </c>
       <c r="D35" s="94" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E35" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MU0_Quote</v>
+        <v>JPYFUT3MZ0_Quote</v>
       </c>
       <c r="F35" s="92" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MU0_Quote#0001</v>
+        <v>JPYFUT3MZ0_Quote#0001</v>
       </c>
       <c r="G35" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -12158,13 +12158,13 @@
         <v>1</v>
       </c>
       <c r="M35" s="169" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="N35" s="234">
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="O35" s="169" t="str">
-        <v>FEYU0</v>
+        <v>FEYZ0</v>
       </c>
       <c r="P35" s="233" t="s">
         <v>315</v>
@@ -12209,15 +12209,15 @@
         <v>1</v>
       </c>
       <c r="AI35" s="94" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="AJ35" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU0ConvAdj_Quote</v>
+        <v>JPYFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="AK35" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ35,IborIndex,AI35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU0ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MZ0ConvAdj_Quote#0005</v>
       </c>
       <c r="AL35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK35)</f>
@@ -12234,15 +12234,15 @@
         <v>1</v>
       </c>
       <c r="D36" s="94" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E36" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MZ0_Quote</v>
+        <v>JPYFUT3MH1_Quote</v>
       </c>
       <c r="F36" s="92" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MZ0_Quote#0001</v>
+        <v>JPYFUT3MH1_Quote#0001</v>
       </c>
       <c r="G36" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -12257,13 +12257,13 @@
         <v>1</v>
       </c>
       <c r="M36" s="169" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="N36" s="234">
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="O36" s="169" t="str">
-        <v>FEYZ0</v>
+        <v>FEYH1</v>
       </c>
       <c r="P36" s="233" t="s">
         <v>315</v>
@@ -12308,15 +12308,15 @@
         <v>1</v>
       </c>
       <c r="AI36" s="94" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="AJ36" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ0ConvAdj_Quote</v>
+        <v>JPYFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="AK36" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ36,IborIndex,AI36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ0ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MH1ConvAdj_Quote#0005</v>
       </c>
       <c r="AL36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK36)</f>
@@ -12333,15 +12333,15 @@
         <v>1</v>
       </c>
       <c r="D37" s="94" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E37" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>JPYFUT3MH1_Quote</v>
+        <v>JPYFUT3MM1_Quote</v>
       </c>
       <c r="F37" s="92" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MH1_Quote#0001</v>
+        <v>JPYFUT3MM1_Quote#0001</v>
       </c>
       <c r="G37" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -12356,13 +12356,13 @@
         <v>1</v>
       </c>
       <c r="M37" s="169" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="N37" s="234">
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="O37" s="169" t="str">
-        <v>FEYH1</v>
+        <v>FEYM1</v>
       </c>
       <c r="P37" s="233" t="s">
         <v>315</v>
@@ -12407,15 +12407,15 @@
         <v>1</v>
       </c>
       <c r="AI37" s="94" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="AJ37" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH1ConvAdj_Quote</v>
+        <v>JPYFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="AK37" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ37,IborIndex,AI37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH1ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MM1ConvAdj_Quote#0005</v>
       </c>
       <c r="AL37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK37)</f>
@@ -12432,15 +12432,15 @@
         <v>1</v>
       </c>
       <c r="D38" s="94" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E38" s="93" t="str">
         <f t="shared" ref="E38:E47" si="2">Currency&amp;$D$4&amp;$E$4&amp;$D38&amp;QuoteSuffix</f>
-        <v>JPYFUT3MM1_Quote</v>
+        <v>JPYFUT3MU1_Quote</v>
       </c>
       <c r="F38" s="92" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MM1_Quote#0001</v>
+        <v>JPYFUT3MU1_Quote#0001</v>
       </c>
       <c r="G38" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -12455,13 +12455,13 @@
         <v>1</v>
       </c>
       <c r="M38" s="169" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="N38" s="234">
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="O38" s="169" t="str">
-        <v>FEYM1</v>
+        <v>FEYU1</v>
       </c>
       <c r="P38" s="233" t="s">
         <v>315</v>
@@ -12506,15 +12506,15 @@
         <v>1</v>
       </c>
       <c r="AI38" s="94" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="AJ38" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM1ConvAdj_Quote</v>
+        <v>JPYFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="AK38" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ38,IborIndex,AI38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM1ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MU1ConvAdj_Quote#0005</v>
       </c>
       <c r="AL38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK38)</f>
@@ -12531,15 +12531,15 @@
         <v>1</v>
       </c>
       <c r="D39" s="94" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E39" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU1_Quote</v>
+        <v>JPYFUT3MZ1_Quote</v>
       </c>
       <c r="F39" s="92" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MU1_Quote#0001</v>
+        <v>JPYFUT3MZ1_Quote#0001</v>
       </c>
       <c r="G39" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -12554,13 +12554,13 @@
         <v>1</v>
       </c>
       <c r="M39" s="169" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="N39" s="234">
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="O39" s="169" t="str">
-        <v>FEYU1</v>
+        <v>FEYZ1</v>
       </c>
       <c r="P39" s="233" t="s">
         <v>315</v>
@@ -12605,15 +12605,15 @@
         <v>1</v>
       </c>
       <c r="AI39" s="94" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="AJ39" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU1ConvAdj_Quote</v>
+        <v>JPYFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="AK39" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ39,IborIndex,AI39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU1ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MZ1ConvAdj_Quote#0005</v>
       </c>
       <c r="AL39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK39)</f>
@@ -12630,15 +12630,15 @@
         <v>1</v>
       </c>
       <c r="D40" s="94" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E40" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ1_Quote</v>
+        <v>JPYFUT3MH2_Quote</v>
       </c>
       <c r="F40" s="92" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MZ1_Quote#0001</v>
+        <v>JPYFUT3MH2_Quote#0001</v>
       </c>
       <c r="G40" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -12653,13 +12653,13 @@
         <v>1</v>
       </c>
       <c r="M40" s="169" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="N40" s="234">
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="O40" s="169" t="str">
-        <v>FEYZ1</v>
+        <v>FEYH2</v>
       </c>
       <c r="P40" s="233" t="s">
         <v>315</v>
@@ -12704,15 +12704,15 @@
         <v>1</v>
       </c>
       <c r="AI40" s="94" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="AJ40" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ1ConvAdj_Quote</v>
+        <v>JPYFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="AK40" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ40,IborIndex,AI40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ1ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MH2ConvAdj_Quote#0005</v>
       </c>
       <c r="AL40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK40)</f>
@@ -12729,15 +12729,15 @@
         <v>1</v>
       </c>
       <c r="D41" s="94" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E41" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH2_Quote</v>
+        <v>JPYFUT3MM2_Quote</v>
       </c>
       <c r="F41" s="92" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MH2_Quote#0001</v>
+        <v>JPYFUT3MM2_Quote#0001</v>
       </c>
       <c r="G41" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -12752,13 +12752,13 @@
         <v>1</v>
       </c>
       <c r="M41" s="169" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="N41" s="234">
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="O41" s="169" t="str">
-        <v>FEYH2</v>
+        <v>FEYM2</v>
       </c>
       <c r="P41" s="233" t="s">
         <v>315</v>
@@ -12803,15 +12803,15 @@
         <v>1</v>
       </c>
       <c r="AI41" s="94" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="AJ41" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH2ConvAdj_Quote</v>
+        <v>JPYFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="AK41" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ41,IborIndex,AI41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH2ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MM2ConvAdj_Quote#0005</v>
       </c>
       <c r="AL41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK41)</f>
@@ -12828,15 +12828,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="94" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E42" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM2_Quote</v>
+        <v>JPYFUT3MU2_Quote</v>
       </c>
       <c r="F42" s="92" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MM2_Quote#0001</v>
+        <v>JPYFUT3MU2_Quote#0001</v>
       </c>
       <c r="G42" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -12851,13 +12851,13 @@
         <v>1</v>
       </c>
       <c r="M42" s="169" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="N42" s="234">
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="O42" s="169" t="str">
-        <v>FEYM2</v>
+        <v>FEYU2</v>
       </c>
       <c r="P42" s="233" t="s">
         <v>315</v>
@@ -12902,15 +12902,15 @@
         <v>1</v>
       </c>
       <c r="AI42" s="94" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="AJ42" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM2ConvAdj_Quote</v>
+        <v>JPYFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="AK42" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ42,IborIndex,AI42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM2ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MU2ConvAdj_Quote#0005</v>
       </c>
       <c r="AL42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK42)</f>
@@ -12927,15 +12927,15 @@
         <v>1</v>
       </c>
       <c r="D43" s="94" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E43" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU2_Quote</v>
+        <v>JPYFUT3MZ2_Quote</v>
       </c>
       <c r="F43" s="92" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MU2_Quote#0001</v>
+        <v>JPYFUT3MZ2_Quote#0001</v>
       </c>
       <c r="G43" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -12950,13 +12950,13 @@
         <v>1</v>
       </c>
       <c r="M43" s="169" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="N43" s="234">
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="O43" s="169" t="str">
-        <v>FEYU2</v>
+        <v>FEYZ2</v>
       </c>
       <c r="P43" s="233" t="s">
         <v>315</v>
@@ -13001,15 +13001,15 @@
         <v>1</v>
       </c>
       <c r="AI43" s="94" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="AJ43" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU2ConvAdj_Quote</v>
+        <v>JPYFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="AK43" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ43,IborIndex,AI43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU2ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MZ2ConvAdj_Quote#0005</v>
       </c>
       <c r="AL43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK43)</f>
@@ -13026,15 +13026,15 @@
         <v>1</v>
       </c>
       <c r="D44" s="94" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E44" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ2_Quote</v>
+        <v>JPYFUT3MH3_Quote</v>
       </c>
       <c r="F44" s="92" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MZ2_Quote#0001</v>
+        <v>JPYFUT3MH3_Quote#0001</v>
       </c>
       <c r="G44" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -13049,13 +13049,13 @@
         <v>1</v>
       </c>
       <c r="M44" s="169" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="N44" s="234">
-        <v>44916</v>
+        <v>45000</v>
       </c>
       <c r="O44" s="169" t="str">
-        <v>FEYZ2</v>
+        <v>FEYH3</v>
       </c>
       <c r="P44" s="233" t="s">
         <v>315</v>
@@ -13100,15 +13100,15 @@
         <v>1</v>
       </c>
       <c r="AI44" s="94" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="AJ44" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ2ConvAdj_Quote</v>
+        <v>JPYFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="AK44" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ44,IborIndex,AI44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ2ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MH3ConvAdj_Quote#0005</v>
       </c>
       <c r="AL44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK44)</f>
@@ -13125,15 +13125,15 @@
         <v>1</v>
       </c>
       <c r="D45" s="94" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E45" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH3_Quote</v>
+        <v>JPYFUT3MM3_Quote</v>
       </c>
       <c r="F45" s="92" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MH3_Quote#0001</v>
+        <v>JPYFUT3MM3_Quote#0001</v>
       </c>
       <c r="G45" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -13148,13 +13148,13 @@
         <v>1</v>
       </c>
       <c r="M45" s="169" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="N45" s="234">
-        <v>45000</v>
+        <v>45098</v>
       </c>
       <c r="O45" s="169" t="str">
-        <v>FEYH3</v>
+        <v>FEYM3</v>
       </c>
       <c r="P45" s="233" t="s">
         <v>315</v>
@@ -13199,15 +13199,15 @@
         <v>1</v>
       </c>
       <c r="AI45" s="94" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="AJ45" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH3ConvAdj_Quote</v>
+        <v>JPYFUT3MM3ConvAdj_Quote</v>
       </c>
       <c r="AK45" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ45,IborIndex,AI45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH3ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MM3ConvAdj_Quote#0005</v>
       </c>
       <c r="AL45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK45)</f>
@@ -13224,15 +13224,15 @@
         <v>1</v>
       </c>
       <c r="D46" s="94" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="E46" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM3_Quote</v>
+        <v>JPYFUT3MU3_Quote</v>
       </c>
       <c r="F46" s="92" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MM3_Quote#0001</v>
+        <v>JPYFUT3MU3_Quote#0001</v>
       </c>
       <c r="G46" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -13247,13 +13247,13 @@
         <v>1</v>
       </c>
       <c r="M46" s="169" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="N46" s="234">
-        <v>45098</v>
+        <v>45189</v>
       </c>
       <c r="O46" s="169" t="str">
-        <v>FEYM3</v>
+        <v>FEYU3</v>
       </c>
       <c r="P46" s="233" t="s">
         <v>315</v>
@@ -13298,15 +13298,15 @@
         <v>1</v>
       </c>
       <c r="AI46" s="94" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="AJ46" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM3ConvAdj_Quote</v>
+        <v>JPYFUT3MU3ConvAdj_Quote</v>
       </c>
       <c r="AK46" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ46,IborIndex,AI46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM3ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MU3ConvAdj_Quote#0005</v>
       </c>
       <c r="AL46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK46)</f>
@@ -13323,15 +13323,15 @@
         <v>1</v>
       </c>
       <c r="D47" s="94" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="E47" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU3_Quote</v>
+        <v>JPYFUT3MZ3_Quote</v>
       </c>
       <c r="F47" s="92" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MU3_Quote#0001</v>
+        <v>JPYFUT3MZ3_Quote#0001</v>
       </c>
       <c r="G47" s="66" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -13346,13 +13346,13 @@
         <v>1</v>
       </c>
       <c r="M47" s="182" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="N47" s="227">
-        <v>45189</v>
+        <v>45280</v>
       </c>
       <c r="O47" s="182" t="str">
-        <v>FEYU3</v>
+        <v>FEYZ3</v>
       </c>
       <c r="P47" s="226" t="s">
         <v>315</v>
@@ -13397,15 +13397,15 @@
         <v>1</v>
       </c>
       <c r="AI47" s="94" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="AJ47" s="163" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU3ConvAdj_Quote</v>
+        <v>JPYFUT3MZ3ConvAdj_Quote</v>
       </c>
       <c r="AK47" s="162" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AJ47,IborIndex,AI47,F47,Volatility,MeanReversion,Permanent,AND(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU3ConvAdj_Quote#0005</v>
+        <v>JPYFUT3MZ3ConvAdj_Quote#0005</v>
       </c>
       <c r="AL47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(AK47)</f>
@@ -13582,7 +13582,7 @@
       <c r="G4" s="203"/>
       <c r="H4" s="244" t="str">
         <f>_xll.RData(H5,I4,"RTFEED:IDN",ReutersRtMode,,I5)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="I4" s="271" t="s">
         <v>178</v>
@@ -13630,7 +13630,7 @@
         <v>JP4Y6LATM=ICAP</v>
       </c>
       <c r="I5" s="269">
-        <v>89.52</v>
+        <v>94.67</v>
       </c>
       <c r="J5" s="262"/>
       <c r="K5" s="268" t="s">
@@ -13941,7 +13941,7 @@
       <c r="R4" s="120"/>
       <c r="S4" s="166" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="T4" s="220" t="s">
         <v>178</v>
@@ -17175,7 +17175,7 @@
       <c r="R4" s="120"/>
       <c r="S4" s="166" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="T4" s="220" t="s">
         <v>178</v>
@@ -17360,7 +17360,7 @@
       </c>
       <c r="AB6" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F6,AA6/10000,Trigger)</f>
-        <v>2.5000000000000011E-5</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="140"/>
       <c r="AD6" s="4"/>
@@ -17678,14 +17678,14 @@
         <v>JPY3L6L2Y=ICAP</v>
       </c>
       <c r="T10" s="281">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U10" s="281">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="V10" s="281">
         <f>_xll.qlMidEquivalent(T10,U10)</f>
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W10" s="173" t="b">
         <f t="shared" si="2"/>
@@ -17693,15 +17693,15 @@
       </c>
       <c r="X10" s="171"/>
       <c r="Y10" s="279">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z10" s="171"/>
       <c r="AA10" s="326">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AB10" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F10,AA10/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000011E-5</v>
       </c>
       <c r="AC10" s="140"/>
       <c r="AD10" s="4"/>
@@ -17764,14 +17764,14 @@
         <v>JPY3L6L3Y=ICAP</v>
       </c>
       <c r="T11" s="281">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11" s="281">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="V11" s="281">
         <f>_xll.qlMidEquivalent(T11,U11)</f>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W11" s="173" t="b">
         <f t="shared" si="2"/>
@@ -17779,11 +17779,11 @@
       </c>
       <c r="X11" s="171"/>
       <c r="Y11" s="279">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z11" s="171"/>
       <c r="AA11" s="326">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AB11" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F11,AA11/10000,Trigger)</f>
@@ -17850,14 +17850,14 @@
         <v>JPY3L6L4Y=ICAP</v>
       </c>
       <c r="T12" s="281">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12" s="281">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="V12" s="281">
         <f>_xll.qlMidEquivalent(T12,U12)</f>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W12" s="173" t="b">
         <f t="shared" si="2"/>
@@ -17865,11 +17865,11 @@
       </c>
       <c r="X12" s="171"/>
       <c r="Y12" s="279">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z12" s="171"/>
       <c r="AA12" s="326">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AB12" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F12,AA12/10000,Trigger)</f>
@@ -17936,14 +17936,14 @@
         <v>JPY3L6L5Y=ICAP</v>
       </c>
       <c r="T13" s="281">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U13" s="281">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V13" s="281">
         <f>_xll.qlMidEquivalent(T13,U13)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W13" s="173" t="b">
         <f t="shared" si="2"/>
@@ -17951,15 +17951,15 @@
       </c>
       <c r="X13" s="171"/>
       <c r="Y13" s="279">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="171"/>
       <c r="AA13" s="326">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AB13" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F13,AA13/10000,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000000023E-5</v>
       </c>
       <c r="AC13" s="140"/>
       <c r="AD13" s="4"/>
@@ -18022,14 +18022,14 @@
         <v>JPY3L6L6Y=ICAP</v>
       </c>
       <c r="T14" s="281">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U14" s="281">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="V14" s="281">
         <f>_xll.qlMidEquivalent(T14,U14)</f>
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="W14" s="173" t="b">
         <f t="shared" si="2"/>
@@ -18037,15 +18037,15 @@
       </c>
       <c r="X14" s="171"/>
       <c r="Y14" s="279">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="Z14" s="171"/>
       <c r="AA14" s="326">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="AB14" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F14,AA14/10000,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999969E-5</v>
       </c>
       <c r="AC14" s="140"/>
       <c r="AD14" s="4"/>
@@ -18099,14 +18099,14 @@
         <v>JPY3L6L7Y=ICAP</v>
       </c>
       <c r="T15" s="281">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U15" s="281">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="V15" s="281">
         <f>_xll.qlMidEquivalent(T15,U15)</f>
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="W15" s="173" t="b">
         <f t="shared" si="2"/>
@@ -18114,15 +18114,15 @@
       </c>
       <c r="X15" s="171"/>
       <c r="Y15" s="279">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Z15" s="171"/>
       <c r="AA15" s="326">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB15" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F15,AA15/10000,Trigger)</f>
-        <v>-2.5000000000000011E-5</v>
+        <v>7.499999999999998E-5</v>
       </c>
       <c r="AC15" s="140"/>
       <c r="AD15" s="4"/>
@@ -18176,14 +18176,14 @@
         <v>JPY3L6L8Y=ICAP</v>
       </c>
       <c r="T16" s="281">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U16" s="281">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="V16" s="281">
         <f>_xll.qlMidEquivalent(T16,U16)</f>
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="W16" s="173" t="b">
         <f t="shared" si="2"/>
@@ -18191,15 +18191,15 @@
       </c>
       <c r="X16" s="171"/>
       <c r="Y16" s="279">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Z16" s="171"/>
       <c r="AA16" s="326">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AB16" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F16,AA16/10000,Trigger)</f>
-        <v>-4.9999999999999969E-5</v>
+        <v>7.499999999999998E-5</v>
       </c>
       <c r="AC16" s="140"/>
       <c r="AD16" s="4"/>
@@ -18253,14 +18253,14 @@
         <v>JPY3L6L9Y=ICAP</v>
       </c>
       <c r="T17" s="281">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U17" s="281">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="V17" s="281">
         <f>_xll.qlMidEquivalent(T17,U17)</f>
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="W17" s="173" t="b">
         <f t="shared" si="2"/>
@@ -18268,15 +18268,15 @@
       </c>
       <c r="X17" s="171"/>
       <c r="Y17" s="279">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="Z17" s="171"/>
       <c r="AA17" s="326">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F17,AA17/10000,Trigger)</f>
-        <v>-7.5000000000000034E-5</v>
+        <v>7.5000000000000034E-5</v>
       </c>
       <c r="AC17" s="140"/>
       <c r="AD17" s="4"/>
@@ -18330,14 +18330,14 @@
         <v>JPY3L6L10Y=ICAP</v>
       </c>
       <c r="T18" s="281">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U18" s="281">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="V18" s="281">
         <f>_xll.qlMidEquivalent(T18,U18)</f>
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="W18" s="173" t="b">
         <f t="shared" si="2"/>
@@ -18345,15 +18345,15 @@
       </c>
       <c r="X18" s="171"/>
       <c r="Y18" s="279">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Z18" s="171"/>
       <c r="AA18" s="326">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="AB18" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F18,AA18/10000,Trigger)</f>
-        <v>-1.25E-4</v>
+        <v>7.499999999999998E-5</v>
       </c>
       <c r="AC18" s="140"/>
       <c r="AD18" s="4"/>
@@ -18715,14 +18715,14 @@
         <v>JPY3L6L15Y=ICAP</v>
       </c>
       <c r="T23" s="281">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U23" s="281">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="V23" s="281">
         <f>_xll.qlMidEquivalent(T23,U23)</f>
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="W23" s="173" t="b">
         <f t="shared" si="2"/>
@@ -18730,15 +18730,15 @@
       </c>
       <c r="X23" s="171"/>
       <c r="Y23" s="279">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Z23" s="171"/>
       <c r="AA23" s="326">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="AB23" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F23,AA23/10000,Trigger)</f>
-        <v>-2.9999999999999997E-4</v>
+        <v>4.9999999999999969E-5</v>
       </c>
       <c r="AC23" s="140"/>
       <c r="AD23" s="4"/>
@@ -19100,14 +19100,14 @@
         <v>JPY3L6L20Y=ICAP</v>
       </c>
       <c r="T28" s="281">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U28" s="281">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="V28" s="281">
         <f>_xll.qlMidEquivalent(T28,U28)</f>
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="W28" s="173" t="b">
         <f t="shared" si="2"/>
@@ -19115,15 +19115,15 @@
       </c>
       <c r="X28" s="171"/>
       <c r="Y28" s="279">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="Z28" s="171"/>
       <c r="AA28" s="326">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="AB28" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F28,AA28/10000,Trigger)</f>
-        <v>-3.5E-4</v>
+        <v>7.5000000000000034E-5</v>
       </c>
       <c r="AC28" s="140"/>
       <c r="AD28" s="4"/>
@@ -19870,14 +19870,14 @@
         <v>JPY3L6L30Y=ICAP</v>
       </c>
       <c r="T38" s="281">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U38" s="281">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V38" s="281">
         <f>_xll.qlMidEquivalent(T38,U38)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W38" s="173" t="b">
         <f t="shared" si="2"/>
@@ -19885,15 +19885,15 @@
       </c>
       <c r="X38" s="171"/>
       <c r="Y38" s="279">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z38" s="171"/>
       <c r="AA38" s="326">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB38" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F38,AA38/10000,Trigger)</f>
-        <v>-3.7499999999999995E-4</v>
+        <v>9.9999999999999991E-5</v>
       </c>
       <c r="AC38" s="140"/>
       <c r="AD38" s="4"/>
@@ -20389,7 +20389,7 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
     </row>
-    <row r="4" spans="1:36" ht="23.25" thickBot="1">
+    <row r="4" spans="1:36" ht="13.5" thickBot="1">
       <c r="A4" s="139"/>
       <c r="B4" s="125"/>
       <c r="C4" s="125"/>
@@ -20405,7 +20405,7 @@
       <c r="R4" s="120"/>
       <c r="S4" s="166" t="str">
         <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="T4" s="220" t="s">
         <v>178</v>
@@ -20582,10 +20582,10 @@
         <v>JPYSB3T1Y=SMKR</v>
       </c>
       <c r="T6" s="169">
-        <v>0.14000000000000001</v>
+        <v>0.14625000000000002</v>
       </c>
       <c r="U6" s="169">
-        <v>0.18000000000000002</v>
+        <v>0.18625000000000003</v>
       </c>
       <c r="V6" s="169">
         <v>0</v>
@@ -20595,19 +20595,19 @@
       </c>
       <c r="X6" s="173">
         <f>_xll.qlMidSafe($T6,$U6)</f>
-        <v>0.16000000000000003</v>
+        <v>0.16625000000000001</v>
       </c>
       <c r="Y6" s="171"/>
       <c r="Z6" s="172">
-        <v>0.16000000000000003</v>
+        <v>0.16625000000000001</v>
       </c>
       <c r="AA6" s="171"/>
       <c r="AB6" s="231">
-        <v>0.16000000000000003</v>
+        <v>0.16625000000000001</v>
       </c>
       <c r="AC6" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/100,Trigger)</f>
-        <v>3.7500000000000207E-5</v>
+        <v>6.2499999999999839E-5</v>
       </c>
       <c r="AD6" s="140"/>
       <c r="AE6" s="4"/>
@@ -20758,10 +20758,10 @@
         <v>JPYSB3T18M=SMKR</v>
       </c>
       <c r="T8" s="169">
-        <v>0.13750000000000001</v>
+        <v>0.14375000000000002</v>
       </c>
       <c r="U8" s="169">
-        <v>0.17750000000000002</v>
+        <v>0.18375000000000002</v>
       </c>
       <c r="V8" s="169">
         <v>0</v>
@@ -20771,19 +20771,19 @@
       </c>
       <c r="X8" s="173">
         <f>_xll.qlMidSafe($T8,$U8)</f>
-        <v>0.15750000000000003</v>
+        <v>0.16375000000000001</v>
       </c>
       <c r="Y8" s="171"/>
       <c r="Z8" s="172">
-        <v>0.15750000000000003</v>
+        <v>0.16375000000000001</v>
       </c>
       <c r="AA8" s="171"/>
       <c r="AB8" s="231">
-        <v>0.15750000000000003</v>
+        <v>0.16375000000000001</v>
       </c>
       <c r="AC8" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/100,Trigger)</f>
-        <v>1.0000000000000005E-4</v>
+        <v>6.2499999999999839E-5</v>
       </c>
       <c r="AD8" s="140"/>
       <c r="AE8" s="4"/>
@@ -20938,10 +20938,10 @@
         <v>JPYSB3T2Y=SMKR</v>
       </c>
       <c r="T10" s="169">
-        <v>0.14250000000000002</v>
+        <v>0.14500000000000002</v>
       </c>
       <c r="U10" s="169">
-        <v>0.18250000000000002</v>
+        <v>0.18500000000000003</v>
       </c>
       <c r="V10" s="169">
         <v>0</v>
@@ -20951,19 +20951,19 @@
       </c>
       <c r="X10" s="173">
         <f>_xll.qlMidSafe($T10,$U10)</f>
-        <v>0.16250000000000003</v>
+        <v>0.16500000000000004</v>
       </c>
       <c r="Y10" s="171"/>
       <c r="Z10" s="172">
-        <v>0.16250000000000003</v>
+        <v>0.16500000000000004</v>
       </c>
       <c r="AA10" s="171"/>
       <c r="AB10" s="231">
-        <v>0.16250000000000003</v>
+        <v>0.16500000000000004</v>
       </c>
       <c r="AC10" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F10,AB10/100,Trigger)</f>
-        <v>1.6250000000000053E-4</v>
+        <v>2.5000000000000066E-5</v>
       </c>
       <c r="AD10" s="140"/>
       <c r="AE10" s="4"/>
@@ -21015,10 +21015,10 @@
         <v>JPYSB3T3Y=SMKR</v>
       </c>
       <c r="T11" s="169">
-        <v>0.16125</v>
+        <v>0.16625000000000001</v>
       </c>
       <c r="U11" s="169">
-        <v>0.20125000000000001</v>
+        <v>0.20625000000000002</v>
       </c>
       <c r="V11" s="169">
         <v>0</v>
@@ -21028,19 +21028,19 @@
       </c>
       <c r="X11" s="173">
         <f>_xll.qlMidSafe($T11,$U11)</f>
-        <v>0.18125000000000002</v>
+        <v>0.18625000000000003</v>
       </c>
       <c r="Y11" s="171"/>
       <c r="Z11" s="172">
-        <v>0.18125000000000002</v>
+        <v>0.18625000000000003</v>
       </c>
       <c r="AA11" s="171"/>
       <c r="AB11" s="231">
-        <v>0.18125000000000002</v>
+        <v>0.18625000000000003</v>
       </c>
       <c r="AC11" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
-        <v>2.2500000000000037E-4</v>
+        <v>4.9999999999999914E-5</v>
       </c>
       <c r="AD11" s="140"/>
       <c r="AE11" s="4"/>
@@ -21092,10 +21092,10 @@
         <v>JPYSB3T4Y=SMKR</v>
       </c>
       <c r="T12" s="169">
-        <v>0.20125000000000001</v>
+        <v>0.21375000000000002</v>
       </c>
       <c r="U12" s="169">
-        <v>0.24125000000000002</v>
+        <v>0.25375000000000003</v>
       </c>
       <c r="V12" s="169">
         <v>0</v>
@@ -21105,19 +21105,19 @@
       </c>
       <c r="X12" s="173">
         <f>_xll.qlMidSafe($T12,$U12)</f>
-        <v>0.22125</v>
+        <v>0.23375000000000001</v>
       </c>
       <c r="Y12" s="171"/>
       <c r="Z12" s="172">
-        <v>0.22125</v>
+        <v>0.23375000000000001</v>
       </c>
       <c r="AA12" s="171"/>
       <c r="AB12" s="231">
-        <v>0.22125</v>
+        <v>0.23375000000000001</v>
       </c>
       <c r="AC12" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/100,Trigger)</f>
-        <v>3.0000000000000035E-4</v>
+        <v>1.2500000000000011E-4</v>
       </c>
       <c r="AD12" s="140"/>
       <c r="AE12" s="4"/>
@@ -21169,10 +21169,10 @@
         <v>JPYSB3T5Y=SMKR</v>
       </c>
       <c r="T13" s="169">
-        <v>0.26125000000000004</v>
+        <v>0.28250000000000003</v>
       </c>
       <c r="U13" s="169">
-        <v>0.30125000000000002</v>
+        <v>0.32250000000000001</v>
       </c>
       <c r="V13" s="169">
         <v>0</v>
@@ -21182,19 +21182,19 @@
       </c>
       <c r="X13" s="173">
         <f>_xll.qlMidSafe($T13,$U13)</f>
-        <v>0.28125</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="Y13" s="171"/>
       <c r="Z13" s="172">
-        <v>0.28125</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="AA13" s="171"/>
       <c r="AB13" s="231">
-        <v>0.28125</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="AC13" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
-        <v>4.3749999999999995E-4</v>
+        <v>2.1250000000000002E-4</v>
       </c>
       <c r="AD13" s="140"/>
       <c r="AE13" s="4"/>
@@ -21246,10 +21246,10 @@
         <v>JPYSB3T6Y=SMKR</v>
       </c>
       <c r="T14" s="169">
-        <v>0.33125000000000004</v>
+        <v>0.36125000000000002</v>
       </c>
       <c r="U14" s="169">
-        <v>0.37125000000000002</v>
+        <v>0.40125000000000005</v>
       </c>
       <c r="V14" s="169">
         <v>0</v>
@@ -21259,19 +21259,19 @@
       </c>
       <c r="X14" s="173">
         <f>_xll.qlMidSafe($T14,$U14)</f>
-        <v>0.35125000000000006</v>
+        <v>0.38125000000000003</v>
       </c>
       <c r="Y14" s="171"/>
       <c r="Z14" s="172">
-        <v>0.35125000000000006</v>
+        <v>0.38125000000000003</v>
       </c>
       <c r="AA14" s="171"/>
       <c r="AB14" s="231">
-        <v>0.35125000000000006</v>
+        <v>0.38125000000000003</v>
       </c>
       <c r="AC14" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
-        <v>6.3750000000000048E-4</v>
+        <v>2.9999999999999992E-4</v>
       </c>
       <c r="AD14" s="140"/>
       <c r="AE14" s="4"/>
@@ -21323,10 +21323,10 @@
         <v>JPYSB3T7Y=SMKR</v>
       </c>
       <c r="T15" s="169">
-        <v>0.40375000000000005</v>
+        <v>0.44125000000000003</v>
       </c>
       <c r="U15" s="169">
-        <v>0.44375000000000003</v>
+        <v>0.48125000000000007</v>
       </c>
       <c r="V15" s="169">
         <v>0</v>
@@ -21336,19 +21336,19 @@
       </c>
       <c r="X15" s="173">
         <f>_xll.qlMidSafe($T15,$U15)</f>
-        <v>0.42375000000000007</v>
+        <v>0.46125000000000005</v>
       </c>
       <c r="Y15" s="171"/>
       <c r="Z15" s="172">
-        <v>0.42375000000000007</v>
+        <v>0.46125000000000005</v>
       </c>
       <c r="AA15" s="171"/>
       <c r="AB15" s="231">
-        <v>0.42375000000000007</v>
+        <v>0.46125000000000005</v>
       </c>
       <c r="AC15" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
-        <v>8.1250000000000072E-4</v>
+        <v>3.7499999999999947E-4</v>
       </c>
       <c r="AD15" s="140"/>
       <c r="AE15" s="4"/>
@@ -21400,10 +21400,10 @@
         <v>JPYSB3T8Y=SMKR</v>
       </c>
       <c r="T16" s="169">
-        <v>0.47250000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="U16" s="169">
-        <v>0.51250000000000007</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V16" s="169">
         <v>0</v>
@@ -21413,19 +21413,19 @@
       </c>
       <c r="X16" s="173">
         <f>_xll.qlMidSafe($T16,$U16)</f>
-        <v>0.49250000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="Y16" s="171"/>
       <c r="Z16" s="172">
-        <v>0.49250000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="AA16" s="171"/>
       <c r="AB16" s="231">
-        <v>0.49250000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="AC16" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
-        <v>8.8750000000000114E-4</v>
+        <v>4.7499999999999973E-4</v>
       </c>
       <c r="AD16" s="140"/>
       <c r="AE16" s="4"/>
@@ -21477,10 +21477,10 @@
         <v>JPYSB3T9Y=SMKR</v>
       </c>
       <c r="T17" s="169">
-        <v>0.53875000000000006</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="U17" s="169">
-        <v>0.5787500000000001</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="V17" s="169">
         <v>0</v>
@@ -21490,19 +21490,19 @@
       </c>
       <c r="X17" s="173">
         <f>_xll.qlMidSafe($T17,$U17)</f>
-        <v>0.55875000000000008</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="Y17" s="171"/>
       <c r="Z17" s="172">
-        <v>0.55875000000000008</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="AA17" s="171"/>
       <c r="AB17" s="231">
-        <v>0.55875000000000008</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="AC17" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
-        <v>9.2500000000000047E-4</v>
+        <v>5.8750000000000035E-4</v>
       </c>
       <c r="AD17" s="140"/>
       <c r="AE17" s="4"/>
@@ -21554,10 +21554,10 @@
         <v>JPYSB3T10Y=SMKR</v>
       </c>
       <c r="T18" s="169">
-        <v>0.61125000000000007</v>
+        <v>0.67625000000000002</v>
       </c>
       <c r="U18" s="169">
-        <v>0.65125000000000011</v>
+        <v>0.71625000000000005</v>
       </c>
       <c r="V18" s="169">
         <v>0</v>
@@ -21567,19 +21567,19 @@
       </c>
       <c r="X18" s="173">
         <f>_xll.qlMidSafe($T18,$U18)</f>
-        <v>0.63125000000000009</v>
+        <v>0.69625000000000004</v>
       </c>
       <c r="Y18" s="171"/>
       <c r="Z18" s="172">
-        <v>0.63125000000000009</v>
+        <v>0.69625000000000004</v>
       </c>
       <c r="AA18" s="171"/>
       <c r="AB18" s="231">
-        <v>0.63125000000000009</v>
+        <v>0.69625000000000004</v>
       </c>
       <c r="AC18" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
-        <v>1.0000000000000009E-3</v>
+        <v>6.4999999999999867E-4</v>
       </c>
       <c r="AD18" s="140"/>
       <c r="AE18" s="4"/>
@@ -21631,10 +21631,10 @@
         <v>JPYSB3T11Y=SMKR</v>
       </c>
       <c r="T19" s="169">
-        <v>0.68625000000000003</v>
+        <v>0.75375000000000003</v>
       </c>
       <c r="U19" s="169">
-        <v>0.72625000000000006</v>
+        <v>0.79375000000000007</v>
       </c>
       <c r="V19" s="169">
         <v>0</v>
@@ -21644,19 +21644,19 @@
       </c>
       <c r="X19" s="173">
         <f>_xll.qlMidSafe($T19,$U19)</f>
-        <v>0.70625000000000004</v>
+        <v>0.77375000000000005</v>
       </c>
       <c r="Y19" s="171"/>
       <c r="Z19" s="172">
-        <v>0.70625000000000004</v>
+        <v>0.77375000000000005</v>
       </c>
       <c r="AA19" s="171"/>
       <c r="AB19" s="231">
-        <v>0.70625000000000004</v>
+        <v>0.77375000000000005</v>
       </c>
       <c r="AC19" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/100,Trigger)</f>
-        <v>1.0499999999999997E-3</v>
+        <v>6.7500000000000025E-4</v>
       </c>
       <c r="AD19" s="140"/>
       <c r="AE19" s="4"/>
@@ -21708,10 +21708,10 @@
         <v>JPYSB3T12Y=SMKR</v>
       </c>
       <c r="T20" s="169">
-        <v>0.76375000000000004</v>
+        <v>0.83250000000000002</v>
       </c>
       <c r="U20" s="169">
-        <v>0.80375000000000008</v>
+        <v>0.87250000000000005</v>
       </c>
       <c r="V20" s="169">
         <v>0</v>
@@ -21721,19 +21721,19 @@
       </c>
       <c r="X20" s="173">
         <f>_xll.qlMidSafe($T20,$U20)</f>
-        <v>0.78375000000000006</v>
+        <v>0.85250000000000004</v>
       </c>
       <c r="Y20" s="171"/>
       <c r="Z20" s="172">
-        <v>0.78375000000000006</v>
+        <v>0.85250000000000004</v>
       </c>
       <c r="AA20" s="171"/>
       <c r="AB20" s="231">
-        <v>0.78375000000000006</v>
+        <v>0.85250000000000004</v>
       </c>
       <c r="AC20" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
-        <v>1.1250000000000019E-3</v>
+        <v>6.8749999999999888E-4</v>
       </c>
       <c r="AD20" s="140"/>
       <c r="AE20" s="4"/>
@@ -21939,10 +21939,10 @@
         <v>JPYSB3T15Y=SMKR</v>
       </c>
       <c r="T23" s="169">
-        <v>0.99125000000000008</v>
+        <v>1.06125</v>
       </c>
       <c r="U23" s="169">
-        <v>1.03125</v>
+        <v>1.1012500000000001</v>
       </c>
       <c r="V23" s="169">
         <v>0</v>
@@ -21952,19 +21952,19 @@
       </c>
       <c r="X23" s="173">
         <f>_xll.qlMidSafe($T23,$U23)</f>
-        <v>1.01125</v>
+        <v>1.08125</v>
       </c>
       <c r="Y23" s="171"/>
       <c r="Z23" s="172">
-        <v>1.01125</v>
+        <v>1.08125</v>
       </c>
       <c r="AA23" s="171"/>
       <c r="AB23" s="231">
-        <v>1.01125</v>
+        <v>1.08125</v>
       </c>
       <c r="AC23" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/100,Trigger)</f>
-        <v>1.2250000000000004E-3</v>
+        <v>7.0000000000000097E-4</v>
       </c>
       <c r="AD23" s="140"/>
       <c r="AE23" s="4"/>
@@ -22324,10 +22324,10 @@
         <v>JPYSB3T20Y=SMKR</v>
       </c>
       <c r="T28" s="169">
-        <v>1.26875</v>
+        <v>1.3462500000000002</v>
       </c>
       <c r="U28" s="169">
-        <v>1.3087500000000001</v>
+        <v>1.3862500000000002</v>
       </c>
       <c r="V28" s="169">
         <v>0</v>
@@ -22337,19 +22337,19 @@
       </c>
       <c r="X28" s="173">
         <f>_xll.qlMidSafe($T28,$U28)</f>
-        <v>1.2887500000000001</v>
+        <v>1.3662500000000002</v>
       </c>
       <c r="Y28" s="171"/>
       <c r="Z28" s="172">
-        <v>1.2887500000000001</v>
+        <v>1.3662500000000002</v>
       </c>
       <c r="AA28" s="171"/>
       <c r="AB28" s="231">
-        <v>1.2887500000000001</v>
+        <v>1.3662500000000002</v>
       </c>
       <c r="AC28" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/100,Trigger)</f>
-        <v>1.1750000000000007E-3</v>
+        <v>7.7499999999999965E-4</v>
       </c>
       <c r="AD28" s="140"/>
       <c r="AE28" s="4"/>
@@ -22709,10 +22709,10 @@
         <v>JPYSB3T25Y=SMKR</v>
       </c>
       <c r="T33" s="169">
-        <v>1.4187500000000002</v>
+        <v>1.5012500000000002</v>
       </c>
       <c r="U33" s="169">
-        <v>1.4587500000000002</v>
+        <v>1.5412500000000002</v>
       </c>
       <c r="V33" s="169">
         <v>0</v>
@@ -22722,19 +22722,19 @@
       </c>
       <c r="X33" s="173">
         <f>_xll.qlMidSafe($T33,$U33)</f>
-        <v>1.4387500000000002</v>
+        <v>1.5212500000000002</v>
       </c>
       <c r="Y33" s="171"/>
       <c r="Z33" s="172">
-        <v>1.4387500000000002</v>
+        <v>1.5212500000000002</v>
       </c>
       <c r="AA33" s="171"/>
       <c r="AB33" s="231">
-        <v>1.4387500000000002</v>
+        <v>1.5212500000000002</v>
       </c>
       <c r="AC33" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/100,Trigger)</f>
-        <v>1.1625000000000021E-3</v>
+        <v>8.2499999999999934E-4</v>
       </c>
       <c r="AD33" s="140"/>
       <c r="AE33" s="4"/>
@@ -23094,10 +23094,10 @@
         <v>JPYSB3T30Y=SMKR</v>
       </c>
       <c r="T38" s="169">
-        <v>1.4975000000000001</v>
+        <v>1.5825000000000002</v>
       </c>
       <c r="U38" s="169">
-        <v>1.5375000000000001</v>
+        <v>1.6225000000000001</v>
       </c>
       <c r="V38" s="169">
         <v>0</v>
@@ -23107,19 +23107,19 @@
       </c>
       <c r="X38" s="173">
         <f>_xll.qlMidSafe($T38,$U38)</f>
-        <v>1.5175000000000001</v>
+        <v>1.6025</v>
       </c>
       <c r="Y38" s="171"/>
       <c r="Z38" s="172">
-        <v>1.5175000000000001</v>
+        <v>1.6025</v>
       </c>
       <c r="AA38" s="171"/>
       <c r="AB38" s="231">
-        <v>1.5175000000000001</v>
+        <v>1.6025</v>
       </c>
       <c r="AC38" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/100,Trigger)</f>
-        <v>1.1374999999999996E-3</v>
+        <v>8.5000000000000006E-4</v>
       </c>
       <c r="AD38" s="140"/>
       <c r="AE38" s="4"/>
@@ -23171,10 +23171,10 @@
         <v>JPYSB3T35Y=SMKR</v>
       </c>
       <c r="T39" s="169">
-        <v>1.5550000000000002</v>
+        <v>1.6475000000000002</v>
       </c>
       <c r="U39" s="169">
-        <v>1.5950000000000002</v>
+        <v>1.6875000000000002</v>
       </c>
       <c r="V39" s="169">
         <v>0</v>
@@ -23184,19 +23184,19 @@
       </c>
       <c r="X39" s="173">
         <f>_xll.qlMidSafe($T39,$U39)</f>
-        <v>1.5750000000000002</v>
+        <v>1.6675000000000002</v>
       </c>
       <c r="Y39" s="171"/>
       <c r="Z39" s="172">
-        <v>1.5750000000000002</v>
+        <v>1.6675000000000002</v>
       </c>
       <c r="AA39" s="171"/>
       <c r="AB39" s="231">
-        <v>1.5750000000000002</v>
+        <v>1.6675000000000002</v>
       </c>
       <c r="AC39" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/100,Trigger)</f>
-        <v>1.100000000000002E-3</v>
+        <v>9.2500000000000221E-4</v>
       </c>
       <c r="AD39" s="140"/>
       <c r="AE39" s="4"/>
@@ -23248,10 +23248,10 @@
         <v>JPYSB3T40Y=SMKR</v>
       </c>
       <c r="T40" s="169">
-        <v>1.6075000000000002</v>
+        <v>1.7037500000000001</v>
       </c>
       <c r="U40" s="169">
-        <v>1.6475000000000002</v>
+        <v>1.7437500000000001</v>
       </c>
       <c r="V40" s="169">
         <v>0</v>
@@ -23261,19 +23261,19 @@
       </c>
       <c r="X40" s="173">
         <f>_xll.qlMidSafe($T40,$U40)</f>
-        <v>1.6275000000000002</v>
+        <v>1.7237500000000001</v>
       </c>
       <c r="Y40" s="171"/>
       <c r="Z40" s="172">
-        <v>1.6275000000000002</v>
+        <v>1.7237500000000001</v>
       </c>
       <c r="AA40" s="171"/>
       <c r="AB40" s="231">
-        <v>1.6275000000000002</v>
+        <v>1.7237500000000001</v>
       </c>
       <c r="AC40" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/100,Trigger)</f>
-        <v>1.0750000000000013E-3</v>
+        <v>9.6250000000000155E-4</v>
       </c>
       <c r="AD40" s="140"/>
       <c r="AE40" s="4"/>
@@ -23656,7 +23656,7 @@
       <c r="R4" s="120"/>
       <c r="S4" s="166" t="str">
         <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="T4" s="220" t="s">
         <v>178</v>
@@ -23862,7 +23862,7 @@
       </c>
       <c r="AC6" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/100,Trigger)</f>
-        <v>-2.4999999999999849E-5</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="140"/>
       <c r="AE6" s="4"/>
@@ -24012,10 +24012,10 @@
         <v>JPYSB6L18M=ICAP</v>
       </c>
       <c r="T8" s="169">
-        <v>0.115</v>
+        <v>0.1125</v>
       </c>
       <c r="U8" s="169">
-        <v>0.17500000000000002</v>
+        <v>0.17250000000000001</v>
       </c>
       <c r="V8" s="169">
         <v>0</v>
@@ -24025,7 +24025,7 @@
       </c>
       <c r="X8" s="173">
         <f>_xll.qlMidEquivalent($T8,$U8,$V8,$W8)</f>
-        <v>0.14500000000000002</v>
+        <v>0.14250000000000002</v>
       </c>
       <c r="Y8" s="171"/>
       <c r="Z8" s="172">
@@ -24033,11 +24033,11 @@
       </c>
       <c r="AA8" s="171"/>
       <c r="AB8" s="231">
-        <v>0.14500000000000002</v>
+        <v>0.14250000000000002</v>
       </c>
       <c r="AC8" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/100,Trigger)</f>
-        <v>4.9999999999999914E-5</v>
+        <v>-2.5000000000000066E-5</v>
       </c>
       <c r="AD8" s="140"/>
       <c r="AE8" s="4"/>
@@ -24178,10 +24178,10 @@
         <v>JPYSB6L2Y=ICAP</v>
       </c>
       <c r="T10" s="169">
-        <v>0.125</v>
+        <v>0.12250000000000001</v>
       </c>
       <c r="U10" s="169">
-        <v>0.185</v>
+        <v>0.1825</v>
       </c>
       <c r="V10" s="169">
         <v>0</v>
@@ -24191,7 +24191,7 @@
       </c>
       <c r="X10" s="173">
         <f>_xll.qlMidEquivalent($T10,$U10,$V10,$W10)</f>
-        <v>0.155</v>
+        <v>0.1525</v>
       </c>
       <c r="Y10" s="171"/>
       <c r="Z10" s="172">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="AA10" s="171"/>
       <c r="AB10" s="231">
-        <v>0.155</v>
+        <v>0.1525</v>
       </c>
       <c r="AC10" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F10,AB10/100,Trigger)</f>
-        <v>1.4999999999999974E-4</v>
+        <v>-2.5000000000000066E-5</v>
       </c>
       <c r="AD10" s="140"/>
       <c r="AE10" s="4"/>
@@ -24255,10 +24255,10 @@
         <v>JPYSB6L3Y=ICAP</v>
       </c>
       <c r="T11" s="169">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="U11" s="169">
-        <v>0.21000000000000002</v>
+        <v>0.215</v>
       </c>
       <c r="V11" s="169">
         <v>0</v>
@@ -24268,7 +24268,7 @@
       </c>
       <c r="X11" s="173">
         <f>_xll.qlMidEquivalent($T11,$U11,$V11,$W11)</f>
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="Y11" s="171"/>
       <c r="Z11" s="172">
@@ -24276,11 +24276,11 @@
       </c>
       <c r="AA11" s="171"/>
       <c r="AB11" s="231">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="AC11" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
-        <v>2.5000000000000001E-4</v>
+        <v>5.0000000000000131E-5</v>
       </c>
       <c r="AD11" s="140"/>
       <c r="AE11" s="4"/>
@@ -24332,10 +24332,10 @@
         <v>JPYSB6L4Y=ICAP</v>
       </c>
       <c r="T12" s="169">
-        <v>0.1925</v>
+        <v>0.20500000000000002</v>
       </c>
       <c r="U12" s="169">
-        <v>0.2525</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="V12" s="169">
         <v>0</v>
@@ -24345,7 +24345,7 @@
       </c>
       <c r="X12" s="173">
         <f>_xll.qlMidEquivalent($T12,$U12,$V12,$W12)</f>
-        <v>0.2225</v>
+        <v>0.23500000000000001</v>
       </c>
       <c r="Y12" s="171"/>
       <c r="Z12" s="172">
@@ -24353,11 +24353,11 @@
       </c>
       <c r="AA12" s="171"/>
       <c r="AB12" s="231">
-        <v>0.2225</v>
+        <v>0.23500000000000001</v>
       </c>
       <c r="AC12" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/100,Trigger)</f>
-        <v>3.9999999999999996E-4</v>
+        <v>1.2500000000000011E-4</v>
       </c>
       <c r="AD12" s="140"/>
       <c r="AE12" s="4"/>
@@ -24409,10 +24409,10 @@
         <v>JPYSB6L5Y=ICAP</v>
       </c>
       <c r="T13" s="169">
-        <v>0.2525</v>
+        <v>0.26750000000000002</v>
       </c>
       <c r="U13" s="169">
-        <v>0.3125</v>
+        <v>0.32750000000000001</v>
       </c>
       <c r="V13" s="169">
         <v>0</v>
@@ -24422,7 +24422,7 @@
       </c>
       <c r="X13" s="173">
         <f>_xll.qlMidEquivalent($T13,$U13,$V13,$W13)</f>
-        <v>0.28249999999999997</v>
+        <v>0.29749999999999999</v>
       </c>
       <c r="Y13" s="171"/>
       <c r="Z13" s="172">
@@ -24430,11 +24430,11 @@
       </c>
       <c r="AA13" s="171"/>
       <c r="AB13" s="231">
-        <v>0.28249999999999997</v>
+        <v>0.29749999999999999</v>
       </c>
       <c r="AC13" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
-        <v>5.9999999999999984E-4</v>
+        <v>1.4999999999999996E-4</v>
       </c>
       <c r="AD13" s="140"/>
       <c r="AE13" s="4"/>
@@ -24486,10 +24486,10 @@
         <v>JPYSB6L6Y=ICAP</v>
       </c>
       <c r="T14" s="169">
-        <v>0.3175</v>
+        <v>0.34</v>
       </c>
       <c r="U14" s="169">
-        <v>0.3775</v>
+        <v>0.4</v>
       </c>
       <c r="V14" s="169">
         <v>0</v>
@@ -24499,7 +24499,7 @@
       </c>
       <c r="X14" s="173">
         <f>_xll.qlMidEquivalent($T14,$U14,$V14,$W14)</f>
-        <v>0.34750000000000003</v>
+        <v>0.37</v>
       </c>
       <c r="Y14" s="171"/>
       <c r="Z14" s="172">
@@ -24507,11 +24507,11 @@
       </c>
       <c r="AA14" s="171"/>
       <c r="AB14" s="231">
-        <v>0.34750000000000003</v>
+        <v>0.37</v>
       </c>
       <c r="AC14" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
-        <v>8.000000000000008E-4</v>
+        <v>2.2499999999999994E-4</v>
       </c>
       <c r="AD14" s="140"/>
       <c r="AE14" s="4"/>
@@ -24563,10 +24563,10 @@
         <v>JPYSB6L7Y=ICAP</v>
       </c>
       <c r="T15" s="169">
-        <v>0.38750000000000001</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="U15" s="169">
-        <v>0.44750000000000001</v>
+        <v>0.47250000000000003</v>
       </c>
       <c r="V15" s="169">
         <v>0</v>
@@ -24576,7 +24576,7 @@
       </c>
       <c r="X15" s="173">
         <f>_xll.qlMidEquivalent($T15,$U15,$V15,$W15)</f>
-        <v>0.41749999999999998</v>
+        <v>0.4425</v>
       </c>
       <c r="Y15" s="171"/>
       <c r="Z15" s="172">
@@ -24584,11 +24584,11 @@
       </c>
       <c r="AA15" s="171"/>
       <c r="AB15" s="231">
-        <v>0.41749999999999998</v>
+        <v>0.4425</v>
       </c>
       <c r="AC15" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
-        <v>1E-3</v>
+        <v>2.5000000000000022E-4</v>
       </c>
       <c r="AD15" s="140"/>
       <c r="AE15" s="4"/>
@@ -24640,10 +24640,10 @@
         <v>JPYSB6L8Y=ICAP</v>
       </c>
       <c r="T16" s="169">
-        <v>0.45250000000000001</v>
+        <v>0.48500000000000004</v>
       </c>
       <c r="U16" s="169">
-        <v>0.51250000000000007</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="V16" s="169">
         <v>0</v>
@@ -24653,7 +24653,7 @@
       </c>
       <c r="X16" s="173">
         <f>_xll.qlMidEquivalent($T16,$U16,$V16,$W16)</f>
-        <v>0.48250000000000004</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="Y16" s="171"/>
       <c r="Z16" s="172">
@@ -24661,11 +24661,11 @@
       </c>
       <c r="AA16" s="171"/>
       <c r="AB16" s="231">
-        <v>0.48250000000000004</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="AC16" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
-        <v>1.1000000000000003E-3</v>
+        <v>3.2499999999999977E-4</v>
       </c>
       <c r="AD16" s="140"/>
       <c r="AE16" s="4"/>
@@ -24717,10 +24717,10 @@
         <v>JPYSB6L9Y=ICAP</v>
       </c>
       <c r="T17" s="169">
-        <v>0.51500000000000001</v>
+        <v>0.5575</v>
       </c>
       <c r="U17" s="169">
-        <v>0.57500000000000007</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="V17" s="169">
         <v>0</v>
@@ -24730,7 +24730,7 @@
       </c>
       <c r="X17" s="173">
         <f>_xll.qlMidEquivalent($T17,$U17,$V17,$W17)</f>
-        <v>0.54500000000000004</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="Y17" s="171"/>
       <c r="Z17" s="172">
@@ -24738,11 +24738,11 @@
       </c>
       <c r="AA17" s="171"/>
       <c r="AB17" s="231">
-        <v>0.54500000000000004</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="AC17" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
-        <v>1.1749999999999998E-3</v>
+        <v>4.2500000000000003E-4</v>
       </c>
       <c r="AD17" s="140"/>
       <c r="AE17" s="4"/>
@@ -24794,10 +24794,10 @@
         <v>JPYSB6L10Y=ICAP</v>
       </c>
       <c r="T18" s="169">
-        <v>0.58250000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="U18" s="169">
-        <v>0.64250000000000007</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="V18" s="169">
         <v>0</v>
@@ -24807,7 +24807,7 @@
       </c>
       <c r="X18" s="173">
         <f>_xll.qlMidEquivalent($T18,$U18,$V18,$W18)</f>
-        <v>0.61250000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="Y18" s="171"/>
       <c r="Z18" s="172">
@@ -24815,11 +24815,11 @@
       </c>
       <c r="AA18" s="171"/>
       <c r="AB18" s="231">
-        <v>0.61250000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="AC18" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
-        <v>1.2500000000000002E-3</v>
+        <v>4.7499999999999973E-4</v>
       </c>
       <c r="AD18" s="140"/>
       <c r="AE18" s="4"/>
@@ -24948,10 +24948,10 @@
         <v>JPYSB6L12Y=ICAP</v>
       </c>
       <c r="T20" s="169">
-        <v>0.70500000000000007</v>
+        <v>0.76250000000000007</v>
       </c>
       <c r="U20" s="169">
-        <v>0.78500000000000003</v>
+        <v>0.84250000000000003</v>
       </c>
       <c r="V20" s="169">
         <v>0</v>
@@ -24961,7 +24961,7 @@
       </c>
       <c r="X20" s="173">
         <f>_xll.qlMidEquivalent($T20,$U20,$V20,$W20)</f>
-        <v>0.74500000000000011</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="Y20" s="171"/>
       <c r="Z20" s="172">
@@ -24969,11 +24969,11 @@
       </c>
       <c r="AA20" s="171"/>
       <c r="AB20" s="231">
-        <v>0.74500000000000011</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="AC20" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
-        <v>1.3250000000000007E-3</v>
+        <v>5.7499999999999826E-4</v>
       </c>
       <c r="AD20" s="140"/>
       <c r="AE20" s="4"/>
@@ -25179,10 +25179,10 @@
         <v>JPYSB6L15Y=ICAP</v>
       </c>
       <c r="T23" s="169">
-        <v>0.90750000000000008</v>
+        <v>0.97750000000000004</v>
       </c>
       <c r="U23" s="169">
-        <v>0.98750000000000004</v>
+        <v>1.0575000000000001</v>
       </c>
       <c r="V23" s="169">
         <v>0</v>
@@ -25192,7 +25192,7 @@
       </c>
       <c r="X23" s="173">
         <f>_xll.qlMidEquivalent($T23,$U23,$V23,$W23)</f>
-        <v>0.94750000000000001</v>
+        <v>1.0175000000000001</v>
       </c>
       <c r="Y23" s="171"/>
       <c r="Z23" s="172">
@@ -25200,11 +25200,11 @@
       </c>
       <c r="AA23" s="171"/>
       <c r="AB23" s="231">
-        <v>0.94750000000000001</v>
+        <v>1.0175000000000001</v>
       </c>
       <c r="AC23" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/100,Trigger)</f>
-        <v>1.3749999999999995E-3</v>
+        <v>6.9999999999999923E-4</v>
       </c>
       <c r="AD23" s="140"/>
       <c r="AE23" s="4"/>
@@ -25564,10 +25564,10 @@
         <v>JPYSB6L20Y=ICAP</v>
       </c>
       <c r="T28" s="169">
-        <v>1.1675</v>
+        <v>1.2475000000000001</v>
       </c>
       <c r="U28" s="169">
-        <v>1.2475000000000001</v>
+        <v>1.3275000000000001</v>
       </c>
       <c r="V28" s="169">
         <v>0</v>
@@ -25577,7 +25577,7 @@
       </c>
       <c r="X28" s="173">
         <f>_xll.qlMidEquivalent($T28,$U28,$V28,$W28)</f>
-        <v>1.2075</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="Y28" s="171"/>
       <c r="Z28" s="172">
@@ -25585,11 +25585,11 @@
       </c>
       <c r="AA28" s="171"/>
       <c r="AB28" s="231">
-        <v>1.2075</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="AC28" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/100,Trigger)</f>
-        <v>1.2999999999999991E-3</v>
+        <v>8.0000000000000036E-4</v>
       </c>
       <c r="AD28" s="140"/>
       <c r="AE28" s="4"/>
@@ -25949,10 +25949,10 @@
         <v>JPYSB6L25Y=ICAP</v>
       </c>
       <c r="T33" s="169">
-        <v>1.3125</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="U33" s="169">
-        <v>1.3925000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="V33" s="169">
         <v>0</v>
@@ -25962,7 +25962,7 @@
       </c>
       <c r="X33" s="173">
         <f>_xll.qlMidEquivalent($T33,$U33,$V33,$W33)</f>
-        <v>1.3525</v>
+        <v>1.44</v>
       </c>
       <c r="Y33" s="171"/>
       <c r="Z33" s="172">
@@ -25970,11 +25970,11 @@
       </c>
       <c r="AA33" s="171"/>
       <c r="AB33" s="231">
-        <v>1.3525</v>
+        <v>1.44</v>
       </c>
       <c r="AC33" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/100,Trigger)</f>
-        <v>1.3250000000000015E-3</v>
+        <v>8.7499999999999904E-4</v>
       </c>
       <c r="AD33" s="140"/>
       <c r="AE33" s="4"/>
@@ -26334,10 +26334,10 @@
         <v>JPYSB6L30Y=ICAP</v>
       </c>
       <c r="T38" s="169">
-        <v>1.3900000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="U38" s="169">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="V38" s="169">
         <v>0</v>
@@ -26347,7 +26347,7 @@
       </c>
       <c r="X38" s="173">
         <f>_xll.qlMidEquivalent($T38,$U38,$V38,$W38)</f>
-        <v>1.4300000000000002</v>
+        <v>1.52</v>
       </c>
       <c r="Y38" s="171"/>
       <c r="Z38" s="172">
@@ -26355,11 +26355,11 @@
       </c>
       <c r="AA38" s="171"/>
       <c r="AB38" s="231">
-        <v>1.4300000000000002</v>
+        <v>1.52</v>
       </c>
       <c r="AC38" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/100,Trigger)</f>
-        <v>1.3250000000000033E-3</v>
+        <v>8.9999999999999802E-4</v>
       </c>
       <c r="AD38" s="140"/>
       <c r="AE38" s="4"/>
@@ -26860,7 +26860,7 @@
       <c r="N4" s="120"/>
       <c r="O4" s="166" t="str">
         <f>_xll.RData(O5:O18,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="P4" s="220" t="s">
         <v>178</v>
@@ -27967,7 +27967,7 @@
       <c r="R4" s="120"/>
       <c r="S4" s="166" t="str">
         <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="T4" s="220" t="s">
         <v>178</v>
@@ -31323,7 +31323,7 @@
       <c r="J5" s="385"/>
       <c r="K5" s="364" t="str">
         <f>_xll.RData(K6:K13,L5:M5,"RTFEED:IDN",,,L6)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="L5" s="365" t="s">
         <v>251</v>
@@ -31447,10 +31447,10 @@
         <v>JPYSNFSR=</v>
       </c>
       <c r="L7" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="M7" s="372">
-        <v>3.3570000000000003E-2</v>
+        <v>3.143E-2</v>
       </c>
       <c r="N7" s="372" t="b">
         <f t="shared" si="2"/>
@@ -31467,7 +31467,7 @@
       </c>
       <c r="R7" s="370">
         <f>IF($O7,_xll.qlIndexFixing($E7,$L7,FALSE,$N7),"-")</f>
-        <v>3.3570000000000003E-4</v>
+        <v>3.143E-4</v>
       </c>
       <c r="S7" s="370" t="e">
         <f t="shared" ref="S7:S13" si="4">Q7-R7</f>
@@ -31515,10 +31515,10 @@
         <v>JPYSWFSR=</v>
       </c>
       <c r="L8" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="M8" s="372">
-        <v>4.5710000000000001E-2</v>
+        <v>3.7860000000000005E-2</v>
       </c>
       <c r="N8" s="372" t="b">
         <f t="shared" si="2"/>
@@ -31535,7 +31535,7 @@
       </c>
       <c r="R8" s="370">
         <f>IF($O8,_xll.qlIndexFixing($E8,$L8,FALSE,$N8),"-")</f>
-        <v>4.571E-4</v>
+        <v>3.7860000000000004E-4</v>
       </c>
       <c r="S8" s="370" t="e">
         <f t="shared" si="4"/>
@@ -31583,10 +31583,10 @@
         <v>JPY1MFSR=</v>
       </c>
       <c r="L9" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="M9" s="372">
-        <v>6.8570000000000006E-2</v>
+        <v>5.9290000000000002E-2</v>
       </c>
       <c r="N9" s="372" t="b">
         <f t="shared" si="2"/>
@@ -31603,7 +31603,7 @@
       </c>
       <c r="R9" s="370">
         <f>IF($O9,_xll.qlIndexFixing($E9,$L9,FALSE,$N9),"-")</f>
-        <v>6.8570000000000002E-4</v>
+        <v>5.9290000000000005E-4</v>
       </c>
       <c r="S9" s="370" t="e">
         <f t="shared" si="4"/>
@@ -31651,10 +31651,10 @@
         <v>JPY2MFSR=</v>
       </c>
       <c r="L10" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="M10" s="372">
-        <v>8.7140000000000009E-2</v>
+        <v>8.857000000000001E-2</v>
       </c>
       <c r="N10" s="372" t="b">
         <f t="shared" si="2"/>
@@ -31671,7 +31671,7 @@
       </c>
       <c r="R10" s="370">
         <f>IF($O10,_xll.qlIndexFixing($E10,$L10,FALSE,$N10),"-")</f>
-        <v>8.7140000000000004E-4</v>
+        <v>8.8570000000000012E-4</v>
       </c>
       <c r="S10" s="370" t="e">
         <f t="shared" si="4"/>
@@ -31722,10 +31722,10 @@
         <v>JPY3MFSR=</v>
       </c>
       <c r="L11" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="M11" s="372">
-        <v>0.10071000000000001</v>
+        <v>9.5710000000000003E-2</v>
       </c>
       <c r="N11" s="372" t="b">
         <f t="shared" si="2"/>
@@ -31738,23 +31738,23 @@
       <c r="P11" s="387"/>
       <c r="Q11" s="370">
         <f>_xll.qlIndexFixing($E11,$L11,TRUE,$N11)</f>
-        <v>8.2700000000015259E-4</v>
+        <v>1.0070000000001154E-3</v>
       </c>
       <c r="R11" s="370">
         <f>IF($O11,_xll.qlIndexFixing($E11,$L11,FALSE,$N11),"-")</f>
-        <v>1.0070999999999999E-3</v>
+        <v>9.5710000000000001E-4</v>
       </c>
       <c r="S11" s="370">
         <f t="shared" si="4"/>
-        <v>-1.8009999999984733E-4</v>
+        <v>4.9900000000115434E-5</v>
       </c>
       <c r="T11" s="374">
         <f>_xll.qlIndexFixing($E11,$L11,TRUE,$R11)</f>
-        <v>8.2700000000015259E-4</v>
+        <v>1.0070000000001154E-3</v>
       </c>
       <c r="U11" s="375">
         <f t="shared" si="5"/>
-        <v>1.8009999999984733E-4</v>
+        <v>4.9900000000115434E-5</v>
       </c>
       <c r="V11" s="360"/>
     </row>
@@ -31793,10 +31793,10 @@
         <v>JPY6MFSR=</v>
       </c>
       <c r="L12" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="M12" s="372">
-        <v>0.13786000000000001</v>
+        <v>0.13929000000000002</v>
       </c>
       <c r="N12" s="372" t="b">
         <f t="shared" si="2"/>
@@ -31809,23 +31809,23 @@
       <c r="P12" s="387"/>
       <c r="Q12" s="370">
         <f>_xll.qlIndexFixing($E12,$L12,TRUE,$N12)</f>
-        <v>1.735000000000245E-3</v>
+        <v>1.3790000000000774E-3</v>
       </c>
       <c r="R12" s="370">
         <f>IF($O12,_xll.qlIndexFixing($E12,$L12,FALSE,$N12),"-")</f>
-        <v>1.3786E-3</v>
+        <v>1.3928999999999999E-3</v>
       </c>
       <c r="S12" s="370">
         <f t="shared" si="4"/>
-        <v>3.5640000000024502E-4</v>
+        <v>-1.3899999999922438E-5</v>
       </c>
       <c r="T12" s="374">
         <f>_xll.qlIndexFixing($E12,$L12,TRUE,$R12)</f>
-        <v>1.735000000000245E-3</v>
+        <v>1.3790000000000774E-3</v>
       </c>
       <c r="U12" s="375">
         <f t="shared" si="5"/>
-        <v>3.5640000000024502E-4</v>
+        <v>1.3899999999922438E-5</v>
       </c>
       <c r="V12" s="360"/>
     </row>
@@ -31861,7 +31861,7 @@
         <v>JPY1YFSR=</v>
       </c>
       <c r="L13" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="M13" s="372">
         <v>0.254</v>
@@ -31990,7 +31990,7 @@
       <c r="J18" s="498"/>
       <c r="K18" s="499" t="str">
         <f>_xll.RHistory(K9,F22:F23,F20,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F21,K19)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="L18" s="508" t="b">
         <f>_xll.qlIndexAddFixings(E9,K21,L21/100,TRUE,Trigger)</f>
@@ -31999,7 +31999,7 @@
       <c r="M18" s="496"/>
       <c r="N18" s="499" t="str">
         <f>_xll.RHistory(K12,F22:F23,F20,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F21,N19)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="O18" s="508" t="b">
         <f>_xll.qlIndexAddFixings(E12,N21,O21/100,TRUE,Trigger)</f>
@@ -32037,7 +32037,7 @@
       </c>
       <c r="F20" s="515" t="str">
         <f>"START:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp; " END:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp;" INTERVAL:1D"</f>
-        <v>START:42135 END:42135 INTERVAL:1D</v>
+        <v>START:42180 END:42180 INTERVAL:1D</v>
       </c>
       <c r="G20" s="498"/>
       <c r="H20" s="498"/>
@@ -32071,17 +32071,17 @@
       <c r="I21" s="498"/>
       <c r="J21" s="498"/>
       <c r="K21" s="514">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="L21" s="513">
-        <v>6.8570000000000006E-2</v>
+        <v>5.9290000000000002E-2</v>
       </c>
       <c r="M21" s="496"/>
       <c r="N21" s="514">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="O21" s="513">
-        <v>0.13786000000000001</v>
+        <v>0.13929</v>
       </c>
       <c r="P21" s="501"/>
     </row>
@@ -32116,7 +32116,7 @@
       <c r="J23" s="498"/>
       <c r="K23" s="499" t="str">
         <f>_xll.RHistory(K11,F22:F23,F20,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F21,K24)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="L23" s="508" t="b">
         <f>_xll.qlIndexAddFixings(E11,K26,L26/100,TRUE,Trigger)</f>
@@ -32125,7 +32125,7 @@
       <c r="M23" s="496"/>
       <c r="N23" s="499" t="str">
         <f>_xll.RHistory(K13,F22:F23,F20,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F21,N24)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="O23" s="508" t="b">
         <f>_xll.qlIndexAddFixings(E13,N26,O26/100,TRUE,Trigger)</f>
@@ -32188,14 +32188,14 @@
       <c r="I26" s="498"/>
       <c r="J26" s="498"/>
       <c r="K26" s="514">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="L26" s="513">
-        <v>0.10070999999999999</v>
+        <v>9.5710000000000003E-2</v>
       </c>
       <c r="M26" s="496"/>
       <c r="N26" s="514">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="O26" s="513">
         <v>0.254</v>
@@ -35770,7 +35770,7 @@
       <c r="P5" s="385"/>
       <c r="Q5" s="364" t="str">
         <f>_xll.RData(Q6:Q18,R5:S5,"RTFEED:IDN",,,R6)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="R5" s="365" t="s">
         <v>251</v>
@@ -35851,7 +35851,7 @@
         <v>TIJPY1WD=</v>
       </c>
       <c r="R6" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="S6" s="372">
         <v>0.10500000000000001</v>
@@ -35929,10 +35929,10 @@
         <v>TIJPY1MD=</v>
       </c>
       <c r="R7" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="S7" s="372">
-        <v>0.12875</v>
+        <v>0.1275</v>
       </c>
       <c r="T7" s="372" t="b">
         <f t="shared" si="3"/>
@@ -35949,7 +35949,7 @@
       </c>
       <c r="X7" s="370">
         <f>IF($U7,_xll.qlIndexFixing($K7,$R7,FALSE,$T7),"-")</f>
-        <v>1.2875E-3</v>
+        <v>1.2750000000000001E-3</v>
       </c>
       <c r="Y7" s="370" t="e">
         <f t="shared" si="4"/>
@@ -36016,7 +36016,7 @@
         <v>TIJPY2MD=</v>
       </c>
       <c r="R8" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="S8" s="372">
         <v>0.14750000000000002</v>
@@ -36106,7 +36106,7 @@
         <v>TIJPY3MD=</v>
       </c>
       <c r="R9" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="S9" s="372">
         <v>0.16750000000000001</v>
@@ -36367,7 +36367,7 @@
         <v>TIJPY6MD=</v>
       </c>
       <c r="R12" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="S12" s="372">
         <v>0.2525</v>
@@ -36853,7 +36853,7 @@
         <v>TIJPY1YD=</v>
       </c>
       <c r="R18" s="371">
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="S18" s="372">
         <v>0.28125</v>
@@ -37110,7 +37110,7 @@
       <c r="Y4" s="291"/>
       <c r="Z4" s="290"/>
     </row>
-    <row r="5" spans="2:26" s="8" customFormat="1" ht="19.5">
+    <row r="5" spans="2:26" s="8" customFormat="1" ht="15.75">
       <c r="B5" s="18"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -37171,7 +37171,7 @@
       </c>
       <c r="M6" s="316" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="N6" s="316" t="s">
         <v>251</v>
@@ -41181,7 +41181,7 @@
       <c r="Y4" s="291"/>
       <c r="Z4" s="467"/>
     </row>
-    <row r="5" spans="2:26" s="8" customFormat="1" ht="19.5">
+    <row r="5" spans="2:26" s="8" customFormat="1" ht="15.75">
       <c r="B5" s="18"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -41242,7 +41242,7 @@
       </c>
       <c r="M6" s="316" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="N6" s="316" t="s">
         <v>251</v>
@@ -43734,7 +43734,7 @@
       <c r="O3" s="201"/>
       <c r="P3" s="200">
         <f>_xll.ohTrigger(P5:P18)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="140"/>
       <c r="R3" s="4"/>
@@ -43764,7 +43764,7 @@
       <c r="I4" s="197"/>
       <c r="J4" s="166" t="str">
         <f>_xll.RData(J8:J22,K4,,ReutersRtMode,,K8)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="K4" s="199" t="str">
         <f>VLOOKUP(Contributor,ContributorTable,5,FALSE)</f>
@@ -43888,19 +43888,19 @@
       </c>
       <c r="K6" s="173">
         <f>X29</f>
-        <v>-0.05</v>
+        <v>-6.9999999999999993E-2</v>
       </c>
       <c r="L6" s="171"/>
       <c r="M6" s="172">
-        <v>-0.05</v>
+        <v>-6.9999999999999993E-2</v>
       </c>
       <c r="N6" s="171"/>
       <c r="O6" s="231">
-        <v>-0.05</v>
+        <v>-6.9999999999999993E-2</v>
       </c>
       <c r="P6" s="168">
         <f>_xll.qlSimpleQuoteSetValue(D6,O6/100,Trigger)</f>
-        <v>-5.0000000000000001E-4</v>
+        <v>-1.9999999999999987E-4</v>
       </c>
       <c r="Q6" s="140"/>
       <c r="R6" s="4"/>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="P7" s="181">
         <f>_xll.qlSimpleQuoteSetValue(D7,O7/100,Trigger)</f>
-        <v>-5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="140"/>
       <c r="R7" s="4"/>
@@ -43998,19 +43998,19 @@
         <v>JPYSWFSR=</v>
       </c>
       <c r="K8" s="173">
-        <v>4.5710000000000001E-2</v>
+        <v>3.7860000000000005E-2</v>
       </c>
       <c r="L8" s="171"/>
       <c r="M8" s="172">
-        <v>4.5710000000000001E-2</v>
+        <v>3.7860000000000005E-2</v>
       </c>
       <c r="N8" s="171"/>
       <c r="O8" s="231">
-        <v>4.5710000000000001E-2</v>
+        <v>3.7860000000000005E-2</v>
       </c>
       <c r="P8" s="168">
         <f>_xll.qlSimpleQuoteSetValue(D8,O8/100,Trigger)</f>
-        <v>2.1399999999999978E-5</v>
+        <v>-7.8499999999999957E-5</v>
       </c>
       <c r="Q8" s="140"/>
       <c r="R8" s="4"/>
@@ -44170,19 +44170,19 @@
         <v>JPY1MFSR=</v>
       </c>
       <c r="K11" s="173">
-        <v>6.8570000000000006E-2</v>
+        <v>5.9290000000000002E-2</v>
       </c>
       <c r="L11" s="171"/>
       <c r="M11" s="172">
-        <v>6.8570000000000006E-2</v>
+        <v>5.9290000000000002E-2</v>
       </c>
       <c r="N11" s="171"/>
       <c r="O11" s="231">
-        <v>6.8570000000000006E-2</v>
+        <v>5.9290000000000002E-2</v>
       </c>
       <c r="P11" s="168">
         <f>_xll.qlSimpleQuoteSetValue(D11,O11/100,Trigger)</f>
-        <v>-7.1400000000000001E-5</v>
+        <v>-9.2799999999999979E-5</v>
       </c>
       <c r="Q11" s="140"/>
       <c r="R11" s="4"/>
@@ -44226,19 +44226,19 @@
         <v>JPY2MFSR=</v>
       </c>
       <c r="K12" s="173">
-        <v>8.7140000000000009E-2</v>
+        <v>8.857000000000001E-2</v>
       </c>
       <c r="L12" s="171"/>
       <c r="M12" s="172">
-        <v>8.7140000000000009E-2</v>
+        <v>8.857000000000001E-2</v>
       </c>
       <c r="N12" s="171"/>
       <c r="O12" s="231">
-        <v>8.7140000000000009E-2</v>
+        <v>8.857000000000001E-2</v>
       </c>
       <c r="P12" s="168">
         <f>_xll.qlSimpleQuoteSetValue(D12,O12/100,Trigger)</f>
-        <v>-3.5699999999999946E-5</v>
+        <v>1.4300000000000077E-5</v>
       </c>
       <c r="Q12" s="140"/>
       <c r="R12" s="4"/>
@@ -44282,19 +44282,19 @@
         <v>JPY3MFSR=</v>
       </c>
       <c r="K13" s="173">
-        <v>0.10071000000000001</v>
+        <v>9.5710000000000003E-2</v>
       </c>
       <c r="L13" s="171"/>
       <c r="M13" s="172">
-        <v>0.10071000000000001</v>
+        <v>9.5710000000000003E-2</v>
       </c>
       <c r="N13" s="171"/>
       <c r="O13" s="231">
-        <v>0.10071000000000001</v>
+        <v>9.5710000000000003E-2</v>
       </c>
       <c r="P13" s="168">
         <f>_xll.qlSimpleQuoteSetValue(D13,O13/100,Trigger)</f>
-        <v>-2.8599999999999936E-5</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Q13" s="140"/>
       <c r="R13" s="4"/>
@@ -44434,19 +44434,19 @@
         <v>JPY6MFSR=</v>
       </c>
       <c r="K16" s="173">
-        <v>0.13786000000000001</v>
+        <v>0.13929000000000002</v>
       </c>
       <c r="L16" s="171"/>
       <c r="M16" s="172">
-        <v>0.13786000000000001</v>
+        <v>0.13929000000000002</v>
       </c>
       <c r="N16" s="171"/>
       <c r="O16" s="231">
-        <v>0.13786000000000001</v>
+        <v>0.13929000000000002</v>
       </c>
       <c r="P16" s="168">
         <f>_xll.qlSimpleQuoteSetValue(D16,O16/100,Trigger)</f>
-        <v>-5.8499999999999958E-5</v>
+        <v>1.4300000000000293E-5</v>
       </c>
       <c r="Q16" s="140"/>
       <c r="R16" s="4"/>
@@ -44734,7 +44734,7 @@
       </c>
       <c r="P22" s="181">
         <f>_xll.qlSimpleQuoteSetValue(D22,O22/100,Trigger)</f>
-        <v>-1.4999999999999996E-4</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="140"/>
       <c r="R22" s="4"/>
@@ -44826,7 +44826,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="336" t="str">
         <f>_xll.RData(J5:J7,V27:W27,"RTFEED:IDN",ReutersRtMode,,V28)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="V27" s="337" t="s">
         <v>178</v>
@@ -44868,14 +44868,14 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="339">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="W29" s="339">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="X29" s="339">
         <f>(V29+W29)/2</f>
-        <v>-0.05</v>
+        <v>-6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -45046,7 +45046,7 @@
       <c r="N4" s="86"/>
       <c r="O4" s="252" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="P4" s="249" t="s">
         <v>178</v>
@@ -45317,10 +45317,10 @@
         <v>JPY1MOIS=ICAP</v>
       </c>
       <c r="P8" s="169">
-        <v>4.5000000000000005E-2</v>
+        <v>5.2500000000000005E-2</v>
       </c>
       <c r="Q8" s="169">
-        <v>8.5000000000000006E-2</v>
+        <v>9.2500000000000013E-2</v>
       </c>
       <c r="R8" s="169">
         <v>0</v>
@@ -45330,19 +45330,19 @@
       </c>
       <c r="T8" s="173">
         <f>_xll.qlMidEquivalent($P8,$Q8,$R8,$S8)</f>
-        <v>6.5000000000000002E-2</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="U8" s="171"/>
       <c r="V8" s="172">
-        <v>6.5000000000000002E-2</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="W8" s="171"/>
       <c r="X8" s="231">
-        <v>6.5000000000000002E-2</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="Y8" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
-        <v>-5.0000000000000131E-5</v>
+        <v>7.5000000000000088E-5</v>
       </c>
       <c r="Z8" s="140"/>
     </row>
@@ -45384,10 +45384,10 @@
         <v>JPY2MOIS=ICAP</v>
       </c>
       <c r="P9" s="169">
-        <v>4.5000000000000005E-2</v>
+        <v>5.2500000000000005E-2</v>
       </c>
       <c r="Q9" s="169">
-        <v>8.5000000000000006E-2</v>
+        <v>9.2500000000000013E-2</v>
       </c>
       <c r="R9" s="169">
         <v>0</v>
@@ -45397,19 +45397,19 @@
       </c>
       <c r="T9" s="173">
         <f>_xll.qlMidEquivalent($P9,$Q9,$R9,$S9)</f>
-        <v>6.5000000000000002E-2</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="U9" s="171"/>
       <c r="V9" s="172">
-        <v>6.5000000000000002E-2</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="W9" s="171"/>
       <c r="X9" s="231">
-        <v>6.5000000000000002E-2</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="Y9" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F9,X9/100,Trigger)</f>
-        <v>-2.5000000000000066E-5</v>
+        <v>7.5000000000000088E-5</v>
       </c>
       <c r="Z9" s="140"/>
     </row>
@@ -45451,10 +45451,10 @@
         <v>JPY3MOIS=ICAP</v>
       </c>
       <c r="P10" s="169">
-        <v>4.2500000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" s="169">
-        <v>8.2500000000000004E-2</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="R10" s="169">
         <v>0</v>
@@ -45464,19 +45464,19 @@
       </c>
       <c r="T10" s="173">
         <f>_xll.qlMidEquivalent($P10,$Q10,$R10,$S10)</f>
-        <v>6.25E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U10" s="171"/>
       <c r="V10" s="172">
-        <v>6.25E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W10" s="171"/>
       <c r="X10" s="231">
-        <v>6.25E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y10" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
-        <v>2.5000000000000066E-5</v>
+        <v>7.5000000000000088E-5</v>
       </c>
       <c r="Z10" s="140"/>
     </row>
@@ -45518,10 +45518,10 @@
         <v>JPY4MOIS=ICAP</v>
       </c>
       <c r="P11" s="169">
-        <v>4.2500000000000003E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="Q11" s="169">
-        <v>8.2500000000000004E-2</v>
+        <v>8.7500000000000008E-2</v>
       </c>
       <c r="R11" s="169">
         <v>0</v>
@@ -45531,19 +45531,19 @@
       </c>
       <c r="T11" s="173">
         <f>_xll.qlMidEquivalent($P11,$Q11,$R11,$S11)</f>
-        <v>6.25E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="U11" s="171"/>
       <c r="V11" s="172">
-        <v>6.25E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="W11" s="171"/>
       <c r="X11" s="231">
-        <v>6.25E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="Y11" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
-        <v>7.5000000000000088E-5</v>
+        <v>5.0000000000000023E-5</v>
       </c>
       <c r="Z11" s="140"/>
     </row>
@@ -45585,10 +45585,10 @@
         <v>JPY5MOIS=ICAP</v>
       </c>
       <c r="P12" s="169">
-        <v>4.2500000000000003E-2</v>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="Q12" s="169">
-        <v>8.2500000000000004E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="R12" s="169">
         <v>0</v>
@@ -45598,19 +45598,19 @@
       </c>
       <c r="T12" s="173">
         <f>_xll.qlMidEquivalent($P12,$Q12,$R12,$S12)</f>
-        <v>6.25E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="U12" s="171"/>
       <c r="V12" s="172">
-        <v>6.25E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="W12" s="171"/>
       <c r="X12" s="231">
-        <v>6.25E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Y12" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
-        <v>1.0000000000000005E-4</v>
+        <v>2.4999999999999957E-5</v>
       </c>
       <c r="Z12" s="140"/>
     </row>
@@ -45652,10 +45652,10 @@
         <v>JPY6MOIS=ICAP</v>
       </c>
       <c r="P13" s="169">
-        <v>0.04</v>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="Q13" s="169">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="R13" s="169">
         <v>0</v>
@@ -45665,19 +45665,19 @@
       </c>
       <c r="T13" s="173">
         <f>_xll.qlMidEquivalent($P13,$Q13,$R13,$S13)</f>
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="U13" s="171"/>
       <c r="V13" s="172">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="W13" s="171"/>
       <c r="X13" s="231">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Y13" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
-        <v>9.9999999999999937E-5</v>
+        <v>5.0000000000000023E-5</v>
       </c>
       <c r="Z13" s="140"/>
     </row>
@@ -45853,10 +45853,10 @@
         <v>JPY9MOIS=ICAP</v>
       </c>
       <c r="P16" s="169">
-        <v>0.04</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="Q16" s="169">
-        <v>0.08</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="R16" s="169">
         <v>0</v>
@@ -45866,19 +45866,19 @@
       </c>
       <c r="T16" s="173">
         <f>_xll.qlMidEquivalent($P16,$Q16,$R16,$S16)</f>
-        <v>0.06</v>
+        <v>6.25E-2</v>
       </c>
       <c r="U16" s="171"/>
       <c r="V16" s="172">
-        <v>0.06</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W16" s="171"/>
       <c r="X16" s="231">
-        <v>0.06</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Y16" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F16,X16/100,Trigger)</f>
-        <v>1.2499999999999995E-4</v>
+        <v>2.5000000000000066E-5</v>
       </c>
       <c r="Z16" s="140"/>
     </row>
@@ -46079,7 +46079,7 @@
       </c>
       <c r="Y19" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>1.2499999999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="140"/>
     </row>
@@ -46482,7 +46482,7 @@
       </c>
       <c r="Y25" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>1.2499999999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="140"/>
     </row>
@@ -46859,10 +46859,10 @@
         <v>JPY2YOIS=ICAP</v>
       </c>
       <c r="P31" s="169">
-        <v>4.7500000000000001E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="Q31" s="169">
-        <v>8.7500000000000008E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="R31" s="169">
         <v>0</v>
@@ -46872,19 +46872,19 @@
       </c>
       <c r="T31" s="173">
         <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
-        <v>6.7500000000000004E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="U31" s="171"/>
       <c r="V31" s="172">
-        <v>6.7500000000000004E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W31" s="171"/>
       <c r="X31" s="231">
-        <v>6.7500000000000004E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Y31" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>1.7500000000000003E-4</v>
+        <v>-5.0000000000000023E-5</v>
       </c>
       <c r="Z31" s="140"/>
     </row>
@@ -47127,10 +47127,10 @@
         <v>JPY3YOIS=ICAP</v>
       </c>
       <c r="P35" s="169">
-        <v>5.7500000000000002E-2</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="Q35" s="169">
-        <v>0.11750000000000001</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="R35" s="169">
         <v>0</v>
@@ -47140,19 +47140,19 @@
       </c>
       <c r="T35" s="173">
         <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
-        <v>8.7500000000000008E-2</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="U35" s="171"/>
       <c r="V35" s="172">
-        <v>8.7500000000000008E-2</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="W35" s="171"/>
       <c r="X35" s="231">
-        <v>8.7500000000000008E-2</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="Y35" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>2.5000000000000011E-4</v>
+        <v>2.4999999999999957E-5</v>
       </c>
       <c r="Z35" s="140"/>
     </row>
@@ -47395,10 +47395,10 @@
         <v>JPY4YOIS=ICAP</v>
       </c>
       <c r="P39" s="169">
-        <v>9.5000000000000001E-2</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="Q39" s="169">
-        <v>0.155</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="R39" s="169">
         <v>0</v>
@@ -47408,19 +47408,19 @@
       </c>
       <c r="T39" s="173">
         <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
-        <v>0.125</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="U39" s="171"/>
       <c r="V39" s="172">
-        <v>0.125</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="W39" s="171"/>
       <c r="X39" s="231">
-        <v>0.125</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="Y39" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
-        <v>3.5000000000000005E-4</v>
+        <v>1.0000000000000005E-4</v>
       </c>
       <c r="Z39" s="140"/>
     </row>
@@ -47663,10 +47663,10 @@
         <v>JPY5YOIS=ICAP</v>
       </c>
       <c r="P43" s="169">
-        <v>0.14750000000000002</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="Q43" s="169">
-        <v>0.20750000000000002</v>
+        <v>0.2225</v>
       </c>
       <c r="R43" s="169">
         <v>0</v>
@@ -47676,19 +47676,19 @@
       </c>
       <c r="T43" s="173">
         <f>_xll.qlMidEquivalent($P43,$Q43,$R43,$S43)</f>
-        <v>0.17750000000000002</v>
+        <v>0.1925</v>
       </c>
       <c r="U43" s="171"/>
       <c r="V43" s="172">
-        <v>0.17750000000000002</v>
+        <v>0.1925</v>
       </c>
       <c r="W43" s="171"/>
       <c r="X43" s="231">
-        <v>0.17750000000000002</v>
+        <v>0.1925</v>
       </c>
       <c r="Y43" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F43,X43/100,Trigger)</f>
-        <v>5.5000000000000014E-4</v>
+        <v>1.4999999999999996E-4</v>
       </c>
       <c r="Z43" s="140"/>
     </row>
@@ -47730,10 +47730,10 @@
         <v>JPY6YOIS=ICAP</v>
       </c>
       <c r="P44" s="169">
-        <v>0.1825</v>
+        <v>0.20750000000000002</v>
       </c>
       <c r="Q44" s="169">
-        <v>0.28250000000000003</v>
+        <v>0.3075</v>
       </c>
       <c r="R44" s="169">
         <v>0</v>
@@ -47743,19 +47743,19 @@
       </c>
       <c r="T44" s="173">
         <f>_xll.qlMidEquivalent($P44,$Q44,$R44,$S44)</f>
-        <v>0.23250000000000001</v>
+        <v>0.25750000000000001</v>
       </c>
       <c r="U44" s="171"/>
       <c r="V44" s="172">
-        <v>0.23250000000000001</v>
+        <v>0.25750000000000001</v>
       </c>
       <c r="W44" s="171"/>
       <c r="X44" s="231">
-        <v>0.23250000000000001</v>
+        <v>0.25750000000000001</v>
       </c>
       <c r="Y44" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F44,X44/100,Trigger)</f>
-        <v>7.2499999999999995E-4</v>
+        <v>2.4999999999999979E-4</v>
       </c>
       <c r="Z44" s="140"/>
     </row>
@@ -47797,10 +47797,10 @@
         <v>JPY7YOIS=ICAP</v>
       </c>
       <c r="P45" s="169">
-        <v>0.24000000000000002</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="Q45" s="169">
-        <v>0.34</v>
+        <v>0.3725</v>
       </c>
       <c r="R45" s="169">
         <v>0</v>
@@ -47810,19 +47810,19 @@
       </c>
       <c r="T45" s="173">
         <f>_xll.qlMidEquivalent($P45,$Q45,$R45,$S45)</f>
-        <v>0.29000000000000004</v>
+        <v>0.32250000000000001</v>
       </c>
       <c r="U45" s="171"/>
       <c r="V45" s="172">
-        <v>0.29000000000000004</v>
+        <v>0.32250000000000001</v>
       </c>
       <c r="W45" s="171"/>
       <c r="X45" s="231">
-        <v>0.29000000000000004</v>
+        <v>0.32250000000000001</v>
       </c>
       <c r="Y45" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F45,X45/100,Trigger)</f>
-        <v>9.2500000000000004E-4</v>
+        <v>3.2499999999999977E-4</v>
       </c>
       <c r="Z45" s="140"/>
     </row>
@@ -47864,10 +47864,10 @@
         <v>JPY8YOIS=ICAP</v>
       </c>
       <c r="P46" s="169">
-        <v>0.29250000000000004</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="Q46" s="169">
-        <v>0.39250000000000002</v>
+        <v>0.4325</v>
       </c>
       <c r="R46" s="169">
         <v>0</v>
@@ -47877,19 +47877,19 @@
       </c>
       <c r="T46" s="173">
         <f>_xll.qlMidEquivalent($P46,$Q46,$R46,$S46)</f>
-        <v>0.34250000000000003</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="U46" s="171"/>
       <c r="V46" s="172">
-        <v>0.34250000000000003</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="W46" s="171"/>
       <c r="X46" s="231">
-        <v>0.34250000000000003</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="Y46" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
-        <v>1.0500000000000002E-3</v>
+        <v>4.0000000000000018E-4</v>
       </c>
       <c r="Z46" s="140"/>
     </row>
@@ -47931,10 +47931,10 @@
         <v>JPY9YOIS=ICAP</v>
       </c>
       <c r="P47" s="169">
-        <v>0.34750000000000003</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="Q47" s="169">
-        <v>0.44750000000000001</v>
+        <v>0.49500000000000005</v>
       </c>
       <c r="R47" s="169">
         <v>0</v>
@@ -47944,19 +47944,19 @@
       </c>
       <c r="T47" s="173">
         <f>_xll.qlMidEquivalent($P47,$Q47,$R47,$S47)</f>
-        <v>0.39750000000000002</v>
+        <v>0.44500000000000006</v>
       </c>
       <c r="U47" s="171"/>
       <c r="V47" s="172">
-        <v>0.39750000000000002</v>
+        <v>0.44500000000000006</v>
       </c>
       <c r="W47" s="171"/>
       <c r="X47" s="231">
-        <v>0.39750000000000002</v>
+        <v>0.44500000000000006</v>
       </c>
       <c r="Y47" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>1.2000000000000005E-3</v>
+        <v>4.750000000000006E-4</v>
       </c>
       <c r="Z47" s="140"/>
     </row>
@@ -47998,10 +47998,10 @@
         <v>JPY10YOIS=ICAP</v>
       </c>
       <c r="P48" s="169">
-        <v>0.40500000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="Q48" s="169">
-        <v>0.505</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R48" s="169">
         <v>0</v>
@@ -48011,19 +48011,19 @@
       </c>
       <c r="T48" s="173">
         <f>_xll.qlMidEquivalent($P48,$Q48,$R48,$S48)</f>
-        <v>0.45500000000000002</v>
+        <v>0.51</v>
       </c>
       <c r="U48" s="171"/>
       <c r="V48" s="172">
-        <v>0.45500000000000002</v>
+        <v>0.51</v>
       </c>
       <c r="W48" s="171"/>
       <c r="X48" s="231">
-        <v>0.45500000000000002</v>
+        <v>0.51</v>
       </c>
       <c r="Y48" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>1.3750000000000004E-3</v>
+        <v>5.5000000000000014E-4</v>
       </c>
       <c r="Z48" s="140"/>
     </row>
@@ -48065,10 +48065,10 @@
         <v>JPY12YOIS=ICAP</v>
       </c>
       <c r="P49" s="169">
-        <v>0.52750000000000008</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="Q49" s="169">
-        <v>0.62750000000000006</v>
+        <v>0.69500000000000006</v>
       </c>
       <c r="R49" s="169">
         <v>0</v>
@@ -48078,19 +48078,19 @@
       </c>
       <c r="T49" s="173">
         <f>_xll.qlMidEquivalent($P49,$Q49,$R49,$S49)</f>
-        <v>0.57750000000000012</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="U49" s="171"/>
       <c r="V49" s="172">
-        <v>0.57750000000000012</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="W49" s="171"/>
       <c r="X49" s="231">
-        <v>0.57750000000000012</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="Y49" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>1.5500000000000019E-3</v>
+        <v>6.7499999999999852E-4</v>
       </c>
       <c r="Z49" s="140"/>
     </row>
@@ -48132,10 +48132,10 @@
         <v>JPY15YOIS=ICAP</v>
       </c>
       <c r="P50" s="169">
-        <v>0.72750000000000004</v>
+        <v>0.8075</v>
       </c>
       <c r="Q50" s="169">
-        <v>0.82750000000000001</v>
+        <v>0.90750000000000008</v>
       </c>
       <c r="R50" s="169">
         <v>0</v>
@@ -48145,19 +48145,19 @@
       </c>
       <c r="T50" s="173">
         <f>_xll.qlMidEquivalent($P50,$Q50,$R50,$S50)</f>
-        <v>0.77750000000000008</v>
+        <v>0.85750000000000004</v>
       </c>
       <c r="U50" s="171"/>
       <c r="V50" s="172">
-        <v>0.77750000000000008</v>
+        <v>0.85750000000000004</v>
       </c>
       <c r="W50" s="171"/>
       <c r="X50" s="231">
-        <v>0.77750000000000008</v>
+        <v>0.85750000000000004</v>
       </c>
       <c r="Y50" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>1.675000000000002E-3</v>
+        <v>8.0000000000000036E-4</v>
       </c>
       <c r="Z50" s="140"/>
     </row>
@@ -48199,10 +48199,10 @@
         <v>JPY20YOIS=ICAP</v>
       </c>
       <c r="P51" s="169">
-        <v>0.9900000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="Q51" s="169">
-        <v>1.0900000000000001</v>
+        <v>1.175</v>
       </c>
       <c r="R51" s="169">
         <v>0</v>
@@ -48212,19 +48212,19 @@
       </c>
       <c r="T51" s="173">
         <f>_xll.qlMidEquivalent($P51,$Q51,$R51,$S51)</f>
-        <v>1.04</v>
+        <v>1.125</v>
       </c>
       <c r="U51" s="171"/>
       <c r="V51" s="172">
-        <v>1.04</v>
+        <v>1.125</v>
       </c>
       <c r="W51" s="171"/>
       <c r="X51" s="231">
-        <v>1.04</v>
+        <v>1.125</v>
       </c>
       <c r="Y51" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>1.6499999999999987E-3</v>
+        <v>8.5000000000000006E-4</v>
       </c>
       <c r="Z51" s="140"/>
     </row>
@@ -48266,10 +48266,10 @@
         <v>JPY25YOIS=ICAP</v>
       </c>
       <c r="P52" s="169">
-        <v>1.135</v>
+        <v>1.2225000000000001</v>
       </c>
       <c r="Q52" s="169">
-        <v>1.2350000000000001</v>
+        <v>1.3225</v>
       </c>
       <c r="R52" s="169">
         <v>0</v>
@@ -48279,19 +48279,19 @@
       </c>
       <c r="T52" s="173">
         <f>_xll.qlMidEquivalent($P52,$Q52,$R52,$S52)</f>
-        <v>1.1850000000000001</v>
+        <v>1.2725</v>
       </c>
       <c r="U52" s="171"/>
       <c r="V52" s="172">
-        <v>1.1850000000000001</v>
+        <v>1.2725</v>
       </c>
       <c r="W52" s="171"/>
       <c r="X52" s="231">
-        <v>1.1850000000000001</v>
+        <v>1.2725</v>
       </c>
       <c r="Y52" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
-        <v>1.7000000000000001E-3</v>
+        <v>8.7499999999999904E-4</v>
       </c>
       <c r="Z52" s="140"/>
     </row>
@@ -48400,10 +48400,10 @@
         <v>JPY30YOIS=ICAP</v>
       </c>
       <c r="P54" s="169">
-        <v>1.2125000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Q54" s="169">
-        <v>1.3125</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="R54" s="169">
         <v>0</v>
@@ -48413,19 +48413,19 @@
       </c>
       <c r="T54" s="173">
         <f>_xll.qlMidEquivalent($P54,$Q54,$R54,$S54)</f>
-        <v>1.2625000000000002</v>
+        <v>1.35</v>
       </c>
       <c r="U54" s="171"/>
       <c r="V54" s="172">
-        <v>1.2625000000000002</v>
+        <v>1.35</v>
       </c>
       <c r="W54" s="171"/>
       <c r="X54" s="231">
-        <v>1.2625000000000002</v>
+        <v>1.35</v>
       </c>
       <c r="Y54" s="168">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
-        <v>1.7000000000000019E-3</v>
+        <v>8.7499999999999904E-4</v>
       </c>
       <c r="Z54" s="140"/>
     </row>
@@ -48769,7 +48769,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -48914,7 +48914,7 @@
       <c r="M4" s="120"/>
       <c r="N4" s="166" t="str">
         <f>_xll.RData(N5:N36,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 17:22:03</v>
+        <v>Updated at 14:27:58</v>
       </c>
       <c r="O4" s="220" t="s">
         <v>178</v>
@@ -48988,10 +48988,10 @@
         <v>JPY1X4F=ICAP</v>
       </c>
       <c r="O5" s="213">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="P5" s="213">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="Q5" s="212">
         <v>0</v>
@@ -49001,20 +49001,20 @@
       </c>
       <c r="S5" s="173">
         <f>_xll.qlMidSafe($O5,$P5)</f>
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="T5" s="171"/>
       <c r="U5" s="215">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="V5" s="171"/>
       <c r="W5" s="238">
         <f t="array" ref="W5:W36">QuoteLive</f>
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="X5" s="187">
         <f>_xll.qlSimpleQuoteSetValue(E5,W5/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.0000000000000023E-5</v>
       </c>
       <c r="Y5" s="140"/>
       <c r="Z5" s="4"/>
@@ -49061,10 +49061,10 @@
         <v>JPY2X5F=ICAP</v>
       </c>
       <c r="O6" s="213">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="P6" s="213">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="Q6" s="212">
         <v>0</v>
@@ -49074,19 +49074,19 @@
       </c>
       <c r="S6" s="173">
         <f>_xll.qlMidSafe($O6,$P6)</f>
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="T6" s="171"/>
       <c r="U6" s="211">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="V6" s="171"/>
       <c r="W6" s="231">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="X6" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E6,W6/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.0000000000000023E-5</v>
       </c>
       <c r="Y6" s="140"/>
       <c r="Z6" s="4"/>
@@ -49133,10 +49133,10 @@
         <v>JPY3X6F=ICAP</v>
       </c>
       <c r="O7" s="213">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="P7" s="213">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="Q7" s="212">
         <v>0</v>
@@ -49146,19 +49146,19 @@
       </c>
       <c r="S7" s="173">
         <f>_xll.qlMidSafe($O7,$P7)</f>
-        <v>0.10500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="T7" s="171"/>
       <c r="U7" s="211">
-        <v>0.10500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="V7" s="171"/>
       <c r="W7" s="231">
-        <v>0.10500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="X7" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E7,W7/100,Trigger)</f>
-        <v>5.0000000000000131E-5</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Y7" s="140"/>
       <c r="Z7" s="4"/>
@@ -49205,10 +49205,10 @@
         <v>JPY4X7F=ICAP</v>
       </c>
       <c r="O8" s="213">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="P8" s="213">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="Q8" s="212">
         <v>0</v>
@@ -49218,19 +49218,19 @@
       </c>
       <c r="S8" s="173">
         <f>_xll.qlMidSafe($O8,$P8)</f>
-        <v>0.10500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="T8" s="171"/>
       <c r="U8" s="211">
-        <v>0.10500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="V8" s="171"/>
       <c r="W8" s="231">
-        <v>0.10500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="X8" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E8,W8/100,Trigger)</f>
-        <v>2.1684043449710089E-19</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Y8" s="140"/>
       <c r="Z8" s="4"/>
@@ -49277,10 +49277,10 @@
         <v>JPY5X8F=ICAP</v>
       </c>
       <c r="O9" s="213">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="P9" s="213">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Q9" s="212">
         <v>0</v>
@@ -49290,19 +49290,19 @@
       </c>
       <c r="S9" s="173">
         <f>_xll.qlMidSafe($O9,$P9)</f>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="T9" s="171"/>
       <c r="U9" s="211">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="V9" s="171"/>
       <c r="W9" s="231">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="X9" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>5.0000000000000131E-5</v>
+        <v>-1.0000000000000005E-4</v>
       </c>
       <c r="Y9" s="140"/>
       <c r="Z9" s="4"/>
@@ -49349,10 +49349,10 @@
         <v>JPY6X9F=ICAP</v>
       </c>
       <c r="O10" s="213">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="P10" s="213">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="Q10" s="212">
         <v>0</v>
@@ -49362,19 +49362,19 @@
       </c>
       <c r="S10" s="173">
         <f>_xll.qlMidSafe($O10,$P10)</f>
-        <v>0.11</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="T10" s="171"/>
       <c r="U10" s="211">
-        <v>0.11</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="V10" s="171"/>
       <c r="W10" s="231">
-        <v>0.11</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="X10" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999999914E-5</v>
       </c>
       <c r="Y10" s="140"/>
       <c r="Z10" s="4"/>
@@ -49421,10 +49421,10 @@
         <v>JPY9X12F=ICAP</v>
       </c>
       <c r="O11" s="213">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="P11" s="213">
-        <v>0.125</v>
+        <v>0.115</v>
       </c>
       <c r="Q11" s="212">
         <v>0</v>
@@ -49434,19 +49434,19 @@
       </c>
       <c r="S11" s="173">
         <f>_xll.qlMidSafe($O11,$P11)</f>
-        <v>0.11499999999999999</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="T11" s="171"/>
       <c r="U11" s="211">
-        <v>0.11499999999999999</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="V11" s="171"/>
       <c r="W11" s="231">
-        <v>0.11499999999999999</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="X11" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E11,W11/100,Trigger)</f>
-        <v>4.9999999999999914E-5</v>
+        <v>-9.9999999999999829E-5</v>
       </c>
       <c r="Y11" s="140"/>
       <c r="Z11" s="4"/>
@@ -49493,10 +49493,10 @@
         <v>JPY12X15F=ICAP</v>
       </c>
       <c r="O12" s="213">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="P12" s="213">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="Q12" s="212">
         <v>0</v>
@@ -49506,19 +49506,19 @@
       </c>
       <c r="S12" s="173">
         <f>_xll.qlMidSafe($O12,$P12)</f>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="T12" s="171"/>
       <c r="U12" s="211">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="V12" s="171"/>
       <c r="W12" s="231">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="X12" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E12,W12/100,Trigger)</f>
-        <v>1.9999999999999987E-4</v>
+        <v>-9.9999999999999829E-5</v>
       </c>
       <c r="Y12" s="140"/>
       <c r="Z12" s="4"/>
@@ -49565,10 +49565,10 @@
         <v>JPY15X18F=ICAP</v>
       </c>
       <c r="O13" s="213">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="P13" s="213">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Q13" s="212">
         <v>0</v>
@@ -49578,19 +49578,19 @@
       </c>
       <c r="S13" s="173">
         <f>_xll.qlMidSafe($O13,$P13)</f>
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="T13" s="171"/>
       <c r="U13" s="211">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="V13" s="171"/>
       <c r="W13" s="231">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="X13" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E13,W13/100,Trigger)</f>
-        <v>1.4999999999999996E-4</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Y13" s="140"/>
       <c r="Z13" s="4"/>
@@ -49637,10 +49637,10 @@
         <v>JPY18X21F=ICAP</v>
       </c>
       <c r="O14" s="213">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="P14" s="213">
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="Q14" s="212">
         <v>0</v>
@@ -49650,19 +49650,19 @@
       </c>
       <c r="S14" s="173">
         <f>_xll.qlMidSafe($O14,$P14)</f>
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="T14" s="171"/>
       <c r="U14" s="211">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="V14" s="171"/>
       <c r="W14" s="231">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="X14" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E14,W14/100,Trigger)</f>
-        <v>4.0000000000000018E-4</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Y14" s="140"/>
       <c r="Z14" s="4"/>
@@ -49709,10 +49709,10 @@
         <v>JPY21X24F=ICAP</v>
       </c>
       <c r="O15" s="213">
-        <v>0.155</v>
+        <v>0.13</v>
       </c>
       <c r="P15" s="213">
-        <v>0.17500000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="Q15" s="212">
         <v>0</v>
@@ -49722,19 +49722,19 @@
       </c>
       <c r="S15" s="173">
         <f>_xll.qlMidSafe($O15,$P15)</f>
-        <v>0.16500000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T15" s="171"/>
       <c r="U15" s="211">
-        <v>0.16500000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V15" s="171"/>
       <c r="W15" s="231">
-        <v>0.16500000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="X15" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E15,W15/100,Trigger)</f>
-        <v>7.5000000000000002E-4</v>
+        <v>-2.4999999999999979E-4</v>
       </c>
       <c r="Y15" s="140"/>
       <c r="Z15" s="4"/>
@@ -49807,7 +49807,7 @@
       </c>
       <c r="X16" s="187">
         <f>_xll.qlSimpleQuoteSetValue(E16,W16/100,Trigger)</f>
-        <v>-1.0000000000000005E-4</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="140"/>
       <c r="Z16" s="4"/>
@@ -49880,7 +49880,7 @@
       </c>
       <c r="X17" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E17,W17/100,Trigger)</f>
-        <v>-1.0000000000000005E-4</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="140"/>
       <c r="Z17" s="4"/>
@@ -49928,10 +49928,10 @@
         <v>JPY3X9F=ICAP</v>
       </c>
       <c r="O18" s="213">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="P18" s="213">
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="Q18" s="212">
         <v>0</v>
@@ -49941,19 +49941,19 @@
       </c>
       <c r="S18" s="173">
         <f>_xll.qlMidSafe($O18,$P18)</f>
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="T18" s="171"/>
       <c r="U18" s="211">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="V18" s="171"/>
       <c r="W18" s="231">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="X18" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E18,W18/100,Trigger)</f>
-        <v>-4.9999999999999914E-5</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Y18" s="140"/>
       <c r="Z18" s="4"/>
@@ -50001,10 +50001,10 @@
         <v>JPY4X10F=ICAP</v>
       </c>
       <c r="O19" s="213">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="P19" s="213">
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="Q19" s="212">
         <v>0</v>
@@ -50014,19 +50014,19 @@
       </c>
       <c r="S19" s="173">
         <f>_xll.qlMidSafe($O19,$P19)</f>
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="T19" s="171"/>
       <c r="U19" s="211">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="V19" s="171"/>
       <c r="W19" s="231">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="X19" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E19,W19/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Y19" s="140"/>
       <c r="Z19" s="4"/>
@@ -50074,10 +50074,10 @@
         <v>JPY5X11F=ICAP</v>
       </c>
       <c r="O20" s="213">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="P20" s="213">
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="Q20" s="212">
         <v>0</v>
@@ -50087,19 +50087,19 @@
       </c>
       <c r="S20" s="173">
         <f>_xll.qlMidSafe($O20,$P20)</f>
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="T20" s="171"/>
       <c r="U20" s="211">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="V20" s="171"/>
       <c r="W20" s="231">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="X20" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E20,W20/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Y20" s="140"/>
       <c r="Z20" s="4"/>
@@ -50147,10 +50147,10 @@
         <v>JPY6X12F=ICAP</v>
       </c>
       <c r="O21" s="213">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="P21" s="213">
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="Q21" s="212">
         <v>0</v>
@@ -50160,19 +50160,19 @@
       </c>
       <c r="S21" s="173">
         <f>_xll.qlMidSafe($O21,$P21)</f>
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="T21" s="171"/>
       <c r="U21" s="211">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="V21" s="171"/>
       <c r="W21" s="231">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="X21" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E21,W21/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Y21" s="140"/>
       <c r="Z21" s="4"/>
@@ -50318,7 +50318,7 @@
       </c>
       <c r="X23" s="168">
         <f>_xll.qlSimpleQuoteSetValue(E23,W23/100,Trigger)</f>
-        <v>1.5000000000000018E-4</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="140"/>
       <c r="Z23" s="4"/>
@@ -50367,10 +50367,10 @@
         <v>JPY18X24F=ICAP</v>
       </c>
       <c r="O24" s="209">
+        <v>0.15</v>
+      </c>
+      <c r="P24" s="209">
         <v>0.17</v>
-      </c>
-      <c r="P24" s="209">
-        <v>0.19</v>
       </c>
       <c r="Q24" s="208">
         <v>0</v>
@@ -50380,19 +50380,19 @@
       </c>
       <c r="S24" s="184">
         <f>_xll.qlMidSafe($O24,$P24)</f>
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="T24" s="171"/>
       <c r="U24" s="207">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="V24" s="171"/>
       <c r="W24" s="224">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="X24" s="181">
         <f>_xll.qlSimpleQuoteSetValue(E24,W24/100,Trigger)</f>
-        <v>5.0000000000000001E-4</v>
+        <v>-1.9999999999999987E-4</v>
       </c>
       <c r="Y24" s="140"/>
       <c r="Z24" s="4"/>

--- a/QuantLibXL/Data2/XLS/JPY/JPY_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY/JPY_Market.xlsx
@@ -2228,84 +2228,86 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 10:07:56</v>
+        <v>You do not have permission to view these RICs: JPY1MFSR=</v>
         <stp/>
-        <stp>{6741F832-94C2-432A-B76C-83ADDB9E6BB6}_x0000_</stp>
+        <stp>{30190B18-5A85-4D51-8553-1BD07F7BF8F0}_x0000_</stp>
+        <tr r="H17" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>You do not have permission to view these RICs: JPY3MFSR=</v>
+        <stp/>
+        <stp>{30F29735-720D-43E2-802D-F8852D8651B6}_x0000_</stp>
         <tr r="H22" s="6"/>
       </tp>
       <tp t="s">
-        <v>Updated at 10:07:56</v>
+        <v>You do not have permission to view these RICs: JPY6MFSR=</v>
         <stp/>
-        <stp>{E96B1262-ED03-4199-8BF9-B88EF9099A63}_x0000_</stp>
-        <tr r="H17" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:07:56</v>
-        <stp/>
-        <stp>{865583BB-FA6B-4D96-9C91-DF6E4679EA1A}_x0000_</stp>
+        <stp>{43386D51-9CB5-4174-BEC8-1BE065804E63}_x0000_</stp>
         <tr r="K17" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:07:56</v>
-        <stp/>
-        <stp>{9F5C2E35-9258-44AE-AF9A-B3B4D1A4BE46}_x0000_</stp>
-        <tr r="K22" s="6"/>
       </tp>
     </main>
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 10:07:56</v>
+        <v>Updated at 09:33:12</v>
         <stp/>
-        <stp>{BD6650EF-3BD3-46DF-922E-61CEE237BC3A}</stp>
+        <stp>{231F47CC-C612-4C9A-97E8-CD2844ABF59C}</stp>
+        <tr r="N5" s="64"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:33:12</v>
+        <stp/>
+        <stp>{E5BDFEEA-3CF0-406C-AE26-329CC170BCBB}</stp>
+        <tr r="R4" s="66"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:33:12</v>
+        <stp/>
+        <stp>{2A69F709-3806-47DA-A42E-84EC129D9485}</stp>
+        <tr r="O4" s="26"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:33:12</v>
+        <stp/>
+        <stp>{719D1527-0BA3-4830-9125-D7F5379FEB80}</stp>
+        <tr r="H3" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:33:12</v>
+        <stp/>
+        <stp>{8E662EEE-094C-47BB-9088-FDA3B4F5FB2E}</stp>
+        <tr r="O4" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:43:16</v>
+        <stp/>
+        <stp>{AEEA04C3-5005-49A1-BAE7-188D85AE1365}</stp>
+        <tr r="O4" s="65"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:33:12</v>
+        <stp/>
+        <stp>{5E88652D-6444-4925-B38E-CC376EABDDDD}</stp>
+        <tr r="L4" s="20"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:33:12</v>
+        <stp/>
+        <stp>{1857B1FA-8693-49B2-9978-0542DC59D060}</stp>
         <tr r="O4" s="12"/>
       </tp>
       <tp t="s">
-        <v>Updated at 10:07:56</v>
+        <v>Updated at 09:36:15</v>
         <stp/>
-        <stp>{D125A965-CC3E-4CF1-A607-7D6BC42606F5}</stp>
-        <tr r="L4" s="20"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:07:56</v>
-        <stp/>
-        <stp>{809754E7-BE51-4AFD-A3CA-2EA0DE62F145}</stp>
-        <tr r="O4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:45:22</v>
-        <stp/>
-        <stp>{1D9A4334-2BCD-462E-9BA4-8E27B280652E}</stp>
-        <tr r="H3" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:07:56</v>
-        <stp/>
-        <stp>{12344C55-22F4-4F68-9EA6-2120D9A11231}</stp>
-        <tr r="N5" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:52:58</v>
-        <stp/>
-        <stp>{312A75B9-9876-4A0A-BBFE-30DBB9C0D2EA}</stp>
+        <stp>{E28A5C39-B445-49FA-A5AA-4DDF58EE3043}</stp>
         <tr r="O4" s="16"/>
       </tp>
+    </main>
+    <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 14:49:40</v>
+        <v>You do not have permission to view these RICs: JPY1YFSR=</v>
         <stp/>
-        <stp>{C062C607-2B46-4695-A2CD-FE89D12919FB}</stp>
-        <tr r="O4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 13:10:26</v>
-        <stp/>
-        <stp>{75C93AC8-C83D-46E7-97F0-9BF51F72F62E}</stp>
-        <tr r="R4" s="66"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:33:32</v>
-        <stp/>
-        <stp>{DDAFBC3D-4C02-4571-83EF-3F63442BF785}</stp>
-        <tr r="O4" s="65"/>
+        <stp>{22FB05FC-D7E2-4E13-9EB6-7CCA81BC5DFA}_x0000_</stp>
+        <tr r="K22" s="6"/>
       </tp>
     </main>
   </volType>
@@ -2669,7 +2671,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="344">
-        <v>42277.422013888892</v>
+        <v>42278.397928240738</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="40"/>
@@ -2691,7 +2693,7 @@
       </c>
       <c r="D5" s="80">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="40"/>
@@ -2726,7 +2728,7 @@
       </c>
       <c r="D7" s="77">
         <f>_xll.ohTrigger(Deposits!Q2,FRA!X2,FuturesHWConvAdj!U2,Swap6M!X2,BasisSwap3M6M!X2,OIS!X2,Futures3M_TIBOR!AB2,Swap3M_TIBOR!X2)</f>
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="40"/>
@@ -2744,7 +2746,7 @@
       </c>
       <c r="D8" s="78">
         <f>_xll.ohTrigger(JPYLibor!L5:L11)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="40"/>
@@ -3885,7 +3887,7 @@
       <c r="W2" s="68"/>
       <c r="X2" s="270">
         <f>_xll.ohTrigger(X5:X41)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="183"/>
     </row>
@@ -3942,7 +3944,7 @@
       <c r="N4" s="170"/>
       <c r="O4" s="326" t="str">
         <f>_xll.RData(O5:O41,P4:Q4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 10:07:56</v>
+        <v>Updated at 09:33:12</v>
       </c>
       <c r="P4" s="170" t="s">
         <v>136</v>
@@ -3988,7 +3990,7 @@
       </c>
       <c r="F5" s="171" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L1Y_Quote#0002</v>
+        <v>JPY3L6L1Y_Quote#0000</v>
       </c>
       <c r="G5" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -4036,9 +4038,9 @@
         <f t="array" ref="W5:W41">QuoteLive</f>
         <v>3.75</v>
       </c>
-      <c r="X5" s="334" t="e">
+      <c r="X5" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="199"/>
     </row>
@@ -4061,7 +4063,7 @@
       </c>
       <c r="F6" s="171" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L15M_Quote#0002</v>
+        <v>JPY3L6L15M_Quote#0000</v>
       </c>
       <c r="G6" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -4133,7 +4135,7 @@
       </c>
       <c r="F7" s="171" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L18M_Quote#0002</v>
+        <v>JPY3L6L18M_Quote#0000</v>
       </c>
       <c r="G7" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4205,7 +4207,7 @@
       </c>
       <c r="F8" s="171" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L21M_Quote#0002</v>
+        <v>JPY3L6L21M_Quote#0000</v>
       </c>
       <c r="G8" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4277,7 +4279,7 @@
       </c>
       <c r="F9" s="171" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L2Y_Quote#0002</v>
+        <v>JPY3L6L2Y_Quote#0000</v>
       </c>
       <c r="G9" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4324,9 +4326,9 @@
       <c r="W9" s="333">
         <v>3.5</v>
       </c>
-      <c r="X9" s="334" t="e">
+      <c r="X9" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F9,W9/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="199"/>
     </row>
@@ -4349,7 +4351,7 @@
       </c>
       <c r="F10" s="171" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L3Y_Quote#0002</v>
+        <v>JPY3L6L3Y_Quote#0000</v>
       </c>
       <c r="G10" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4396,9 +4398,9 @@
       <c r="W10" s="333">
         <v>3.5</v>
       </c>
-      <c r="X10" s="334" t="e">
+      <c r="X10" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="199"/>
     </row>
@@ -4421,7 +4423,7 @@
       </c>
       <c r="F11" s="171" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L4Y_Quote#0002</v>
+        <v>JPY3L6L4Y_Quote#0000</v>
       </c>
       <c r="G11" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4468,9 +4470,9 @@
       <c r="W11" s="333">
         <v>3.5</v>
       </c>
-      <c r="X11" s="334" t="e">
+      <c r="X11" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="199"/>
     </row>
@@ -4493,7 +4495,7 @@
       </c>
       <c r="F12" s="171" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L5Y_Quote#0002</v>
+        <v>JPY3L6L5Y_Quote#0000</v>
       </c>
       <c r="G12" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4540,9 +4542,9 @@
       <c r="W12" s="333">
         <v>3.75</v>
       </c>
-      <c r="X12" s="334" t="e">
+      <c r="X12" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="199"/>
     </row>
@@ -4565,7 +4567,7 @@
       </c>
       <c r="F13" s="171" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L6Y_Quote#0002</v>
+        <v>JPY3L6L6Y_Quote#0000</v>
       </c>
       <c r="G13" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4612,9 +4614,9 @@
       <c r="W13" s="333">
         <v>3.75</v>
       </c>
-      <c r="X13" s="334" t="e">
+      <c r="X13" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="199"/>
     </row>
@@ -4637,7 +4639,7 @@
       </c>
       <c r="F14" s="171" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L7Y_Quote#0002</v>
+        <v>JPY3L6L7Y_Quote#0000</v>
       </c>
       <c r="G14" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4684,9 +4686,9 @@
       <c r="W14" s="333">
         <v>4</v>
       </c>
-      <c r="X14" s="334" t="e">
+      <c r="X14" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="199"/>
     </row>
@@ -4709,7 +4711,7 @@
       </c>
       <c r="F15" s="171" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L8Y_Quote#0002</v>
+        <v>JPY3L6L8Y_Quote#0000</v>
       </c>
       <c r="G15" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4756,9 +4758,9 @@
       <c r="W15" s="333">
         <v>4.25</v>
       </c>
-      <c r="X15" s="334" t="e">
+      <c r="X15" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="199"/>
     </row>
@@ -4781,7 +4783,7 @@
       </c>
       <c r="F16" s="171" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L9Y_Quote#0002</v>
+        <v>JPY3L6L9Y_Quote#0000</v>
       </c>
       <c r="G16" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -4828,9 +4830,9 @@
       <c r="W16" s="333">
         <v>4.5</v>
       </c>
-      <c r="X16" s="334" t="e">
+      <c r="X16" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="199"/>
     </row>
@@ -4853,7 +4855,7 @@
       </c>
       <c r="F17" s="171" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L10Y_Quote#0002</v>
+        <v>JPY3L6L10Y_Quote#0000</v>
       </c>
       <c r="G17" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -4900,9 +4902,9 @@
       <c r="W17" s="333">
         <v>4.75</v>
       </c>
-      <c r="X17" s="334" t="e">
+      <c r="X17" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="199"/>
     </row>
@@ -4925,7 +4927,7 @@
       </c>
       <c r="F18" s="171" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L11Y_Quote#0002</v>
+        <v>JPY3L6L11Y_Quote#0000</v>
       </c>
       <c r="G18" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -4997,7 +4999,7 @@
       </c>
       <c r="F19" s="171" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L12Y_Quote#0002</v>
+        <v>JPY3L6L12Y_Quote#0000</v>
       </c>
       <c r="G19" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -5069,7 +5071,7 @@
       </c>
       <c r="F20" s="171" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L13Y_Quote#0002</v>
+        <v>JPY3L6L13Y_Quote#0000</v>
       </c>
       <c r="G20" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -5141,7 +5143,7 @@
       </c>
       <c r="F21" s="171" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L14Y_Quote#0002</v>
+        <v>JPY3L6L14Y_Quote#0000</v>
       </c>
       <c r="G21" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -5213,7 +5215,7 @@
       </c>
       <c r="F22" s="171" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L15Y_Quote#0002</v>
+        <v>JPY3L6L15Y_Quote#0000</v>
       </c>
       <c r="G22" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -5260,9 +5262,9 @@
       <c r="W22" s="333">
         <v>4.5</v>
       </c>
-      <c r="X22" s="334" t="e">
+      <c r="X22" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F22,W22/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="199"/>
     </row>
@@ -5285,7 +5287,7 @@
       </c>
       <c r="F23" s="171" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L16Y_Quote#0002</v>
+        <v>JPY3L6L16Y_Quote#0000</v>
       </c>
       <c r="G23" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -5357,7 +5359,7 @@
       </c>
       <c r="F24" s="171" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L17Y_Quote#0002</v>
+        <v>JPY3L6L17Y_Quote#0000</v>
       </c>
       <c r="G24" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -5429,7 +5431,7 @@
       </c>
       <c r="F25" s="171" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L18Y_Quote#0002</v>
+        <v>JPY3L6L18Y_Quote#0000</v>
       </c>
       <c r="G25" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -5501,7 +5503,7 @@
       </c>
       <c r="F26" s="171" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L19Y_Quote#0002</v>
+        <v>JPY3L6L19Y_Quote#0000</v>
       </c>
       <c r="G26" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -5573,7 +5575,7 @@
       </c>
       <c r="F27" s="171" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L20Y_Quote#0002</v>
+        <v>JPY3L6L20Y_Quote#0000</v>
       </c>
       <c r="G27" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -5620,9 +5622,9 @@
       <c r="W27" s="333">
         <v>4</v>
       </c>
-      <c r="X27" s="334" t="e">
+      <c r="X27" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F27,W27/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="199"/>
     </row>
@@ -5645,7 +5647,7 @@
       </c>
       <c r="F28" s="171" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L21Y_Quote#0002</v>
+        <v>JPY3L6L21Y_Quote#0000</v>
       </c>
       <c r="G28" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -5717,7 +5719,7 @@
       </c>
       <c r="F29" s="171" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L22Y_Quote#0002</v>
+        <v>JPY3L6L22Y_Quote#0000</v>
       </c>
       <c r="G29" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -5789,7 +5791,7 @@
       </c>
       <c r="F30" s="171" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L23Y_Quote#0002</v>
+        <v>JPY3L6L23Y_Quote#0000</v>
       </c>
       <c r="G30" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -5861,7 +5863,7 @@
       </c>
       <c r="F31" s="171" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L24Y_Quote#0002</v>
+        <v>JPY3L6L24Y_Quote#0000</v>
       </c>
       <c r="G31" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -5933,7 +5935,7 @@
       </c>
       <c r="F32" s="171" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L25Y_Quote#0002</v>
+        <v>JPY3L6L25Y_Quote#0000</v>
       </c>
       <c r="G32" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -6005,7 +6007,7 @@
       </c>
       <c r="F33" s="171" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L26Y_Quote#0002</v>
+        <v>JPY3L6L26Y_Quote#0000</v>
       </c>
       <c r="G33" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -6077,7 +6079,7 @@
       </c>
       <c r="F34" s="171" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L27Y_Quote#0002</v>
+        <v>JPY3L6L27Y_Quote#0000</v>
       </c>
       <c r="G34" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -6149,7 +6151,7 @@
       </c>
       <c r="F35" s="171" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L28Y_Quote#0002</v>
+        <v>JPY3L6L28Y_Quote#0000</v>
       </c>
       <c r="G35" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -6221,7 +6223,7 @@
       </c>
       <c r="F36" s="171" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L29Y_Quote#0002</v>
+        <v>JPY3L6L29Y_Quote#0000</v>
       </c>
       <c r="G36" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -6293,7 +6295,7 @@
       </c>
       <c r="F37" s="171" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L30Y_Quote#0002</v>
+        <v>JPY3L6L30Y_Quote#0000</v>
       </c>
       <c r="G37" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -6340,9 +6342,9 @@
       <c r="W37" s="333">
         <v>3.25</v>
       </c>
-      <c r="X37" s="334" t="e">
+      <c r="X37" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F37,W37/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="199"/>
     </row>
@@ -6365,7 +6367,7 @@
       </c>
       <c r="F38" s="171" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L35Y_Quote#0002</v>
+        <v>JPY3L6L35Y_Quote#0000</v>
       </c>
       <c r="G38" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -6437,7 +6439,7 @@
       </c>
       <c r="F39" s="171" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L40Y_Quote#0002</v>
+        <v>JPY3L6L40Y_Quote#0000</v>
       </c>
       <c r="G39" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -6509,7 +6511,7 @@
       </c>
       <c r="F40" s="194" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L50Y_Quote#0002</v>
+        <v>JPY3L6L50Y_Quote#0000</v>
       </c>
       <c r="G40" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -6581,7 +6583,7 @@
       </c>
       <c r="F41" s="197" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3L6L60Y_Quote#0002</v>
+        <v>JPY3L6L60Y_Quote#0000</v>
       </c>
       <c r="G41" s="335" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -6770,7 +6772,7 @@
       <c r="W2" s="68"/>
       <c r="X2" s="270">
         <f>_xll.ohTrigger(X5:X41)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="183"/>
     </row>
@@ -6827,7 +6829,7 @@
       <c r="N4" s="170"/>
       <c r="O4" s="326" t="str">
         <f>_xll.RData(O5:O41,P4:Q4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 11:33:32</v>
+        <v>Updated at 09:43:16</v>
       </c>
       <c r="P4" s="170" t="s">
         <v>136</v>
@@ -6871,7 +6873,7 @@
       </c>
       <c r="F5" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T1Y_Quote#0002</v>
+        <v>JPYSB3T1Y_Quote#0000</v>
       </c>
       <c r="G5" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -6897,18 +6899,18 @@
         <v>JPYSB3T1Y=SMKR</v>
       </c>
       <c r="P5" s="342">
-        <v>0.1275</v>
+        <v>0.12375</v>
       </c>
       <c r="Q5" s="342">
-        <v>0.16750000000000001</v>
+        <v>0.16375000000000001</v>
       </c>
       <c r="R5" s="331">
         <f>IF($R$2,IF(ISNUMBER(P5),P5,#NUM!),IFERROR(AVERAGE(P5:Q5),#NUM!))</f>
-        <v>0.14750000000000002</v>
+        <v>0.14374999999999999</v>
       </c>
       <c r="S5" s="331">
         <f>(R5-P5)*2</f>
-        <v>4.0000000000000036E-2</v>
+        <v>3.999999999999998E-2</v>
       </c>
       <c r="T5" s="63"/>
       <c r="U5" s="332">
@@ -6917,11 +6919,11 @@
       <c r="V5" s="68"/>
       <c r="W5" s="333">
         <f t="array" ref="W5:W41">QuoteLive</f>
-        <v>0.14750000000000002</v>
-      </c>
-      <c r="X5" s="334" t="e">
+        <v>0.14374999999999999</v>
+      </c>
+      <c r="X5" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="199"/>
     </row>
@@ -6942,7 +6944,7 @@
       </c>
       <c r="F6" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T15M_Quote#0002</v>
+        <v>JPYSB3T15M_Quote#0000</v>
       </c>
       <c r="G6" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -7012,7 +7014,7 @@
       </c>
       <c r="F7" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T18M_Quote#0002</v>
+        <v>JPYSB3T18M_Quote#0000</v>
       </c>
       <c r="G7" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -7038,14 +7040,14 @@
         <v>JPYSB3T18M=SMKR</v>
       </c>
       <c r="P7" s="342">
-        <v>0.11874999999999999</v>
+        <v>0.11374999999999999</v>
       </c>
       <c r="Q7" s="342">
-        <v>0.15875</v>
+        <v>0.15375</v>
       </c>
       <c r="R7" s="331">
         <f t="shared" si="3"/>
-        <v>0.13874999999999998</v>
+        <v>0.13374999999999998</v>
       </c>
       <c r="S7" s="331">
         <f t="shared" si="4"/>
@@ -7057,11 +7059,11 @@
       </c>
       <c r="V7" s="68"/>
       <c r="W7" s="333">
-        <v>0.13874999999999998</v>
-      </c>
-      <c r="X7" s="334" t="e">
+        <v>0.13374999999999998</v>
+      </c>
+      <c r="X7" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F7,W7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="199"/>
     </row>
@@ -7082,7 +7084,7 @@
       </c>
       <c r="F8" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T21M_Quote#0002</v>
+        <v>JPYSB3T21M_Quote#0000</v>
       </c>
       <c r="G8" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -7152,7 +7154,7 @@
       </c>
       <c r="F9" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T2Y_Quote#0002</v>
+        <v>JPYSB3T2Y_Quote#0000</v>
       </c>
       <c r="G9" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -7178,18 +7180,18 @@
         <v>JPYSB3T2Y=SMKR</v>
       </c>
       <c r="P9" s="342">
-        <v>0.11499999999999999</v>
+        <v>0.10874999999999999</v>
       </c>
       <c r="Q9" s="342">
-        <v>0.155</v>
+        <v>0.14874999999999999</v>
       </c>
       <c r="R9" s="331">
         <f t="shared" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.12874999999999998</v>
       </c>
       <c r="S9" s="331">
         <f t="shared" si="4"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.999999999999998E-2</v>
       </c>
       <c r="T9" s="63"/>
       <c r="U9" s="332">
@@ -7197,11 +7199,11 @@
       </c>
       <c r="V9" s="68"/>
       <c r="W9" s="333">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="X9" s="334" t="e">
+        <v>0.12874999999999998</v>
+      </c>
+      <c r="X9" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F9,W9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="199"/>
     </row>
@@ -7222,7 +7224,7 @@
       </c>
       <c r="F10" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T3Y_Quote#0002</v>
+        <v>JPYSB3T3Y_Quote#0000</v>
       </c>
       <c r="G10" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -7248,18 +7250,18 @@
         <v>JPYSB3T3Y=SMKR</v>
       </c>
       <c r="P10" s="342">
-        <v>0.12</v>
+        <v>0.11125</v>
       </c>
       <c r="Q10" s="342">
-        <v>0.16</v>
+        <v>0.15125</v>
       </c>
       <c r="R10" s="331">
         <f t="shared" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.13125000000000001</v>
       </c>
       <c r="S10" s="331">
         <f t="shared" si="4"/>
-        <v>4.0000000000000036E-2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="T10" s="63"/>
       <c r="U10" s="332">
@@ -7267,11 +7269,11 @@
       </c>
       <c r="V10" s="68"/>
       <c r="W10" s="333">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X10" s="334" t="e">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="X10" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="199"/>
     </row>
@@ -7292,7 +7294,7 @@
       </c>
       <c r="F11" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T4Y_Quote#0002</v>
+        <v>JPYSB3T4Y_Quote#0000</v>
       </c>
       <c r="G11" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -7318,18 +7320,18 @@
         <v>JPYSB3T4Y=SMKR</v>
       </c>
       <c r="P11" s="342">
-        <v>0.14624999999999999</v>
+        <v>0.13625000000000001</v>
       </c>
       <c r="Q11" s="342">
-        <v>0.18625</v>
+        <v>0.17624999999999999</v>
       </c>
       <c r="R11" s="331">
         <f t="shared" si="3"/>
-        <v>0.16625000000000001</v>
+        <v>0.15625</v>
       </c>
       <c r="S11" s="331">
         <f t="shared" si="4"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.999999999999998E-2</v>
       </c>
       <c r="T11" s="63"/>
       <c r="U11" s="332">
@@ -7337,11 +7339,11 @@
       </c>
       <c r="V11" s="68"/>
       <c r="W11" s="333">
-        <v>0.16625000000000001</v>
-      </c>
-      <c r="X11" s="334" t="e">
+        <v>0.15625</v>
+      </c>
+      <c r="X11" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="199"/>
     </row>
@@ -7362,7 +7364,7 @@
       </c>
       <c r="F12" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T5Y_Quote#0002</v>
+        <v>JPYSB3T5Y_Quote#0000</v>
       </c>
       <c r="G12" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -7388,14 +7390,14 @@
         <v>JPYSB3T5Y=SMKR</v>
       </c>
       <c r="P12" s="342">
-        <v>0.19624999999999998</v>
+        <v>0.185</v>
       </c>
       <c r="Q12" s="342">
-        <v>0.23624999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="R12" s="331">
         <f t="shared" si="3"/>
-        <v>0.21625</v>
+        <v>0.20500000000000002</v>
       </c>
       <c r="S12" s="331">
         <f t="shared" si="4"/>
@@ -7407,11 +7409,11 @@
       </c>
       <c r="V12" s="68"/>
       <c r="W12" s="333">
-        <v>0.21625</v>
-      </c>
-      <c r="X12" s="334" t="e">
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="X12" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="199"/>
     </row>
@@ -7432,7 +7434,7 @@
       </c>
       <c r="F13" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T6Y_Quote#0002</v>
+        <v>JPYSB3T6Y_Quote#0000</v>
       </c>
       <c r="G13" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -7458,14 +7460,14 @@
         <v>JPYSB3T6Y=SMKR</v>
       </c>
       <c r="P13" s="342">
-        <v>0.26</v>
+        <v>0.24874999999999997</v>
       </c>
       <c r="Q13" s="342">
-        <v>0.3</v>
+        <v>0.28875000000000001</v>
       </c>
       <c r="R13" s="331">
         <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="S13" s="331">
         <f t="shared" si="4"/>
@@ -7477,11 +7479,11 @@
       </c>
       <c r="V13" s="68"/>
       <c r="W13" s="333">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="X13" s="334" t="e">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="X13" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="199"/>
     </row>
@@ -7502,7 +7504,7 @@
       </c>
       <c r="F14" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T7Y_Quote#0002</v>
+        <v>JPYSB3T7Y_Quote#0000</v>
       </c>
       <c r="G14" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -7528,18 +7530,18 @@
         <v>JPYSB3T7Y=SMKR</v>
       </c>
       <c r="P14" s="342">
-        <v>0.33250000000000002</v>
+        <v>0.32124999999999998</v>
       </c>
       <c r="Q14" s="342">
-        <v>0.3725</v>
+        <v>0.36124999999999996</v>
       </c>
       <c r="R14" s="331">
         <f t="shared" si="3"/>
-        <v>0.35250000000000004</v>
+        <v>0.34124999999999994</v>
       </c>
       <c r="S14" s="331">
         <f t="shared" si="4"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.9999999999999925E-2</v>
       </c>
       <c r="T14" s="63"/>
       <c r="U14" s="332">
@@ -7547,11 +7549,11 @@
       </c>
       <c r="V14" s="68"/>
       <c r="W14" s="333">
-        <v>0.35250000000000004</v>
-      </c>
-      <c r="X14" s="334" t="e">
+        <v>0.34124999999999994</v>
+      </c>
+      <c r="X14" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="199"/>
     </row>
@@ -7572,7 +7574,7 @@
       </c>
       <c r="F15" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T8Y_Quote#0002</v>
+        <v>JPYSB3T8Y_Quote#0000</v>
       </c>
       <c r="G15" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -7598,14 +7600,14 @@
         <v>JPYSB3T8Y=SMKR</v>
       </c>
       <c r="P15" s="342">
-        <v>0.40374999999999994</v>
+        <v>0.39249999999999996</v>
       </c>
       <c r="Q15" s="342">
-        <v>0.44374999999999998</v>
+        <v>0.4325</v>
       </c>
       <c r="R15" s="331">
         <f t="shared" si="3"/>
-        <v>0.42374999999999996</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="S15" s="331">
         <f t="shared" si="4"/>
@@ -7617,11 +7619,11 @@
       </c>
       <c r="V15" s="68"/>
       <c r="W15" s="333">
-        <v>0.42374999999999996</v>
-      </c>
-      <c r="X15" s="334" t="e">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="X15" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="199"/>
     </row>
@@ -7642,7 +7644,7 @@
       </c>
       <c r="F16" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T9Y_Quote#0002</v>
+        <v>JPYSB3T9Y_Quote#0000</v>
       </c>
       <c r="G16" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -7668,14 +7670,14 @@
         <v>JPYSB3T9Y=SMKR</v>
       </c>
       <c r="P16" s="342">
-        <v>0.47625000000000001</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="Q16" s="342">
-        <v>0.51624999999999999</v>
+        <v>0.505</v>
       </c>
       <c r="R16" s="331">
         <f t="shared" si="3"/>
-        <v>0.49624999999999997</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="S16" s="331">
         <f t="shared" si="4"/>
@@ -7687,11 +7689,11 @@
       </c>
       <c r="V16" s="68"/>
       <c r="W16" s="333">
-        <v>0.49624999999999997</v>
-      </c>
-      <c r="X16" s="334" t="e">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="X16" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="199"/>
     </row>
@@ -7712,7 +7714,7 @@
       </c>
       <c r="F17" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T10Y_Quote#0002</v>
+        <v>JPYSB3T10Y_Quote#0000</v>
       </c>
       <c r="G17" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -7738,14 +7740,14 @@
         <v>JPYSB3T10Y=SMKR</v>
       </c>
       <c r="P17" s="342">
-        <v>0.55249999999999999</v>
+        <v>0.54125000000000001</v>
       </c>
       <c r="Q17" s="342">
-        <v>0.59250000000000003</v>
+        <v>0.58125000000000004</v>
       </c>
       <c r="R17" s="331">
         <f t="shared" si="3"/>
-        <v>0.57250000000000001</v>
+        <v>0.56125000000000003</v>
       </c>
       <c r="S17" s="331">
         <f t="shared" si="4"/>
@@ -7757,11 +7759,11 @@
       </c>
       <c r="V17" s="68"/>
       <c r="W17" s="333">
-        <v>0.57250000000000001</v>
-      </c>
-      <c r="X17" s="334" t="e">
+        <v>0.56125000000000003</v>
+      </c>
+      <c r="X17" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.2499999999999491E-5</v>
       </c>
       <c r="Y17" s="199"/>
     </row>
@@ -7782,7 +7784,7 @@
       </c>
       <c r="F18" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T11Y_Quote#0002</v>
+        <v>JPYSB3T11Y_Quote#0000</v>
       </c>
       <c r="G18" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -7808,14 +7810,14 @@
         <v>JPYSB3T11Y=SMKR</v>
       </c>
       <c r="P18" s="342">
-        <v>0.62624999999999997</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="Q18" s="342">
-        <v>0.66625000000000001</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="R18" s="331">
         <f t="shared" si="3"/>
-        <v>0.64624999999999999</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="S18" s="331">
         <f t="shared" si="4"/>
@@ -7827,11 +7829,11 @@
       </c>
       <c r="V18" s="68"/>
       <c r="W18" s="333">
-        <v>0.64624999999999999</v>
-      </c>
-      <c r="X18" s="334" t="e">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="X18" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.2499999999999491E-5</v>
       </c>
       <c r="Y18" s="199"/>
     </row>
@@ -7852,7 +7854,7 @@
       </c>
       <c r="F19" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T12Y_Quote#0002</v>
+        <v>JPYSB3T12Y_Quote#0000</v>
       </c>
       <c r="G19" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -7878,18 +7880,18 @@
         <v>JPYSB3T12Y=SMKR</v>
       </c>
       <c r="P19" s="342">
-        <v>0.70250000000000001</v>
+        <v>0.69124999999999992</v>
       </c>
       <c r="Q19" s="342">
-        <v>0.74249999999999994</v>
+        <v>0.73124999999999996</v>
       </c>
       <c r="R19" s="331">
         <f t="shared" si="3"/>
-        <v>0.72249999999999992</v>
+        <v>0.71124999999999994</v>
       </c>
       <c r="S19" s="331">
         <f t="shared" si="4"/>
-        <v>3.9999999999999813E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="T19" s="63"/>
       <c r="U19" s="332">
@@ -7897,11 +7899,11 @@
       </c>
       <c r="V19" s="68"/>
       <c r="W19" s="333">
-        <v>0.72249999999999992</v>
-      </c>
-      <c r="X19" s="334" t="e">
+        <v>0.71124999999999994</v>
+      </c>
+      <c r="X19" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F19,W19/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.2499999999999491E-5</v>
       </c>
       <c r="Y19" s="199"/>
     </row>
@@ -7922,7 +7924,7 @@
       </c>
       <c r="F20" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T13Y_Quote#0002</v>
+        <v>JPYSB3T13Y_Quote#0000</v>
       </c>
       <c r="G20" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -7992,7 +7994,7 @@
       </c>
       <c r="F21" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T14Y_Quote#0002</v>
+        <v>JPYSB3T14Y_Quote#0000</v>
       </c>
       <c r="G21" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -8062,7 +8064,7 @@
       </c>
       <c r="F22" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T15Y_Quote#0002</v>
+        <v>JPYSB3T15Y_Quote#0000</v>
       </c>
       <c r="G22" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -8088,14 +8090,14 @@
         <v>JPYSB3T15Y=SMKR</v>
       </c>
       <c r="P22" s="342">
-        <v>0.92874999999999996</v>
+        <v>0.91625000000000001</v>
       </c>
       <c r="Q22" s="342">
-        <v>0.96875</v>
+        <v>0.95625000000000004</v>
       </c>
       <c r="R22" s="331">
         <f t="shared" si="3"/>
-        <v>0.94874999999999998</v>
+        <v>0.93625000000000003</v>
       </c>
       <c r="S22" s="331">
         <f t="shared" si="4"/>
@@ -8107,11 +8109,11 @@
       </c>
       <c r="V22" s="68"/>
       <c r="W22" s="333">
-        <v>0.94874999999999998</v>
-      </c>
-      <c r="X22" s="334" t="e">
+        <v>0.93625000000000003</v>
+      </c>
+      <c r="X22" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F22,W22/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.2500000000000358E-5</v>
       </c>
       <c r="Y22" s="199"/>
     </row>
@@ -8132,7 +8134,7 @@
       </c>
       <c r="F23" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T16Y_Quote#0002</v>
+        <v>JPYSB3T16Y_Quote#0000</v>
       </c>
       <c r="G23" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -8202,7 +8204,7 @@
       </c>
       <c r="F24" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T17Y_Quote#0002</v>
+        <v>JPYSB3T17Y_Quote#0000</v>
       </c>
       <c r="G24" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -8272,7 +8274,7 @@
       </c>
       <c r="F25" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T18Y_Quote#0002</v>
+        <v>JPYSB3T18Y_Quote#0000</v>
       </c>
       <c r="G25" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -8342,7 +8344,7 @@
       </c>
       <c r="F26" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T19Y_Quote#0002</v>
+        <v>JPYSB3T19Y_Quote#0000</v>
       </c>
       <c r="G26" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -8412,7 +8414,7 @@
       </c>
       <c r="F27" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T20Y_Quote#0002</v>
+        <v>JPYSB3T20Y_Quote#0000</v>
       </c>
       <c r="G27" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -8438,14 +8440,14 @@
         <v>JPYSB3T20Y=SMKR</v>
       </c>
       <c r="P27" s="342">
-        <v>1.2075</v>
+        <v>1.1937500000000001</v>
       </c>
       <c r="Q27" s="342">
-        <v>1.2475000000000001</v>
+        <v>1.2337499999999999</v>
       </c>
       <c r="R27" s="331">
         <f t="shared" si="3"/>
-        <v>1.2275</v>
+        <v>1.2137500000000001</v>
       </c>
       <c r="S27" s="331">
         <f t="shared" si="4"/>
@@ -8457,11 +8459,11 @@
       </c>
       <c r="V27" s="68"/>
       <c r="W27" s="333">
-        <v>1.2275</v>
-      </c>
-      <c r="X27" s="334" t="e">
+        <v>1.2137500000000001</v>
+      </c>
+      <c r="X27" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F27,W27/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.2500000000002093E-5</v>
       </c>
       <c r="Y27" s="199"/>
     </row>
@@ -8482,7 +8484,7 @@
       </c>
       <c r="F28" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T21Y_Quote#0002</v>
+        <v>JPYSB3T21Y_Quote#0000</v>
       </c>
       <c r="G28" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -8552,7 +8554,7 @@
       </c>
       <c r="F29" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T22Y_Quote#0002</v>
+        <v>JPYSB3T22Y_Quote#0000</v>
       </c>
       <c r="G29" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -8622,7 +8624,7 @@
       </c>
       <c r="F30" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T23Y_Quote#0002</v>
+        <v>JPYSB3T23Y_Quote#0000</v>
       </c>
       <c r="G30" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -8692,7 +8694,7 @@
       </c>
       <c r="F31" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T24Y_Quote#0002</v>
+        <v>JPYSB3T24Y_Quote#0000</v>
       </c>
       <c r="G31" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -8762,7 +8764,7 @@
       </c>
       <c r="F32" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T25Y_Quote#0002</v>
+        <v>JPYSB3T25Y_Quote#0000</v>
       </c>
       <c r="G32" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -8788,14 +8790,14 @@
         <v>JPYSB3T25Y=SMKR</v>
       </c>
       <c r="P32" s="342">
-        <v>1.3587500000000001</v>
+        <v>1.34375</v>
       </c>
       <c r="Q32" s="342">
-        <v>1.3987499999999999</v>
+        <v>1.38375</v>
       </c>
       <c r="R32" s="331">
         <f t="shared" si="3"/>
-        <v>1.3787500000000001</v>
+        <v>1.36375</v>
       </c>
       <c r="S32" s="331">
         <f t="shared" si="4"/>
@@ -8807,11 +8809,11 @@
       </c>
       <c r="V32" s="68"/>
       <c r="W32" s="333">
-        <v>1.3787500000000001</v>
-      </c>
-      <c r="X32" s="334" t="e">
+        <v>1.36375</v>
+      </c>
+      <c r="X32" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F32,W32/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.2500000000000358E-5</v>
       </c>
       <c r="Y32" s="199"/>
     </row>
@@ -8832,7 +8834,7 @@
       </c>
       <c r="F33" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T26Y_Quote#0002</v>
+        <v>JPYSB3T26Y_Quote#0000</v>
       </c>
       <c r="G33" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -8902,7 +8904,7 @@
       </c>
       <c r="F34" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T27Y_Quote#0002</v>
+        <v>JPYSB3T27Y_Quote#0000</v>
       </c>
       <c r="G34" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -8972,7 +8974,7 @@
       </c>
       <c r="F35" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T28Y_Quote#0002</v>
+        <v>JPYSB3T28Y_Quote#0000</v>
       </c>
       <c r="G35" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -9042,7 +9044,7 @@
       </c>
       <c r="F36" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T29Y_Quote#0002</v>
+        <v>JPYSB3T29Y_Quote#0000</v>
       </c>
       <c r="G36" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -9112,7 +9114,7 @@
       </c>
       <c r="F37" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T30Y_Quote#0002</v>
+        <v>JPYSB3T30Y_Quote#0000</v>
       </c>
       <c r="G37" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -9138,14 +9140,14 @@
         <v>JPYSB3T30Y=SMKR</v>
       </c>
       <c r="P37" s="342">
-        <v>1.44</v>
+        <v>1.425</v>
       </c>
       <c r="Q37" s="342">
-        <v>1.48</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="R37" s="331">
         <f t="shared" si="3"/>
-        <v>1.46</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="S37" s="331">
         <f t="shared" si="4"/>
@@ -9157,11 +9159,11 @@
       </c>
       <c r="V37" s="68"/>
       <c r="W37" s="333">
-        <v>1.46</v>
-      </c>
-      <c r="X37" s="334" t="e">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="X37" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F37,W37/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.2500000000000358E-5</v>
       </c>
       <c r="Y37" s="199"/>
     </row>
@@ -9182,7 +9184,7 @@
       </c>
       <c r="F38" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T35Y_Quote#0002</v>
+        <v>JPYSB3T35Y_Quote#0000</v>
       </c>
       <c r="G38" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -9208,14 +9210,14 @@
         <v>JPYSB3T35Y=SMKR</v>
       </c>
       <c r="P38" s="342">
-        <v>1.51</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="Q38" s="342">
-        <v>1.55</v>
+        <v>1.5349999999999999</v>
       </c>
       <c r="R38" s="331">
         <f t="shared" si="3"/>
-        <v>1.53</v>
+        <v>1.5150000000000001</v>
       </c>
       <c r="S38" s="331">
         <f t="shared" si="4"/>
@@ -9227,11 +9229,11 @@
       </c>
       <c r="V38" s="68"/>
       <c r="W38" s="333">
-        <v>1.53</v>
-      </c>
-      <c r="X38" s="334" t="e">
+        <v>1.5150000000000001</v>
+      </c>
+      <c r="X38" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F38,W38/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.2500000000002093E-5</v>
       </c>
       <c r="Y38" s="199"/>
     </row>
@@ -9252,7 +9254,7 @@
       </c>
       <c r="F39" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T40Y_Quote#0002</v>
+        <v>JPYSB3T40Y_Quote#0000</v>
       </c>
       <c r="G39" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -9278,18 +9280,18 @@
         <v>JPYSB3T40Y=SMKR</v>
       </c>
       <c r="P39" s="342">
-        <v>1.57</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="Q39" s="342">
-        <v>1.6099999999999999</v>
+        <v>1.595</v>
       </c>
       <c r="R39" s="331">
         <f t="shared" si="3"/>
-        <v>1.5899999999999999</v>
+        <v>1.575</v>
       </c>
       <c r="S39" s="331">
         <f t="shared" si="4"/>
-        <v>3.9999999999999591E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="T39" s="63"/>
       <c r="U39" s="332">
@@ -9297,11 +9299,11 @@
       </c>
       <c r="V39" s="68"/>
       <c r="W39" s="333">
-        <v>1.5899999999999999</v>
-      </c>
-      <c r="X39" s="334" t="e">
+        <v>1.575</v>
+      </c>
+      <c r="X39" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F39,W39/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.2499999999998623E-5</v>
       </c>
       <c r="Y39" s="199"/>
     </row>
@@ -9322,7 +9324,7 @@
       </c>
       <c r="F40" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T50Y_Quote#0002</v>
+        <v>JPYSB3T50Y_Quote#0000</v>
       </c>
       <c r="G40" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -9392,7 +9394,7 @@
       </c>
       <c r="F41" s="197" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB3T60Y_Quote#0002</v>
+        <v>JPYSB3T60Y_Quote#0000</v>
       </c>
       <c r="G41" s="335" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -9578,7 +9580,7 @@
       <c r="W2" s="68"/>
       <c r="X2" s="270">
         <f>_xll.ohTrigger(X5:X41)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="183"/>
     </row>
@@ -9635,7 +9637,7 @@
       <c r="N4" s="170"/>
       <c r="O4" s="326" t="str">
         <f>_xll.RData(O5:O41,P4:Q4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 14:49:40</v>
+        <v>Updated at 09:33:12</v>
       </c>
       <c r="P4" s="170" t="s">
         <v>136</v>
@@ -9679,7 +9681,7 @@
       </c>
       <c r="F5" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L1Y_Quote#0002</v>
+        <v>JPYSB6L1Y_Quote#0000</v>
       </c>
       <c r="G5" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -9705,14 +9707,14 @@
         <v>JPYSB6L1Y=ICAP</v>
       </c>
       <c r="P5" s="342">
-        <v>8.7499999999999994E-2</v>
+        <v>8.249999999999999E-2</v>
       </c>
       <c r="Q5" s="342">
-        <v>0.14750000000000002</v>
+        <v>0.14250000000000002</v>
       </c>
       <c r="R5" s="331">
         <f>IF($R$2,IF(ISNUMBER(P5),P5,#NUM!),IFERROR(AVERAGE(P5:Q5),#NUM!))</f>
-        <v>0.11750000000000001</v>
+        <v>0.1125</v>
       </c>
       <c r="S5" s="331">
         <f>(R5-P5)*2</f>
@@ -9725,11 +9727,11 @@
       <c r="V5" s="68"/>
       <c r="W5" s="333">
         <f t="array" ref="W5:W41">QuoteLive</f>
-        <v>0.11750000000000001</v>
+        <v>0.1125</v>
       </c>
       <c r="X5" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999999914E-5</v>
       </c>
       <c r="Y5" s="199"/>
     </row>
@@ -9750,7 +9752,7 @@
       </c>
       <c r="F6" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L15M_Quote#0002</v>
+        <v>JPYSB6L15M_Quote#0000</v>
       </c>
       <c r="G6" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -9820,7 +9822,7 @@
       </c>
       <c r="F7" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L18M_Quote#0002</v>
+        <v>JPYSB6L18M_Quote#0000</v>
       </c>
       <c r="G7" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -9846,18 +9848,18 @@
         <v>JPYSB6L18M=ICAP</v>
       </c>
       <c r="P7" s="342">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q7" s="342">
-        <v>0.13999999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="R7" s="331">
         <f t="shared" si="3"/>
-        <v>0.10999999999999999</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="S7" s="331">
         <f t="shared" si="4"/>
-        <v>5.999999999999997E-2</v>
+        <v>6.0000000000000026E-2</v>
       </c>
       <c r="T7" s="63"/>
       <c r="U7" s="332">
@@ -9865,11 +9867,11 @@
       </c>
       <c r="V7" s="68"/>
       <c r="W7" s="333">
-        <v>0.10999999999999999</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="X7" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F7,W7/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999999697E-5</v>
       </c>
       <c r="Y7" s="199"/>
     </row>
@@ -9890,7 +9892,7 @@
       </c>
       <c r="F8" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L21M_Quote#0002</v>
+        <v>JPYSB6L21M_Quote#0000</v>
       </c>
       <c r="G8" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -9960,7 +9962,7 @@
       </c>
       <c r="F9" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L2Y_Quote#0002</v>
+        <v>JPYSB6L2Y_Quote#0000</v>
       </c>
       <c r="G9" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -9986,18 +9988,18 @@
         <v>JPYSB6L2Y=ICAP</v>
       </c>
       <c r="P9" s="342">
-        <v>0.08</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="Q9" s="342">
-        <v>0.13999999999999999</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="R9" s="331">
         <f t="shared" si="3"/>
-        <v>0.10999999999999999</v>
+        <v>0.10250000000000001</v>
       </c>
       <c r="S9" s="331">
         <f t="shared" si="4"/>
-        <v>5.999999999999997E-2</v>
+        <v>6.0000000000000026E-2</v>
       </c>
       <c r="T9" s="63"/>
       <c r="U9" s="332">
@@ -10005,11 +10007,11 @@
       </c>
       <c r="V9" s="68"/>
       <c r="W9" s="333">
-        <v>0.10999999999999999</v>
+        <v>0.10250000000000001</v>
       </c>
       <c r="X9" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F9,W9/100,Trigger)</f>
-        <v>0</v>
+        <v>-7.4999999999999763E-5</v>
       </c>
       <c r="Y9" s="199"/>
     </row>
@@ -10030,7 +10032,7 @@
       </c>
       <c r="F10" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L3Y_Quote#0002</v>
+        <v>JPYSB6L3Y_Quote#0000</v>
       </c>
       <c r="G10" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -10056,18 +10058,18 @@
         <v>JPYSB6L3Y=ICAP</v>
       </c>
       <c r="P10" s="342">
-        <v>0.09</v>
+        <v>8.249999999999999E-2</v>
       </c>
       <c r="Q10" s="342">
-        <v>0.15</v>
+        <v>0.14250000000000002</v>
       </c>
       <c r="R10" s="331">
         <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>0.1125</v>
       </c>
       <c r="S10" s="331">
         <f t="shared" si="4"/>
-        <v>0.06</v>
+        <v>6.0000000000000026E-2</v>
       </c>
       <c r="T10" s="63"/>
       <c r="U10" s="332">
@@ -10075,11 +10077,11 @@
       </c>
       <c r="V10" s="68"/>
       <c r="W10" s="333">
-        <v>0.12</v>
+        <v>0.1125</v>
       </c>
       <c r="X10" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/100,Trigger)</f>
-        <v>0</v>
+        <v>-7.4999999999999763E-5</v>
       </c>
       <c r="Y10" s="199"/>
     </row>
@@ -10100,7 +10102,7 @@
       </c>
       <c r="F11" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L4Y_Quote#0002</v>
+        <v>JPYSB6L4Y_Quote#0000</v>
       </c>
       <c r="G11" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -10126,18 +10128,18 @@
         <v>JPYSB6L4Y=ICAP</v>
       </c>
       <c r="P11" s="342">
-        <v>0.12</v>
+        <v>0.1125</v>
       </c>
       <c r="Q11" s="342">
-        <v>0.18</v>
+        <v>0.17250000000000001</v>
       </c>
       <c r="R11" s="331">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.14250000000000002</v>
       </c>
       <c r="S11" s="331">
         <f t="shared" si="4"/>
-        <v>0.06</v>
+        <v>6.0000000000000026E-2</v>
       </c>
       <c r="T11" s="63"/>
       <c r="U11" s="332">
@@ -10145,11 +10147,11 @@
       </c>
       <c r="V11" s="68"/>
       <c r="W11" s="333">
-        <v>0.15</v>
+        <v>0.14250000000000002</v>
       </c>
       <c r="X11" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/100,Trigger)</f>
-        <v>0</v>
+        <v>-7.499999999999998E-5</v>
       </c>
       <c r="Y11" s="199"/>
     </row>
@@ -10170,7 +10172,7 @@
       </c>
       <c r="F12" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L5Y_Quote#0002</v>
+        <v>JPYSB6L5Y_Quote#0000</v>
       </c>
       <c r="G12" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -10196,14 +10198,14 @@
         <v>JPYSB6L5Y=ICAP</v>
       </c>
       <c r="P12" s="342">
-        <v>0.16750000000000001</v>
+        <v>0.1575</v>
       </c>
       <c r="Q12" s="342">
-        <v>0.22749999999999998</v>
+        <v>0.21749999999999997</v>
       </c>
       <c r="R12" s="331">
         <f t="shared" si="3"/>
-        <v>0.19750000000000001</v>
+        <v>0.1875</v>
       </c>
       <c r="S12" s="331">
         <f t="shared" si="4"/>
@@ -10215,11 +10217,11 @@
       </c>
       <c r="V12" s="68"/>
       <c r="W12" s="333">
-        <v>0.19750000000000001</v>
+        <v>0.1875</v>
       </c>
       <c r="X12" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000026E-4</v>
       </c>
       <c r="Y12" s="199"/>
     </row>
@@ -10240,7 +10242,7 @@
       </c>
       <c r="F13" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L6Y_Quote#0002</v>
+        <v>JPYSB6L6Y_Quote#0000</v>
       </c>
       <c r="G13" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -10266,14 +10268,14 @@
         <v>JPYSB6L6Y=ICAP</v>
       </c>
       <c r="P13" s="342">
-        <v>0.2225</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="Q13" s="342">
-        <v>0.28250000000000003</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="R13" s="331">
         <f t="shared" si="3"/>
-        <v>0.2525</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="S13" s="331">
         <f t="shared" si="4"/>
@@ -10285,11 +10287,11 @@
       </c>
       <c r="V13" s="68"/>
       <c r="W13" s="333">
-        <v>0.2525</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="X13" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999999829E-5</v>
       </c>
       <c r="Y13" s="199"/>
     </row>
@@ -10310,7 +10312,7 @@
       </c>
       <c r="F14" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L7Y_Quote#0002</v>
+        <v>JPYSB6L7Y_Quote#0000</v>
       </c>
       <c r="G14" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -10336,14 +10338,14 @@
         <v>JPYSB6L7Y=ICAP</v>
       </c>
       <c r="P14" s="342">
-        <v>0.28250000000000003</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="Q14" s="342">
-        <v>0.34249999999999997</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="R14" s="331">
         <f t="shared" si="3"/>
-        <v>0.3125</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="S14" s="331">
         <f t="shared" si="4"/>
@@ -10355,11 +10357,11 @@
       </c>
       <c r="V14" s="68"/>
       <c r="W14" s="333">
-        <v>0.3125</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="X14" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000026E-4</v>
       </c>
       <c r="Y14" s="199"/>
     </row>
@@ -10380,7 +10382,7 @@
       </c>
       <c r="F15" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L8Y_Quote#0002</v>
+        <v>JPYSB6L8Y_Quote#0000</v>
       </c>
       <c r="G15" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -10406,14 +10408,14 @@
         <v>JPYSB6L8Y=ICAP</v>
       </c>
       <c r="P15" s="342">
-        <v>0.34500000000000003</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="Q15" s="342">
-        <v>0.40499999999999997</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="R15" s="331">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="S15" s="331">
         <f t="shared" si="4"/>
@@ -10425,11 +10427,11 @@
       </c>
       <c r="V15" s="68"/>
       <c r="W15" s="333">
-        <v>0.375</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="X15" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999999829E-5</v>
       </c>
       <c r="Y15" s="199"/>
     </row>
@@ -10450,7 +10452,7 @@
       </c>
       <c r="F16" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L9Y_Quote#0002</v>
+        <v>JPYSB6L9Y_Quote#0000</v>
       </c>
       <c r="G16" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -10476,18 +10478,18 @@
         <v>JPYSB6L9Y=ICAP</v>
       </c>
       <c r="P16" s="342">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="Q16" s="342">
-        <v>0.47000000000000003</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="R16" s="331">
         <f t="shared" si="3"/>
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="S16" s="331">
         <f t="shared" si="4"/>
-        <v>6.0000000000000053E-2</v>
+        <v>5.9999999999999942E-2</v>
       </c>
       <c r="T16" s="63"/>
       <c r="U16" s="332">
@@ -10495,11 +10497,11 @@
       </c>
       <c r="V16" s="68"/>
       <c r="W16" s="333">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="X16" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000026E-4</v>
       </c>
       <c r="Y16" s="199"/>
     </row>
@@ -10520,7 +10522,7 @@
       </c>
       <c r="F17" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L10Y_Quote#0002</v>
+        <v>JPYSB6L10Y_Quote#0000</v>
       </c>
       <c r="G17" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -10546,18 +10548,18 @@
         <v>JPYSB6L10Y=ICAP</v>
       </c>
       <c r="P17" s="342">
-        <v>0.48</v>
+        <v>0.46749999999999997</v>
       </c>
       <c r="Q17" s="342">
-        <v>0.54</v>
+        <v>0.52750000000000008</v>
       </c>
       <c r="R17" s="331">
         <f t="shared" si="3"/>
-        <v>0.51</v>
+        <v>0.49750000000000005</v>
       </c>
       <c r="S17" s="331">
         <f t="shared" si="4"/>
-        <v>6.0000000000000053E-2</v>
+        <v>6.0000000000000164E-2</v>
       </c>
       <c r="T17" s="63"/>
       <c r="U17" s="332">
@@ -10565,11 +10567,11 @@
       </c>
       <c r="V17" s="68"/>
       <c r="W17" s="333">
-        <v>0.51</v>
+        <v>0.49750000000000005</v>
       </c>
       <c r="X17" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/100,Trigger)</f>
-        <v>2.4999999999999849E-5</v>
+        <v>-1.2500000000000011E-4</v>
       </c>
       <c r="Y17" s="199"/>
     </row>
@@ -10590,7 +10592,7 @@
       </c>
       <c r="F18" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L11Y_Quote#0002</v>
+        <v>JPYSB6L11Y_Quote#0000</v>
       </c>
       <c r="G18" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -10660,7 +10662,7 @@
       </c>
       <c r="F19" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L12Y_Quote#0002</v>
+        <v>JPYSB6L12Y_Quote#0000</v>
       </c>
       <c r="G19" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -10686,14 +10688,14 @@
         <v>JPYSB6L12Y=ICAP</v>
       </c>
       <c r="P19" s="342">
-        <v>0.61</v>
+        <v>0.59749999999999992</v>
       </c>
       <c r="Q19" s="342">
-        <v>0.69000000000000006</v>
+        <v>0.67749999999999999</v>
       </c>
       <c r="R19" s="331">
         <f t="shared" si="3"/>
-        <v>0.65</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="S19" s="331">
         <f t="shared" si="4"/>
@@ -10705,11 +10707,11 @@
       </c>
       <c r="V19" s="68"/>
       <c r="W19" s="333">
-        <v>0.65</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="X19" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F19,W19/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>-1.2500000000000098E-4</v>
       </c>
       <c r="Y19" s="199"/>
     </row>
@@ -10730,7 +10732,7 @@
       </c>
       <c r="F20" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L13Y_Quote#0002</v>
+        <v>JPYSB6L13Y_Quote#0000</v>
       </c>
       <c r="G20" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -10800,7 +10802,7 @@
       </c>
       <c r="F21" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L14Y_Quote#0002</v>
+        <v>JPYSB6L14Y_Quote#0000</v>
       </c>
       <c r="G21" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -10870,7 +10872,7 @@
       </c>
       <c r="F22" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L15Y_Quote#0002</v>
+        <v>JPYSB6L15Y_Quote#0000</v>
       </c>
       <c r="G22" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -10896,14 +10898,14 @@
         <v>JPYSB6L15Y=ICAP</v>
       </c>
       <c r="P22" s="342">
-        <v>0.82250000000000001</v>
+        <v>0.80749999999999988</v>
       </c>
       <c r="Q22" s="342">
-        <v>0.90250000000000008</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="R22" s="331">
         <f t="shared" si="3"/>
-        <v>0.86250000000000004</v>
+        <v>0.84749999999999992</v>
       </c>
       <c r="S22" s="331">
         <f t="shared" si="4"/>
@@ -10915,11 +10917,11 @@
       </c>
       <c r="V22" s="68"/>
       <c r="W22" s="333">
-        <v>0.86250000000000004</v>
+        <v>0.84749999999999992</v>
       </c>
       <c r="X22" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F22,W22/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>-1.5000000000000083E-4</v>
       </c>
       <c r="Y22" s="199"/>
     </row>
@@ -10940,7 +10942,7 @@
       </c>
       <c r="F23" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L16Y_Quote#0002</v>
+        <v>JPYSB6L16Y_Quote#0000</v>
       </c>
       <c r="G23" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -11010,7 +11012,7 @@
       </c>
       <c r="F24" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L17Y_Quote#0002</v>
+        <v>JPYSB6L17Y_Quote#0000</v>
       </c>
       <c r="G24" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -11080,7 +11082,7 @@
       </c>
       <c r="F25" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L18Y_Quote#0002</v>
+        <v>JPYSB6L18Y_Quote#0000</v>
       </c>
       <c r="G25" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -11150,7 +11152,7 @@
       </c>
       <c r="F26" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L19Y_Quote#0002</v>
+        <v>JPYSB6L19Y_Quote#0000</v>
       </c>
       <c r="G26" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -11220,7 +11222,7 @@
       </c>
       <c r="F27" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L20Y_Quote#0002</v>
+        <v>JPYSB6L20Y_Quote#0000</v>
       </c>
       <c r="G27" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -11246,14 +11248,14 @@
         <v>JPYSB6L20Y=ICAP</v>
       </c>
       <c r="P27" s="342">
-        <v>1.095</v>
+        <v>1.08</v>
       </c>
       <c r="Q27" s="342">
-        <v>1.175</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="R27" s="331">
         <f t="shared" si="3"/>
-        <v>1.135</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="S27" s="331">
         <f t="shared" si="4"/>
@@ -11265,11 +11267,11 @@
       </c>
       <c r="V27" s="68"/>
       <c r="W27" s="333">
-        <v>1.135</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="X27" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F27,W27/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>-1.4999999999999909E-4</v>
       </c>
       <c r="Y27" s="199"/>
     </row>
@@ -11290,7 +11292,7 @@
       </c>
       <c r="F28" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L21Y_Quote#0002</v>
+        <v>JPYSB6L21Y_Quote#0000</v>
       </c>
       <c r="G28" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -11360,7 +11362,7 @@
       </c>
       <c r="F29" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L22Y_Quote#0002</v>
+        <v>JPYSB6L22Y_Quote#0000</v>
       </c>
       <c r="G29" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -11430,7 +11432,7 @@
       </c>
       <c r="F30" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L23Y_Quote#0002</v>
+        <v>JPYSB6L23Y_Quote#0000</v>
       </c>
       <c r="G30" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -11500,7 +11502,7 @@
       </c>
       <c r="F31" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L24Y_Quote#0002</v>
+        <v>JPYSB6L24Y_Quote#0000</v>
       </c>
       <c r="G31" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -11570,7 +11572,7 @@
       </c>
       <c r="F32" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L25Y_Quote#0002</v>
+        <v>JPYSB6L25Y_Quote#0000</v>
       </c>
       <c r="G32" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -11596,14 +11598,14 @@
         <v>JPYSB6L25Y=ICAP</v>
       </c>
       <c r="P32" s="342">
-        <v>1.2424999999999999</v>
+        <v>1.2275</v>
       </c>
       <c r="Q32" s="342">
-        <v>1.3225</v>
+        <v>1.3075000000000001</v>
       </c>
       <c r="R32" s="331">
         <f t="shared" si="3"/>
-        <v>1.2825</v>
+        <v>1.2675000000000001</v>
       </c>
       <c r="S32" s="331">
         <f t="shared" si="4"/>
@@ -11615,11 +11617,11 @@
       </c>
       <c r="V32" s="68"/>
       <c r="W32" s="333">
-        <v>1.2825</v>
+        <v>1.2675000000000001</v>
       </c>
       <c r="X32" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F32,W32/100,Trigger)</f>
-        <v>2.4999999999998981E-5</v>
+        <v>-1.4999999999999909E-4</v>
       </c>
       <c r="Y32" s="199"/>
     </row>
@@ -11640,7 +11642,7 @@
       </c>
       <c r="F33" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L26Y_Quote#0002</v>
+        <v>JPYSB6L26Y_Quote#0000</v>
       </c>
       <c r="G33" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -11710,7 +11712,7 @@
       </c>
       <c r="F34" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L27Y_Quote#0002</v>
+        <v>JPYSB6L27Y_Quote#0000</v>
       </c>
       <c r="G34" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -11780,7 +11782,7 @@
       </c>
       <c r="F35" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L28Y_Quote#0002</v>
+        <v>JPYSB6L28Y_Quote#0000</v>
       </c>
       <c r="G35" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -11850,7 +11852,7 @@
       </c>
       <c r="F36" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L29Y_Quote#0002</v>
+        <v>JPYSB6L29Y_Quote#0000</v>
       </c>
       <c r="G36" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -11920,7 +11922,7 @@
       </c>
       <c r="F37" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L30Y_Quote#0002</v>
+        <v>JPYSB6L30Y_Quote#0000</v>
       </c>
       <c r="G37" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -11946,14 +11948,14 @@
         <v>JPYSB6L30Y=ICAP</v>
       </c>
       <c r="P37" s="342">
-        <v>1.3225</v>
+        <v>1.3075000000000001</v>
       </c>
       <c r="Q37" s="342">
-        <v>1.4025000000000001</v>
+        <v>1.3875</v>
       </c>
       <c r="R37" s="331">
         <f t="shared" si="3"/>
-        <v>1.3625</v>
+        <v>1.3475000000000001</v>
       </c>
       <c r="S37" s="331">
         <f t="shared" si="4"/>
@@ -11965,11 +11967,11 @@
       </c>
       <c r="V37" s="68"/>
       <c r="W37" s="333">
-        <v>1.3625</v>
+        <v>1.3475000000000001</v>
       </c>
       <c r="X37" s="334">
         <f>_xll.qlSimpleQuoteSetValue(F37,W37/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>-1.4999999999999909E-4</v>
       </c>
       <c r="Y37" s="199"/>
     </row>
@@ -11990,7 +11992,7 @@
       </c>
       <c r="F38" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L35Y_Quote#0002</v>
+        <v>JPYSB6L35Y_Quote#0000</v>
       </c>
       <c r="G38" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -12060,7 +12062,7 @@
       </c>
       <c r="F39" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L40Y_Quote#0002</v>
+        <v>JPYSB6L40Y_Quote#0000</v>
       </c>
       <c r="G39" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -12130,7 +12132,7 @@
       </c>
       <c r="F40" s="171" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L50Y_Quote#0002</v>
+        <v>JPYSB6L50Y_Quote#0000</v>
       </c>
       <c r="G40" s="328" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -12200,7 +12202,7 @@
       </c>
       <c r="F41" s="197" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSB6L60Y_Quote#0002</v>
+        <v>JPYSB6L60Y_Quote#0000</v>
       </c>
       <c r="G41" s="335" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -12299,7 +12301,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -12372,7 +12374,7 @@
       <c r="G3" s="29"/>
       <c r="H3" s="107" t="str">
         <f>_xll.RData(H4:H11,I3:J3,"RTFEED:IDN",,,I4)</f>
-        <v>Updated at 12:45:22</v>
+        <v>Updated at 09:33:12</v>
       </c>
       <c r="I3" s="108" t="s">
         <v>167</v>
@@ -12400,15 +12402,15 @@
       </c>
       <c r="D4" s="140" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(UPPER(Currency)&amp;C4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYON#0002</v>
+        <v>JPYON#0000</v>
       </c>
       <c r="E4" s="141" t="str">
         <f>_xll.qlOvernightIndex(PROPER(Currency)&amp;"Tonar","Tonar",0,Currency,LocalCalendar,"act/365 (fixed)",D4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTonar#0002</v>
+        <v>JpyTonar#0000</v>
       </c>
       <c r="F4" s="141" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;"Tonar"&amp;$F$3,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTonarLastFixing_Quote#0002</v>
+        <v>JpyTonarLastFixing_Quote#0000</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="114" t="str">
@@ -12430,7 +12432,7 @@
         <v>#N/A</v>
       </c>
       <c r="M4" s="114" t="e">
-        <f>_xll.qlIndexFixing($E4,$I4,TRUE,$K4)</f>
+        <f>_xll.qlIndexFixing($E4,I4,TRUE,$K4)</f>
         <v>#NUM!</v>
       </c>
       <c r="N4" s="109"/>
@@ -12445,11 +12447,11 @@
       <c r="D5" s="143"/>
       <c r="E5" s="144" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;[0]!FamilyName&amp;C5,Currency,C5,D5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSN#0002</v>
+        <v>JpyLiborSN#0000</v>
       </c>
       <c r="F5" s="144" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;[0]!FamilyName&amp;C5&amp;$F$3,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSNLastFixing_Quote#0002</v>
+        <v>JpyLiborSNLastFixing_Quote#0000</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="111" t="str">
@@ -12470,9 +12472,9 @@
         <f>IF($K5,_xll.qlIndexAddFixings($E5,$I5,$J5/100,FALSE,ISERROR($M5)),NA())</f>
         <v>1</v>
       </c>
-      <c r="M5" s="111" t="e">
-        <f>_xll.qlIndexFixing($E5,$I5,TRUE,$K5)</f>
-        <v>#NUM!</v>
+      <c r="M5" s="111">
+        <f>_xll.qlIndexFixing($E5,I5,TRUE,$K5)</f>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="N5" s="109"/>
       <c r="O5" s="13"/>
@@ -12486,11 +12488,11 @@
       <c r="D6" s="143"/>
       <c r="E6" s="144" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;[0]!FamilyName&amp;C6,Currency,C6,D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSW#0002</v>
+        <v>JpyLiborSW#0000</v>
       </c>
       <c r="F6" s="144" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;[0]!FamilyName&amp;C6&amp;$F$3,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSWLastFixing_Quote#0002</v>
+        <v>JpyLiborSWLastFixing_Quote#0000</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="111" t="str">
@@ -12511,9 +12513,9 @@
         <f>IF($K6,_xll.qlIndexAddFixings($E6,$I6,$J6/100,FALSE,ISERROR($M6)),NA())</f>
         <v>1</v>
       </c>
-      <c r="M6" s="111" t="e">
-        <f>_xll.qlIndexFixing($E6,$I6,TRUE,$K6)</f>
-        <v>#NUM!</v>
+      <c r="M6" s="111">
+        <f>_xll.qlIndexFixing($E6,I6,TRUE,$K6)</f>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N6" s="109"/>
       <c r="O6" s="13"/>
@@ -12527,11 +12529,11 @@
       <c r="D7" s="143"/>
       <c r="E7" s="144" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;[0]!FamilyName&amp;C7,Currency,C7,D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor1M#0002</v>
+        <v>JpyLibor1M#0000</v>
       </c>
       <c r="F7" s="144" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;[0]!FamilyName&amp;C7&amp;$F$3,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor1MLastFixing_Quote#0002</v>
+        <v>JpyLibor1MLastFixing_Quote#0000</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="111" t="str">
@@ -12552,9 +12554,9 @@
         <f>IF($K7,_xll.qlIndexAddFixings($E7,$I7,$J7/100,FALSE,ISERROR($M7)),NA())</f>
         <v>1</v>
       </c>
-      <c r="M7" s="111" t="e">
-        <f>_xll.qlIndexFixing($E7,$I7,TRUE,$K7)</f>
-        <v>#NUM!</v>
+      <c r="M7" s="111">
+        <f>_xll.qlIndexFixing($E7,I7,TRUE,$K7)</f>
+        <v>3.8570000000000005E-4</v>
       </c>
       <c r="N7" s="109"/>
       <c r="O7" s="13"/>
@@ -12568,11 +12570,11 @@
       <c r="D8" s="143"/>
       <c r="E8" s="144" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;[0]!FamilyName&amp;C8,Currency,C8,D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor2M#0002</v>
+        <v>JpyLibor2M#0000</v>
       </c>
       <c r="F8" s="144" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;[0]!FamilyName&amp;C8&amp;$F$3,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor2MLastFixing_Quote#0002</v>
+        <v>JpyLibor2MLastFixing_Quote#0000</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="111" t="str">
@@ -12593,9 +12595,9 @@
         <f>IF($K8,_xll.qlIndexAddFixings($E8,$I8,$J8/100,FALSE,ISERROR($M8)),NA())</f>
         <v>1</v>
       </c>
-      <c r="M8" s="111" t="e">
-        <f>_xll.qlIndexFixing($E8,$I8,TRUE,$K8)</f>
-        <v>#NUM!</v>
+      <c r="M8" s="111">
+        <f>_xll.qlIndexFixing($E8,I8,TRUE,$K8)</f>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="N8" s="109"/>
       <c r="O8" s="13"/>
@@ -12608,15 +12610,15 @@
       </c>
       <c r="D9" s="143" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(UPPER(Currency)&amp;C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3M#0002</v>
+        <v>JPY3M#0000</v>
       </c>
       <c r="E9" s="144" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;[0]!FamilyName&amp;C9,Currency,C9,D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor3M#0002</v>
+        <v>JpyLibor3M#0000</v>
       </c>
       <c r="F9" s="144" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;[0]!FamilyName&amp;C9&amp;$F$3,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor3MLastFixing_Quote#0002</v>
+        <v>JpyLibor3MLastFixing_Quote#0000</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="111" t="str">
@@ -12637,9 +12639,9 @@
         <f>IF($K9,_xll.qlIndexAddFixings($E9,$I9,$J9/100,FALSE,ISERROR($M9)),NA())</f>
         <v>1</v>
       </c>
-      <c r="M9" s="111" t="e">
-        <f>_xll.qlIndexFixing($E9,$I9,TRUE,$K9)</f>
-        <v>#NUM!</v>
+      <c r="M9" s="111">
+        <f>_xll.qlIndexFixing($E9,I9,TRUE,$K9)</f>
+        <v>8.4429999999999987E-4</v>
       </c>
       <c r="N9" s="109"/>
       <c r="O9" s="13"/>
@@ -12652,15 +12654,15 @@
       </c>
       <c r="D10" s="143" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(UPPER(Currency)&amp;C10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY6M#0002</v>
+        <v>JPY6M#0000</v>
       </c>
       <c r="E10" s="144" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;[0]!FamilyName&amp;C10,Currency,C10,D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor6M#0002</v>
+        <v>JpyLibor6M#0000</v>
       </c>
       <c r="F10" s="144" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;[0]!FamilyName&amp;C10&amp;$F$3,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor6MLastFixing_Quote#0002</v>
+        <v>JpyLibor6MLastFixing_Quote#0000</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="111" t="str">
@@ -12681,9 +12683,9 @@
         <f>IF($K10,_xll.qlIndexAddFixings($E10,$I10,$J10/100,FALSE,ISERROR($M10)),NA())</f>
         <v>1</v>
       </c>
-      <c r="M10" s="111" t="e">
-        <f>_xll.qlIndexFixing($E10,$I10,TRUE,$K10)</f>
-        <v>#NUM!</v>
+      <c r="M10" s="111">
+        <f>_xll.qlIndexFixing($E10,I10,TRUE,$K10)</f>
+        <v>1.2514E-3</v>
       </c>
       <c r="N10" s="109"/>
       <c r="O10" s="13"/>
@@ -12697,11 +12699,11 @@
       <c r="D11" s="143"/>
       <c r="E11" s="144" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;[0]!FamilyName&amp;C11,Currency,C11,D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor1Y#0002</v>
+        <v>JpyLibor1Y#0000</v>
       </c>
       <c r="F11" s="144" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;[0]!FamilyName&amp;C11&amp;$F$3,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor1YLastFixing_Quote#0002</v>
+        <v>JpyLibor1YLastFixing_Quote#0000</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="115" t="str">
@@ -12722,9 +12724,9 @@
         <f>IF($K11,_xll.qlIndexAddFixings($E11,$I11,$J11/100,FALSE,ISERROR($M11)),NA())</f>
         <v>1</v>
       </c>
-      <c r="M11" s="115" t="e">
-        <f>_xll.qlIndexFixing($E11,$I11,TRUE,$K11)</f>
-        <v>#NUM!</v>
+      <c r="M11" s="115">
+        <f>_xll.qlIndexFixing($E11,I11,TRUE,$K11)</f>
+        <v>2.4186000000000004E-3</v>
       </c>
       <c r="N11" s="109"/>
       <c r="O11" s="13"/>
@@ -12737,7 +12739,7 @@
       </c>
       <c r="D12" s="137" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(UPPER(Currency)&amp;C12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSTD#0002</v>
+        <v>JPYSTD#0000</v>
       </c>
       <c r="E12" s="138"/>
       <c r="F12" s="150"/>
@@ -12802,7 +12804,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="34" t="str">
         <f>_xll.RHistory(H7,F21:F22,F19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F20,H18)</f>
-        <v>Updated at 10:07:56</v>
+        <v>You do not have permission to view these RICs: JPY1MFSR=</v>
       </c>
       <c r="I17" s="37" t="e">
         <f>_xll.qlIndexAddFixings(E7,H20,I20/100,TRUE,Trigger)</f>
@@ -12811,7 +12813,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="34" t="str">
         <f>_xll.RHistory(H10,F21:F22,F19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F20,K18)</f>
-        <v>Updated at 10:07:56</v>
+        <v>You do not have permission to view these RICs: JPY6MFSR=</v>
       </c>
       <c r="L17" s="37" t="e">
         <f>_xll.qlIndexAddFixings(E10,K20,L20/100,TRUE,Trigger)</f>
@@ -12848,7 +12850,7 @@
       </c>
       <c r="F19" s="130" t="str">
         <f>"START:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp; " END:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp;" INTERVAL:1D"</f>
-        <v>START:42277 END:42277 INTERVAL:1D</v>
+        <v>START:42278 END:42278 INTERVAL:1D</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="131" t="s">
@@ -12918,7 +12920,7 @@
       <c r="G22" s="33"/>
       <c r="H22" s="34" t="str">
         <f>_xll.RHistory(H9,F21:F22,F19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F20,H23)</f>
-        <v>Updated at 10:07:56</v>
+        <v>You do not have permission to view these RICs: JPY3MFSR=</v>
       </c>
       <c r="I22" s="37" t="e">
         <f>_xll.qlIndexAddFixings(E9,H25,I25/100,TRUE,Trigger)</f>
@@ -12927,7 +12929,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="34" t="str">
         <f>_xll.RHistory(H11,F21:F22,F19,,"CH:In;Fd TSREPEAT:N SORT:"&amp;F20,K23)</f>
-        <v>Updated at 10:07:56</v>
+        <v>You do not have permission to view these RICs: JPY1YFSR=</v>
       </c>
       <c r="L22" s="37" t="e">
         <f>_xll.qlIndexAddFixings(E11,K25,L25/100,TRUE,Trigger)</f>
@@ -13166,7 +13168,7 @@
       <c r="M5" s="29"/>
       <c r="N5" s="167" t="str">
         <f>_xll.RData(N6:N18,O5:P5,"RTFEED:IDN",,,O6)</f>
-        <v>Updated at 10:07:56</v>
+        <v>Updated at 09:33:12</v>
       </c>
       <c r="O5" s="106" t="s">
         <v>167</v>
@@ -13216,7 +13218,7 @@
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C6&amp;$L$5,K6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor1WLastFixing_Quote#0002</v>
+        <v>JpyTibor1WLastFixing_Quote#0000</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="21" t="str">
@@ -13224,7 +13226,7 @@
         <v>TIJPY1WD=</v>
       </c>
       <c r="O6" s="19">
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="P6" s="20">
         <v>0.10500000000000001</v>
@@ -13274,7 +13276,7 @@
       </c>
       <c r="L7" s="156" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C7&amp;$L$5,K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor1MLastFixing_Quote#0002</v>
+        <v>JpyTibor1MLastFixing_Quote#0000</v>
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="21" t="str">
@@ -13282,7 +13284,7 @@
         <v>TIJPY1MD=</v>
       </c>
       <c r="O7" s="19">
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="P7" s="20">
         <v>0.1275</v>
@@ -13332,7 +13334,7 @@
       </c>
       <c r="L8" s="156" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C8&amp;$L$5,K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor2MLastFixing_Quote#0002</v>
+        <v>JpyTibor2MLastFixing_Quote#0000</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="21" t="str">
@@ -13340,7 +13342,7 @@
         <v>TIJPY2MD=</v>
       </c>
       <c r="O8" s="19">
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="P8" s="20">
         <v>0.14750000000000002</v>
@@ -13385,7 +13387,7 @@
       </c>
       <c r="J9" s="160" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(UPPER(Currency)&amp;C9&amp;"TIB",,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3MTIB#0002</v>
+        <v>JPY3MTIB#0000</v>
       </c>
       <c r="K9" s="156" t="str">
         <f>_xll.qlIborIndex(I9,FamilyName,C9,D9,Currency,E9,F9,G9,H9,,TRUE,Trigger)</f>
@@ -13393,7 +13395,7 @@
       </c>
       <c r="L9" s="156" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C9&amp;$L$5,K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor3MLastFixing_Quote#0002</v>
+        <v>JpyTibor3MLastFixing_Quote#0000</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="21" t="str">
@@ -13401,7 +13403,7 @@
         <v>TIJPY3MD=</v>
       </c>
       <c r="O9" s="19">
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="P9" s="20">
         <v>0.16750000000000001</v>
@@ -13451,7 +13453,7 @@
       </c>
       <c r="L10" s="156" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C10&amp;$L$5,K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor4MLastFixing_Quote#0002</v>
+        <v>JpyTibor4MLastFixing_Quote#0000</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="21" t="str">
@@ -13509,7 +13511,7 @@
       </c>
       <c r="L11" s="156" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C11&amp;$L$5,K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor5MLastFixing_Quote#0002</v>
+        <v>JpyTibor5MLastFixing_Quote#0000</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="21" t="str">
@@ -13567,7 +13569,7 @@
       </c>
       <c r="L12" s="156" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C12&amp;$L$5,K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor6MLastFixing_Quote#0002</v>
+        <v>JpyTibor6MLastFixing_Quote#0000</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="21" t="str">
@@ -13575,7 +13577,7 @@
         <v>TIJPY6MD=</v>
       </c>
       <c r="O12" s="19">
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="P12" s="20">
         <v>0.25125000000000003</v>
@@ -13625,7 +13627,7 @@
       </c>
       <c r="L13" s="156" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C13&amp;$L$5,K13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor7MLastFixing_Quote#0002</v>
+        <v>JpyTibor7MLastFixing_Quote#0000</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="21" t="str">
@@ -13683,7 +13685,7 @@
       </c>
       <c r="L14" s="156" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C14&amp;$L$5,K14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor8MLastFixing_Quote#0002</v>
+        <v>JpyTibor8MLastFixing_Quote#0000</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="21" t="str">
@@ -13741,7 +13743,7 @@
       </c>
       <c r="L15" s="156" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C15&amp;$L$5,K15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor9MLastFixing_Quote#0002</v>
+        <v>JpyTibor9MLastFixing_Quote#0000</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="21" t="str">
@@ -13799,7 +13801,7 @@
       </c>
       <c r="L16" s="156" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C16&amp;$L$5,K16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor10MLastFixing_Quote#0002</v>
+        <v>JpyTibor10MLastFixing_Quote#0000</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="21" t="str">
@@ -13857,7 +13859,7 @@
       </c>
       <c r="L17" s="156" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C17&amp;$L$5,K17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor11MLastFixing_Quote#0002</v>
+        <v>JpyTibor11MLastFixing_Quote#0000</v>
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="21" t="str">
@@ -13915,7 +13917,7 @@
       </c>
       <c r="L18" s="154" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$G$3&amp;C18&amp;$L$5,K18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor1YLastFixing_Quote#0002</v>
+        <v>JpyTibor1YLastFixing_Quote#0000</v>
       </c>
       <c r="M18" s="18"/>
       <c r="N18" s="21" t="str">
@@ -13923,7 +13925,7 @@
         <v>TIJPY1YD=</v>
       </c>
       <c r="O18" s="19">
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="P18" s="20">
         <v>0.28125</v>
@@ -14143,7 +14145,7 @@
       </c>
       <c r="E6" s="173" t="str">
         <f>_xll.qlSwapIndex($D6,FixingType,B6,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc1Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc1Y#0000</v>
       </c>
       <c r="F6" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -14165,7 +14167,7 @@
       </c>
       <c r="E7" s="171" t="str">
         <f>_xll.qlSwapIndex($D7,FixingType,B7,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc2Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc2Y#0000</v>
       </c>
       <c r="F7" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -14187,7 +14189,7 @@
       </c>
       <c r="E8" s="171" t="str">
         <f>_xll.qlSwapIndex($D8,FixingType,B8,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc3Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc3Y#0000</v>
       </c>
       <c r="F8" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -14209,7 +14211,7 @@
       </c>
       <c r="E9" s="171" t="str">
         <f>_xll.qlSwapIndex($D9,FixingType,B9,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc4Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc4Y#0000</v>
       </c>
       <c r="F9" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -14231,7 +14233,7 @@
       </c>
       <c r="E10" s="171" t="str">
         <f>_xll.qlSwapIndex($D10,FixingType,B10,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc5Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc5Y#0000</v>
       </c>
       <c r="F10" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -14253,7 +14255,7 @@
       </c>
       <c r="E11" s="171" t="str">
         <f>_xll.qlSwapIndex($D11,FixingType,B11,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc6Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc6Y#0000</v>
       </c>
       <c r="F11" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -14275,7 +14277,7 @@
       </c>
       <c r="E12" s="171" t="str">
         <f>_xll.qlSwapIndex($D12,FixingType,B12,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc7Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc7Y#0000</v>
       </c>
       <c r="F12" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -14297,7 +14299,7 @@
       </c>
       <c r="E13" s="171" t="str">
         <f>_xll.qlSwapIndex($D13,FixingType,B13,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc8Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc8Y#0000</v>
       </c>
       <c r="F13" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -14319,7 +14321,7 @@
       </c>
       <c r="E14" s="171" t="str">
         <f>_xll.qlSwapIndex($D14,FixingType,B14,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc9Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc9Y#0000</v>
       </c>
       <c r="F14" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -14341,7 +14343,7 @@
       </c>
       <c r="E15" s="171" t="str">
         <f>_xll.qlSwapIndex($D15,FixingType,B15,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc10Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc10Y#0000</v>
       </c>
       <c r="F15" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -14363,7 +14365,7 @@
       </c>
       <c r="E16" s="171" t="str">
         <f>_xll.qlSwapIndex($D16,FixingType,B16,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc11Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc11Y#0000</v>
       </c>
       <c r="F16" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -14385,7 +14387,7 @@
       </c>
       <c r="E17" s="171" t="str">
         <f>_xll.qlSwapIndex($D17,FixingType,B17,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc12Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc12Y#0000</v>
       </c>
       <c r="F17" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -14407,7 +14409,7 @@
       </c>
       <c r="E18" s="171" t="str">
         <f>_xll.qlSwapIndex($D18,FixingType,B18,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc13Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc13Y#0000</v>
       </c>
       <c r="F18" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -14429,7 +14431,7 @@
       </c>
       <c r="E19" s="171" t="str">
         <f>_xll.qlSwapIndex($D19,FixingType,B19,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc14Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc14Y#0000</v>
       </c>
       <c r="F19" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -14451,7 +14453,7 @@
       </c>
       <c r="E20" s="171" t="str">
         <f>_xll.qlSwapIndex($D20,FixingType,B20,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc15Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc15Y#0000</v>
       </c>
       <c r="F20" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -14473,7 +14475,7 @@
       </c>
       <c r="E21" s="171" t="str">
         <f>_xll.qlSwapIndex($D21,FixingType,B21,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc16Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc16Y#0000</v>
       </c>
       <c r="F21" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -14495,7 +14497,7 @@
       </c>
       <c r="E22" s="171" t="str">
         <f>_xll.qlSwapIndex($D22,FixingType,B22,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc17Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc17Y#0000</v>
       </c>
       <c r="F22" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -14517,7 +14519,7 @@
       </c>
       <c r="E23" s="171" t="str">
         <f>_xll.qlSwapIndex($D23,FixingType,B23,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc18Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc18Y#0000</v>
       </c>
       <c r="F23" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -14539,7 +14541,7 @@
       </c>
       <c r="E24" s="171" t="str">
         <f>_xll.qlSwapIndex($D24,FixingType,B24,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc19Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc19Y#0000</v>
       </c>
       <c r="F24" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -14561,7 +14563,7 @@
       </c>
       <c r="E25" s="171" t="str">
         <f>_xll.qlSwapIndex($D25,FixingType,B25,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc20Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc20Y#0000</v>
       </c>
       <c r="F25" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -14583,7 +14585,7 @@
       </c>
       <c r="E26" s="171" t="str">
         <f>_xll.qlSwapIndex($D26,FixingType,B26,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc21Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc21Y#0000</v>
       </c>
       <c r="F26" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -14605,7 +14607,7 @@
       </c>
       <c r="E27" s="171" t="str">
         <f>_xll.qlSwapIndex($D27,FixingType,B27,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc22Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc22Y#0000</v>
       </c>
       <c r="F27" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -14627,7 +14629,7 @@
       </c>
       <c r="E28" s="171" t="str">
         <f>_xll.qlSwapIndex($D28,FixingType,B28,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc23Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc23Y#0000</v>
       </c>
       <c r="F28" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -14649,7 +14651,7 @@
       </c>
       <c r="E29" s="171" t="str">
         <f>_xll.qlSwapIndex($D29,FixingType,B29,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc24Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc24Y#0000</v>
       </c>
       <c r="F29" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -14671,7 +14673,7 @@
       </c>
       <c r="E30" s="171" t="str">
         <f>_xll.qlSwapIndex($D30,FixingType,B30,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc25Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc25Y#0000</v>
       </c>
       <c r="F30" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -14693,7 +14695,7 @@
       </c>
       <c r="E31" s="171" t="str">
         <f>_xll.qlSwapIndex($D31,FixingType,B31,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc26Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc26Y#0000</v>
       </c>
       <c r="F31" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -14715,7 +14717,7 @@
       </c>
       <c r="E32" s="171" t="str">
         <f>_xll.qlSwapIndex($D32,FixingType,B32,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc27Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc27Y#0000</v>
       </c>
       <c r="F32" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E32)</f>
@@ -14737,7 +14739,7 @@
       </c>
       <c r="E33" s="171" t="str">
         <f>_xll.qlSwapIndex($D33,FixingType,B33,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc28Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc28Y#0000</v>
       </c>
       <c r="F33" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E33)</f>
@@ -14759,7 +14761,7 @@
       </c>
       <c r="E34" s="171" t="str">
         <f>_xll.qlSwapIndex($D34,FixingType,B34,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc29Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc29Y#0000</v>
       </c>
       <c r="F34" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E34)</f>
@@ -14781,7 +14783,7 @@
       </c>
       <c r="E35" s="171" t="str">
         <f>_xll.qlSwapIndex($D35,FixingType,B35,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc30Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc30Y#0000</v>
       </c>
       <c r="F35" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E35)</f>
@@ -14803,7 +14805,7 @@
       </c>
       <c r="E36" s="171" t="str">
         <f>_xll.qlSwapIndex($D36,FixingType,B36,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc31Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc31Y#0000</v>
       </c>
       <c r="F36" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E36)</f>
@@ -14825,7 +14827,7 @@
       </c>
       <c r="E37" s="171" t="str">
         <f>_xll.qlSwapIndex($D37,FixingType,B37,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc32Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc32Y#0000</v>
       </c>
       <c r="F37" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E37)</f>
@@ -14847,7 +14849,7 @@
       </c>
       <c r="E38" s="171" t="str">
         <f>_xll.qlSwapIndex($D38,FixingType,B38,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc33Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc33Y#0000</v>
       </c>
       <c r="F38" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E38)</f>
@@ -14869,7 +14871,7 @@
       </c>
       <c r="E39" s="171" t="str">
         <f>_xll.qlSwapIndex($D39,FixingType,B39,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc34Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc34Y#0000</v>
       </c>
       <c r="F39" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E39)</f>
@@ -14891,7 +14893,7 @@
       </c>
       <c r="E40" s="171" t="str">
         <f>_xll.qlSwapIndex($D40,FixingType,B40,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc35Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc35Y#0000</v>
       </c>
       <c r="F40" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E40)</f>
@@ -14913,7 +14915,7 @@
       </c>
       <c r="E41" s="171" t="str">
         <f>_xll.qlSwapIndex($D41,FixingType,B41,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc36Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc36Y#0000</v>
       </c>
       <c r="F41" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E41)</f>
@@ -14935,7 +14937,7 @@
       </c>
       <c r="E42" s="171" t="str">
         <f>_xll.qlSwapIndex($D42,FixingType,B42,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc37Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc37Y#0000</v>
       </c>
       <c r="F42" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E42)</f>
@@ -14957,7 +14959,7 @@
       </c>
       <c r="E43" s="171" t="str">
         <f>_xll.qlSwapIndex($D43,FixingType,B43,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc38Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc38Y#0000</v>
       </c>
       <c r="F43" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E43)</f>
@@ -14979,7 +14981,7 @@
       </c>
       <c r="E44" s="171" t="str">
         <f>_xll.qlSwapIndex($D44,FixingType,B44,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc39Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc39Y#0000</v>
       </c>
       <c r="F44" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E44)</f>
@@ -15001,7 +15003,7 @@
       </c>
       <c r="E45" s="171" t="str">
         <f>_xll.qlSwapIndex($D45,FixingType,B45,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc40Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc40Y#0000</v>
       </c>
       <c r="F45" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E45)</f>
@@ -15023,7 +15025,7 @@
       </c>
       <c r="E46" s="171" t="str">
         <f>_xll.qlSwapIndex($D46,FixingType,B46,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc41Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc41Y#0000</v>
       </c>
       <c r="F46" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E46)</f>
@@ -15045,7 +15047,7 @@
       </c>
       <c r="E47" s="171" t="str">
         <f>_xll.qlSwapIndex($D47,FixingType,B47,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc42Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc42Y#0000</v>
       </c>
       <c r="F47" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E47)</f>
@@ -15067,7 +15069,7 @@
       </c>
       <c r="E48" s="171" t="str">
         <f>_xll.qlSwapIndex($D48,FixingType,B48,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc43Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc43Y#0000</v>
       </c>
       <c r="F48" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E48)</f>
@@ -15089,7 +15091,7 @@
       </c>
       <c r="E49" s="171" t="str">
         <f>_xll.qlSwapIndex($D49,FixingType,B49,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc44Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc44Y#0000</v>
       </c>
       <c r="F49" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E49)</f>
@@ -15111,7 +15113,7 @@
       </c>
       <c r="E50" s="171" t="str">
         <f>_xll.qlSwapIndex($D50,FixingType,B50,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc45Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc45Y#0000</v>
       </c>
       <c r="F50" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E50)</f>
@@ -15133,7 +15135,7 @@
       </c>
       <c r="E51" s="171" t="str">
         <f>_xll.qlSwapIndex($D51,FixingType,B51,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc46Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc46Y#0000</v>
       </c>
       <c r="F51" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E51)</f>
@@ -15155,7 +15157,7 @@
       </c>
       <c r="E52" s="171" t="str">
         <f>_xll.qlSwapIndex($D52,FixingType,B52,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc47Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc47Y#0000</v>
       </c>
       <c r="F52" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E52)</f>
@@ -15177,7 +15179,7 @@
       </c>
       <c r="E53" s="171" t="str">
         <f>_xll.qlSwapIndex($D53,FixingType,B53,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc48Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc48Y#0000</v>
       </c>
       <c r="F53" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E53)</f>
@@ -15199,7 +15201,7 @@
       </c>
       <c r="E54" s="171" t="str">
         <f>_xll.qlSwapIndex($D54,FixingType,B54,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc49Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc49Y#0000</v>
       </c>
       <c r="F54" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E54)</f>
@@ -15221,7 +15223,7 @@
       </c>
       <c r="E55" s="171" t="str">
         <f>_xll.qlSwapIndex($D55,FixingType,B55,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc50Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc50Y#0000</v>
       </c>
       <c r="F55" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E55)</f>
@@ -15243,7 +15245,7 @@
       </c>
       <c r="E56" s="171" t="str">
         <f>_xll.qlSwapIndex($D56,FixingType,B56,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc51Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc51Y#0000</v>
       </c>
       <c r="F56" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E56)</f>
@@ -15265,7 +15267,7 @@
       </c>
       <c r="E57" s="171" t="str">
         <f>_xll.qlSwapIndex($D57,FixingType,B57,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc52Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc52Y#0000</v>
       </c>
       <c r="F57" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E57)</f>
@@ -15287,7 +15289,7 @@
       </c>
       <c r="E58" s="171" t="str">
         <f>_xll.qlSwapIndex($D58,FixingType,B58,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc53Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc53Y#0000</v>
       </c>
       <c r="F58" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E58)</f>
@@ -15309,7 +15311,7 @@
       </c>
       <c r="E59" s="171" t="str">
         <f>_xll.qlSwapIndex($D59,FixingType,B59,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc54Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc54Y#0000</v>
       </c>
       <c r="F59" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E59)</f>
@@ -15331,7 +15333,7 @@
       </c>
       <c r="E60" s="171" t="str">
         <f>_xll.qlSwapIndex($D60,FixingType,B60,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc55Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc55Y#0000</v>
       </c>
       <c r="F60" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E60)</f>
@@ -15353,7 +15355,7 @@
       </c>
       <c r="E61" s="171" t="str">
         <f>_xll.qlSwapIndex($D61,FixingType,B61,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc56Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc56Y#0000</v>
       </c>
       <c r="F61" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E61)</f>
@@ -15375,7 +15377,7 @@
       </c>
       <c r="E62" s="171" t="str">
         <f>_xll.qlSwapIndex($D62,FixingType,B62,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc57Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc57Y#0000</v>
       </c>
       <c r="F62" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E62)</f>
@@ -15397,7 +15399,7 @@
       </c>
       <c r="E63" s="171" t="str">
         <f>_xll.qlSwapIndex($D63,FixingType,B63,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc58Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc58Y#0000</v>
       </c>
       <c r="F63" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E63)</f>
@@ -15419,7 +15421,7 @@
       </c>
       <c r="E64" s="171" t="str">
         <f>_xll.qlSwapIndex($D64,FixingType,B64,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc59Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc59Y#0000</v>
       </c>
       <c r="F64" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(E64)</f>
@@ -15441,7 +15443,7 @@
       </c>
       <c r="E65" s="177" t="str">
         <f>_xll.qlSwapIndex($D65,FixingType,B65,2,Currency,Calendar,"6M","mf","act/365",JPYLibor!$E$10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapForBasisCalc60Y#0002</v>
+        <v>JpyLiborSwapForBasisCalc60Y#0000</v>
       </c>
       <c r="F65" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(E65)</f>
@@ -15557,7 +15559,7 @@
       <c r="P2" s="212"/>
       <c r="Q2" s="67">
         <f>_xll.ohTrigger(Q5:Q11)</f>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="R2" s="214"/>
     </row>
@@ -15626,7 +15628,7 @@
       </c>
       <c r="D5" s="194" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSND_Quote#0005</v>
+        <v>JPYSND_Quote#0000</v>
       </c>
       <c r="E5" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -15672,7 +15674,7 @@
       </c>
       <c r="D6" s="194" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYSWD_Quote#0014</v>
+        <v>JPYSWD_Quote#0000</v>
       </c>
       <c r="E6" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -15717,7 +15719,7 @@
       </c>
       <c r="D7" s="194" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY1MD_Quote#0014</v>
+        <v>JPY1MD_Quote#0000</v>
       </c>
       <c r="E7" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -15762,7 +15764,7 @@
       </c>
       <c r="D8" s="194" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY2MD_Quote#0014</v>
+        <v>JPY2MD_Quote#0000</v>
       </c>
       <c r="E8" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -15807,7 +15809,7 @@
       </c>
       <c r="D9" s="194" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3MD_Quote#0014</v>
+        <v>JPY3MD_Quote#0000</v>
       </c>
       <c r="E9" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -15852,7 +15854,7 @@
       </c>
       <c r="D10" s="194" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY6MD_Quote#0014</v>
+        <v>JPY6MD_Quote#0000</v>
       </c>
       <c r="E10" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -15897,7 +15899,7 @@
       </c>
       <c r="D11" s="197" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY1YD_Quote#0014</v>
+        <v>JPY1YD_Quote#0000</v>
       </c>
       <c r="E11" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -16084,7 +16086,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="240">
         <f>_xll.ohTrigger(X5:X24)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="183"/>
     </row>
@@ -16140,7 +16142,7 @@
       </c>
       <c r="O4" s="222" t="str">
         <f>_xll.RData(O5:O58,P4:Q4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 10:07:56</v>
+        <v>Updated at 09:33:12</v>
       </c>
       <c r="P4" s="223" t="s">
         <v>136</v>
@@ -16183,7 +16185,7 @@
       </c>
       <c r="F5" s="175" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOISSW_Quote#0002</v>
+        <v>JPYOISSW_Quote#0000</v>
       </c>
       <c r="G5" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -16251,7 +16253,7 @@
       </c>
       <c r="F6" s="194" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS2W_Quote#0002</v>
+        <v>JPYOIS2W_Quote#0000</v>
       </c>
       <c r="G6" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -16318,7 +16320,7 @@
       </c>
       <c r="F7" s="194" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS3W_Quote#0002</v>
+        <v>JPYOIS3W_Quote#0000</v>
       </c>
       <c r="G7" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -16385,7 +16387,7 @@
       </c>
       <c r="F8" s="194" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS1M_Quote#0002</v>
+        <v>JPYOIS1M_Quote#0000</v>
       </c>
       <c r="G8" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -16409,14 +16411,14 @@
         <v>JPY1MOIS=ICAP</v>
       </c>
       <c r="P8" s="274">
-        <v>5.2500000000000005E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q8" s="274">
-        <v>9.2499999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="R8" s="230">
         <f t="shared" si="5"/>
-        <v>7.2500000000000009E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S8" s="230">
         <f t="shared" si="3"/>
@@ -16428,11 +16430,11 @@
       </c>
       <c r="V8" s="191"/>
       <c r="W8" s="230">
-        <v>7.2500000000000009E-2</v>
-      </c>
-      <c r="X8" s="230" t="e">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X8" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F8,W8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="Y8" s="63"/>
     </row>
@@ -16452,7 +16454,7 @@
       </c>
       <c r="F9" s="194" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS2M_Quote#0002</v>
+        <v>JPYOIS2M_Quote#0000</v>
       </c>
       <c r="G9" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -16476,14 +16478,14 @@
         <v>JPY2MOIS=ICAP</v>
       </c>
       <c r="P9" s="274">
-        <v>5.2500000000000005E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="Q9" s="274">
-        <v>9.2499999999999999E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="R9" s="230">
         <f t="shared" si="5"/>
-        <v>7.2500000000000009E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="S9" s="230">
         <f t="shared" si="3"/>
@@ -16495,11 +16497,11 @@
       </c>
       <c r="V9" s="191"/>
       <c r="W9" s="230">
-        <v>7.2500000000000009E-2</v>
-      </c>
-      <c r="X9" s="230" t="e">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="X9" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F9,W9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-5.0000000000000023E-5</v>
       </c>
       <c r="Y9" s="63"/>
     </row>
@@ -16519,7 +16521,7 @@
       </c>
       <c r="F10" s="194" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS3M_Quote#0002</v>
+        <v>JPYOIS3M_Quote#0000</v>
       </c>
       <c r="G10" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -16543,14 +16545,14 @@
         <v>JPY3MOIS=ICAP</v>
       </c>
       <c r="P10" s="274">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q10" s="274">
-        <v>0.09</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="R10" s="230">
         <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="S10" s="230">
         <f t="shared" si="3"/>
@@ -16562,11 +16564,11 @@
       </c>
       <c r="V10" s="191"/>
       <c r="W10" s="230">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="X10" s="230" t="e">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="X10" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Y10" s="63"/>
     </row>
@@ -16586,7 +16588,7 @@
       </c>
       <c r="F11" s="194" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS4M_Quote#0002</v>
+        <v>JPYOIS4M_Quote#0000</v>
       </c>
       <c r="G11" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -16610,18 +16612,18 @@
         <v>JPY4MOIS=ICAP</v>
       </c>
       <c r="P11" s="274">
-        <v>4.7500000000000001E-2</v>
+        <v>4.2499999999999996E-2</v>
       </c>
       <c r="Q11" s="274">
-        <v>8.7499999999999994E-2</v>
+        <v>8.249999999999999E-2</v>
       </c>
       <c r="R11" s="230">
         <f t="shared" si="5"/>
-        <v>6.7500000000000004E-2</v>
+        <v>6.2499999999999993E-2</v>
       </c>
       <c r="S11" s="230">
         <f t="shared" si="3"/>
-        <v>4.0000000000000008E-2</v>
+        <v>3.9999999999999994E-2</v>
       </c>
       <c r="T11" s="191"/>
       <c r="U11" s="230">
@@ -16629,11 +16631,11 @@
       </c>
       <c r="V11" s="191"/>
       <c r="W11" s="230">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="X11" s="230" t="e">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="X11" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Y11" s="63"/>
     </row>
@@ -16653,7 +16655,7 @@
       </c>
       <c r="F12" s="194" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS5M_Quote#0002</v>
+        <v>JPYOIS5M_Quote#0000</v>
       </c>
       <c r="G12" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -16677,18 +16679,18 @@
         <v>JPY5MOIS=ICAP</v>
       </c>
       <c r="P12" s="274">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q12" s="274">
-        <v>8.4999999999999992E-2</v>
+        <v>0.08</v>
       </c>
       <c r="R12" s="230">
         <f t="shared" si="5"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="S12" s="230">
         <f t="shared" si="3"/>
-        <v>4.0000000000000008E-2</v>
+        <v>3.9999999999999994E-2</v>
       </c>
       <c r="T12" s="191"/>
       <c r="U12" s="230">
@@ -16696,11 +16698,11 @@
       </c>
       <c r="V12" s="191"/>
       <c r="W12" s="230">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="X12" s="230" t="e">
+        <v>0.06</v>
+      </c>
+      <c r="X12" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-5.0000000000000023E-5</v>
       </c>
       <c r="Y12" s="63"/>
     </row>
@@ -16720,7 +16722,7 @@
       </c>
       <c r="F13" s="194" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS6M_Quote#0002</v>
+        <v>JPYOIS6M_Quote#0000</v>
       </c>
       <c r="G13" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -16744,14 +16746,14 @@
         <v>JPY6MOIS=ICAP</v>
       </c>
       <c r="P13" s="274">
-        <v>4.2499999999999996E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q13" s="274">
-        <v>8.249999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="R13" s="230">
         <f t="shared" si="5"/>
-        <v>6.2499999999999993E-2</v>
+        <v>0.06</v>
       </c>
       <c r="S13" s="230">
         <f t="shared" si="3"/>
@@ -16763,11 +16765,11 @@
       </c>
       <c r="V13" s="191"/>
       <c r="W13" s="230">
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="X13" s="230" t="e">
+        <v>0.06</v>
+      </c>
+      <c r="X13" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="Y13" s="63"/>
     </row>
@@ -16787,7 +16789,7 @@
       </c>
       <c r="F14" s="194" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS7M_Quote#0002</v>
+        <v>JPYOIS7M_Quote#0000</v>
       </c>
       <c r="G14" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -16854,7 +16856,7 @@
       </c>
       <c r="F15" s="194" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS8M_Quote#0002</v>
+        <v>JPYOIS8M_Quote#0000</v>
       </c>
       <c r="G15" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -16921,7 +16923,7 @@
       </c>
       <c r="F16" s="194" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS9M_Quote#0002</v>
+        <v>JPYOIS9M_Quote#0000</v>
       </c>
       <c r="G16" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -16945,14 +16947,14 @@
         <v>JPY9MOIS=ICAP</v>
       </c>
       <c r="P16" s="274">
-        <v>3.7499999999999999E-2</v>
+        <v>3.4999999999999996E-2</v>
       </c>
       <c r="Q16" s="274">
-        <v>7.7499999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R16" s="230">
         <f t="shared" si="5"/>
-        <v>5.7499999999999996E-2</v>
+        <v>5.4999999999999993E-2</v>
       </c>
       <c r="S16" s="230">
         <f t="shared" si="3"/>
@@ -16964,11 +16966,11 @@
       </c>
       <c r="V16" s="191"/>
       <c r="W16" s="230">
-        <v>5.7499999999999996E-2</v>
-      </c>
-      <c r="X16" s="230" t="e">
+        <v>5.4999999999999993E-2</v>
+      </c>
+      <c r="X16" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-2.5000000000000066E-5</v>
       </c>
       <c r="Y16" s="63"/>
     </row>
@@ -16988,7 +16990,7 @@
       </c>
       <c r="F17" s="194" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS10M_Quote#0002</v>
+        <v>JPYOIS10M_Quote#0000</v>
       </c>
       <c r="G17" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -17055,7 +17057,7 @@
       </c>
       <c r="F18" s="194" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS11M_Quote#0002</v>
+        <v>JPYOIS11M_Quote#0000</v>
       </c>
       <c r="G18" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -17122,7 +17124,7 @@
       </c>
       <c r="F19" s="194" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS1Y_Quote#0002</v>
+        <v>JPYOIS1Y_Quote#0000</v>
       </c>
       <c r="G19" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -17146,14 +17148,14 @@
         <v>JPY1YOIS=ICAP</v>
       </c>
       <c r="P19" s="274">
-        <v>3.2500000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Q19" s="274">
-        <v>7.2499999999999995E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="R19" s="230">
         <f t="shared" si="5"/>
-        <v>5.2499999999999998E-2</v>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="S19" s="230">
         <f t="shared" si="3"/>
@@ -17165,11 +17167,11 @@
       </c>
       <c r="V19" s="191"/>
       <c r="W19" s="230">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="X19" s="230" t="e">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="X19" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F19,W19/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="Y19" s="63"/>
     </row>
@@ -17189,7 +17191,7 @@
       </c>
       <c r="F20" s="194" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS13M_Quote#0002</v>
+        <v>JPYOIS13M_Quote#0000</v>
       </c>
       <c r="G20" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -17256,7 +17258,7 @@
       </c>
       <c r="F21" s="194" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS14M_Quote#0002</v>
+        <v>JPYOIS14M_Quote#0000</v>
       </c>
       <c r="G21" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -17324,7 +17326,7 @@
       </c>
       <c r="F22" s="194" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS15M_Quote#0002</v>
+        <v>JPYOIS15M_Quote#0000</v>
       </c>
       <c r="G22" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -17391,7 +17393,7 @@
       </c>
       <c r="F23" s="194" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS16M_Quote#0002</v>
+        <v>JPYOIS16M_Quote#0000</v>
       </c>
       <c r="G23" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -17458,7 +17460,7 @@
       </c>
       <c r="F24" s="194" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS17M_Quote#0002</v>
+        <v>JPYOIS17M_Quote#0000</v>
       </c>
       <c r="G24" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -17525,7 +17527,7 @@
       </c>
       <c r="F25" s="194" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS18M_Quote#0002</v>
+        <v>JPYOIS18M_Quote#0000</v>
       </c>
       <c r="G25" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -17549,14 +17551,14 @@
         <v>JPY18MOIS=ICAP</v>
       </c>
       <c r="P25" s="274">
-        <v>2.7500000000000004E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q25" s="274">
-        <v>6.7500000000000004E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="R25" s="230">
         <f t="shared" si="5"/>
-        <v>4.7500000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="S25" s="230">
         <f t="shared" si="3"/>
@@ -17568,11 +17570,11 @@
       </c>
       <c r="V25" s="191"/>
       <c r="W25" s="230">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="X25" s="230" t="e">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="X25" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F25,W25/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-2.5000000000000011E-5</v>
       </c>
       <c r="Y25" s="63"/>
     </row>
@@ -17592,7 +17594,7 @@
       </c>
       <c r="F26" s="194" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS19M_Quote#0002</v>
+        <v>JPYOIS19M_Quote#0000</v>
       </c>
       <c r="G26" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -17659,7 +17661,7 @@
       </c>
       <c r="F27" s="194" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS20M_Quote#0002</v>
+        <v>JPYOIS20M_Quote#0000</v>
       </c>
       <c r="G27" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -17726,7 +17728,7 @@
       </c>
       <c r="F28" s="194" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS21M_Quote#0002</v>
+        <v>JPYOIS21M_Quote#0000</v>
       </c>
       <c r="G28" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -17793,7 +17795,7 @@
       </c>
       <c r="F29" s="194" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS22M_Quote#0002</v>
+        <v>JPYOIS22M_Quote#0000</v>
       </c>
       <c r="G29" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -17860,7 +17862,7 @@
       </c>
       <c r="F30" s="194" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS23M_Quote#0002</v>
+        <v>JPYOIS23M_Quote#0000</v>
       </c>
       <c r="G30" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -17927,7 +17929,7 @@
       </c>
       <c r="F31" s="194" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS2Y_Quote#0002</v>
+        <v>JPYOIS2Y_Quote#0000</v>
       </c>
       <c r="G31" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -17951,14 +17953,14 @@
         <v>JPY2YOIS=ICAP</v>
       </c>
       <c r="P31" s="274">
-        <v>2.5000000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Q31" s="274">
-        <v>6.5000000000000002E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="R31" s="230">
         <f t="shared" si="5"/>
-        <v>4.4999999999999998E-2</v>
+        <v>4.2499999999999996E-2</v>
       </c>
       <c r="S31" s="230">
         <f t="shared" si="3"/>
@@ -17970,11 +17972,11 @@
       </c>
       <c r="V31" s="191"/>
       <c r="W31" s="230">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="X31" s="230" t="e">
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="X31" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F31,W31/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-2.5000000000000011E-5</v>
       </c>
       <c r="Y31" s="63"/>
     </row>
@@ -17994,7 +17996,7 @@
       </c>
       <c r="F32" s="194" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS27M_Quote#0002</v>
+        <v>JPYOIS27M_Quote#0000</v>
       </c>
       <c r="G32" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -18061,7 +18063,7 @@
       </c>
       <c r="F33" s="194" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS30M_Quote#0002</v>
+        <v>JPYOIS30M_Quote#0000</v>
       </c>
       <c r="G33" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -18128,7 +18130,7 @@
       </c>
       <c r="F34" s="194" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS33M_Quote#0002</v>
+        <v>JPYOIS33M_Quote#0000</v>
       </c>
       <c r="G34" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -18195,7 +18197,7 @@
       </c>
       <c r="F35" s="194" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS3Y_Quote#0002</v>
+        <v>JPYOIS3Y_Quote#0000</v>
       </c>
       <c r="G35" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -18240,9 +18242,9 @@
       <c r="W35" s="230">
         <v>5.2499999999999991E-2</v>
       </c>
-      <c r="X35" s="230" t="e">
+      <c r="X35" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F35,W35/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="63"/>
     </row>
@@ -18262,7 +18264,7 @@
       </c>
       <c r="F36" s="194" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS39M_Quote#0002</v>
+        <v>JPYOIS39M_Quote#0000</v>
       </c>
       <c r="G36" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -18329,7 +18331,7 @@
       </c>
       <c r="F37" s="194" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS42M_Quote#0002</v>
+        <v>JPYOIS42M_Quote#0000</v>
       </c>
       <c r="G37" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -18349,7 +18351,7 @@
         <v>JPY42MOIS</v>
       </c>
       <c r="O37" s="234" t="str">
-        <f t="shared" ref="O37:O68" si="8">N37&amp;"="&amp;VLOOKUP(Contributor,ContributorTable,2,FALSE)</f>
+        <f t="shared" ref="O37:O58" si="8">N37&amp;"="&amp;VLOOKUP(Contributor,ContributorTable,2,FALSE)</f>
         <v>JPY42MOIS=ICAP</v>
       </c>
       <c r="P37" s="274" t="s">
@@ -18363,7 +18365,7 @@
         <v>#NUM!</v>
       </c>
       <c r="S37" s="230" t="e">
-        <f t="shared" ref="S37:S68" si="9">(R37-P37)*2</f>
+        <f t="shared" ref="S37:S58" si="9">(R37-P37)*2</f>
         <v>#NUM!</v>
       </c>
       <c r="T37" s="191"/>
@@ -18396,7 +18398,7 @@
       </c>
       <c r="F38" s="194" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS45M_Quote#0002</v>
+        <v>JPYOIS45M_Quote#0000</v>
       </c>
       <c r="G38" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -18463,7 +18465,7 @@
       </c>
       <c r="F39" s="194" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS4Y_Quote#0002</v>
+        <v>JPYOIS4Y_Quote#0000</v>
       </c>
       <c r="G39" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -18508,9 +18510,9 @@
       <c r="W39" s="230">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X39" s="230" t="e">
+      <c r="X39" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F39,W39/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="63"/>
     </row>
@@ -18530,7 +18532,7 @@
       </c>
       <c r="F40" s="194" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS51M_Quote#0002</v>
+        <v>JPYOIS51M_Quote#0000</v>
       </c>
       <c r="G40" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -18597,7 +18599,7 @@
       </c>
       <c r="F41" s="194" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS54M_Quote#0002</v>
+        <v>JPYOIS54M_Quote#0000</v>
       </c>
       <c r="G41" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -18664,7 +18666,7 @@
       </c>
       <c r="F42" s="194" t="str">
         <f>_xll.qlSimpleQuote(E42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS57M_Quote#0002</v>
+        <v>JPYOIS57M_Quote#0000</v>
       </c>
       <c r="G42" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -18731,7 +18733,7 @@
       </c>
       <c r="F43" s="194" t="str">
         <f>_xll.qlSimpleQuote(E43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS5Y_Quote#0002</v>
+        <v>JPYOIS5Y_Quote#0000</v>
       </c>
       <c r="G43" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -18776,9 +18778,9 @@
       <c r="W43" s="230">
         <v>0.11750000000000001</v>
       </c>
-      <c r="X43" s="230" t="e">
+      <c r="X43" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F43,W43/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="63"/>
     </row>
@@ -18798,7 +18800,7 @@
       </c>
       <c r="F44" s="194" t="str">
         <f>_xll.qlSimpleQuote(E44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS6Y_Quote#0002</v>
+        <v>JPYOIS6Y_Quote#0000</v>
       </c>
       <c r="G44" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -18843,9 +18845,9 @@
       <c r="W44" s="230">
         <v>0.16499999999999998</v>
       </c>
-      <c r="X44" s="230" t="e">
+      <c r="X44" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F44,W44/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="63"/>
     </row>
@@ -18865,7 +18867,7 @@
       </c>
       <c r="F45" s="194" t="str">
         <f>_xll.qlSimpleQuote(E45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS7Y_Quote#0002</v>
+        <v>JPYOIS7Y_Quote#0000</v>
       </c>
       <c r="G45" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -18910,9 +18912,9 @@
       <c r="W45" s="230">
         <v>0.21749999999999997</v>
       </c>
-      <c r="X45" s="230" t="e">
+      <c r="X45" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F45,W45/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="63"/>
     </row>
@@ -18932,7 +18934,7 @@
       </c>
       <c r="F46" s="194" t="str">
         <f>_xll.qlSimpleQuote(E46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS8Y_Quote#0002</v>
+        <v>JPYOIS8Y_Quote#0000</v>
       </c>
       <c r="G46" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -18977,9 +18979,9 @@
       <c r="W46" s="230">
         <v>0.27</v>
       </c>
-      <c r="X46" s="230" t="e">
+      <c r="X46" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F46,W46/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="63"/>
     </row>
@@ -18999,7 +19001,7 @@
       </c>
       <c r="F47" s="194" t="str">
         <f>_xll.qlSimpleQuote(E47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS9Y_Quote#0002</v>
+        <v>JPYOIS9Y_Quote#0000</v>
       </c>
       <c r="G47" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -19044,9 +19046,9 @@
       <c r="W47" s="230">
         <v>0.32750000000000001</v>
       </c>
-      <c r="X47" s="230" t="e">
+      <c r="X47" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F47,W47/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="63"/>
     </row>
@@ -19066,7 +19068,7 @@
       </c>
       <c r="F48" s="194" t="str">
         <f>_xll.qlSimpleQuote(E48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS10Y_Quote#0002</v>
+        <v>JPYOIS10Y_Quote#0000</v>
       </c>
       <c r="G48" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -19111,9 +19113,9 @@
       <c r="W48" s="230">
         <v>0.38750000000000001</v>
       </c>
-      <c r="X48" s="230" t="e">
+      <c r="X48" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F48,W48/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="63"/>
     </row>
@@ -19133,7 +19135,7 @@
       </c>
       <c r="F49" s="194" t="str">
         <f>_xll.qlSimpleQuote(E49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS12Y_Quote#0002</v>
+        <v>JPYOIS12Y_Quote#0000</v>
       </c>
       <c r="G49" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -19178,9 +19180,9 @@
       <c r="W49" s="230">
         <v>0.51749999999999996</v>
       </c>
-      <c r="X49" s="230" t="e">
+      <c r="X49" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F49,W49/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="63"/>
     </row>
@@ -19200,7 +19202,7 @@
       </c>
       <c r="F50" s="194" t="str">
         <f>_xll.qlSimpleQuote(E50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS15Y_Quote#0002</v>
+        <v>JPYOIS15Y_Quote#0000</v>
       </c>
       <c r="G50" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -19245,9 +19247,9 @@
       <c r="W50" s="230">
         <v>0.73249999999999993</v>
       </c>
-      <c r="X50" s="230" t="e">
+      <c r="X50" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F50,W50/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="63"/>
     </row>
@@ -19267,7 +19269,7 @@
       </c>
       <c r="F51" s="194" t="str">
         <f>_xll.qlSimpleQuote(E51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS20Y_Quote#0002</v>
+        <v>JPYOIS20Y_Quote#0000</v>
       </c>
       <c r="G51" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -19312,9 +19314,9 @@
       <c r="W51" s="230">
         <v>1.0049999999999999</v>
       </c>
-      <c r="X51" s="230" t="e">
+      <c r="X51" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F51,W51/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="63"/>
     </row>
@@ -19334,7 +19336,7 @@
       </c>
       <c r="F52" s="194" t="str">
         <f>_xll.qlSimpleQuote(E52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS25Y_Quote#0002</v>
+        <v>JPYOIS25Y_Quote#0000</v>
       </c>
       <c r="G52" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -19379,9 +19381,9 @@
       <c r="W52" s="230">
         <v>1.1524999999999999</v>
       </c>
-      <c r="X52" s="230" t="e">
+      <c r="X52" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F52,W52/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="63"/>
     </row>
@@ -19401,7 +19403,7 @@
       </c>
       <c r="F53" s="194" t="str">
         <f>_xll.qlSimpleQuote(E53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS27Y_Quote#0002</v>
+        <v>JPYOIS27Y_Quote#0000</v>
       </c>
       <c r="G53" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -19468,7 +19470,7 @@
       </c>
       <c r="F54" s="194" t="str">
         <f>_xll.qlSimpleQuote(E54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS30Y_Quote#0002</v>
+        <v>JPYOIS30Y_Quote#0000</v>
       </c>
       <c r="G54" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -19513,9 +19515,9 @@
       <c r="W54" s="230">
         <v>1.2324999999999999</v>
       </c>
-      <c r="X54" s="230" t="e">
+      <c r="X54" s="230">
         <f>_xll.qlSimpleQuoteSetValue(F54,W54/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="63"/>
     </row>
@@ -19535,7 +19537,7 @@
       </c>
       <c r="F55" s="194" t="str">
         <f>_xll.qlSimpleQuote(E55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS35Y_Quote#0002</v>
+        <v>JPYOIS35Y_Quote#0000</v>
       </c>
       <c r="G55" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -19602,7 +19604,7 @@
       </c>
       <c r="F56" s="194" t="str">
         <f>_xll.qlSimpleQuote(E56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS40Y_Quote#0002</v>
+        <v>JPYOIS40Y_Quote#0000</v>
       </c>
       <c r="G56" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -19669,7 +19671,7 @@
       </c>
       <c r="F57" s="194" t="str">
         <f>_xll.qlSimpleQuote(E57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS45Y_Quote#0002</v>
+        <v>JPYOIS45Y_Quote#0000</v>
       </c>
       <c r="G57" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -19736,7 +19738,7 @@
       </c>
       <c r="F58" s="194" t="str">
         <f>_xll.qlSimpleQuote(E58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYOIS50Y_Quote#0002</v>
+        <v>JPYOIS50Y_Quote#0000</v>
       </c>
       <c r="G58" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -19917,7 +19919,7 @@
       <c r="W2" s="33"/>
       <c r="X2" s="270">
         <f>_xll.ohTrigger(X5:X36)</f>
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="6"/>
       <c r="Z2" s="84"/>
@@ -19977,7 +19979,7 @@
       </c>
       <c r="O4" s="204" t="str">
         <f>_xll.RData(O5:O36,P4:Q4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 14:52:58</v>
+        <v>Updated at 09:36:15</v>
       </c>
       <c r="P4" s="252" t="s">
         <v>136</v>
@@ -20025,7 +20027,7 @@
       </c>
       <c r="F5" s="175" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY1x4F_Quote#0002</v>
+        <v>JPY1x4F_Quote#0000</v>
       </c>
       <c r="G5" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -20077,7 +20079,7 @@
       </c>
       <c r="X5" s="205">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/100,Trigger)</f>
-        <v>4.9999999999999914E-5</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="264"/>
       <c r="Z5" s="84"/>
@@ -20102,7 +20104,7 @@
       </c>
       <c r="F6" s="194" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY2x5F_Quote#0002</v>
+        <v>JPY2x5F_Quote#0000</v>
       </c>
       <c r="G6" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -20130,14 +20132,14 @@
         <v>JPY2X5F=ICAP</v>
       </c>
       <c r="P6" s="274">
-        <v>6.9999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q6" s="274">
-        <v>0.09</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="R6" s="208">
         <f t="shared" ref="R6:R36" si="5">IF($R$2,IF(ISNUMBER(P6),P6,#NUM!),IFERROR(AVERAGE(P6:Q6),#NUM!))</f>
-        <v>7.9999999999999988E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="S6" s="208">
         <f t="shared" ref="S6:S36" si="6">(R6-P6)*2</f>
@@ -20149,11 +20151,11 @@
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="208">
-        <v>7.9999999999999988E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="X6" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/100,Trigger)</f>
-        <v>4.9999999999999914E-5</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="264"/>
       <c r="Z6" s="84"/>
@@ -20178,7 +20180,7 @@
       </c>
       <c r="F7" s="194" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3x6F_Quote#0002</v>
+        <v>JPY3x6F_Quote#0000</v>
       </c>
       <c r="G7" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -20206,14 +20208,14 @@
         <v>JPY3X6F=ICAP</v>
       </c>
       <c r="P7" s="274">
-        <v>6.9999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q7" s="274">
-        <v>0.09</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="R7" s="208">
         <f t="shared" si="5"/>
-        <v>7.9999999999999988E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="S7" s="208">
         <f t="shared" si="6"/>
@@ -20225,7 +20227,7 @@
       </c>
       <c r="V7" s="12"/>
       <c r="W7" s="208">
-        <v>7.9999999999999988E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="X7" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F7,W7/100,Trigger)</f>
@@ -20254,7 +20256,7 @@
       </c>
       <c r="F8" s="194" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY4x7F_Quote#0002</v>
+        <v>JPY4x7F_Quote#0000</v>
       </c>
       <c r="G8" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -20282,14 +20284,14 @@
         <v>JPY4X7F=ICAP</v>
       </c>
       <c r="P8" s="274">
-        <v>6.9999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q8" s="274">
-        <v>0.09</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="R8" s="208">
         <f t="shared" si="5"/>
-        <v>7.9999999999999988E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="S8" s="208">
         <f t="shared" si="6"/>
@@ -20301,7 +20303,7 @@
       </c>
       <c r="V8" s="12"/>
       <c r="W8" s="208">
-        <v>7.9999999999999988E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="X8" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F8,W8/100,Trigger)</f>
@@ -20330,7 +20332,7 @@
       </c>
       <c r="F9" s="194" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY5x8F_Quote#0002</v>
+        <v>JPY5x8F_Quote#0000</v>
       </c>
       <c r="G9" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -20358,14 +20360,14 @@
         <v>JPY5X8F=ICAP</v>
       </c>
       <c r="P9" s="274">
-        <v>6.9999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q9" s="274">
-        <v>0.09</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="R9" s="208">
         <f t="shared" si="5"/>
-        <v>7.9999999999999988E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="S9" s="208">
         <f t="shared" si="6"/>
@@ -20377,11 +20379,11 @@
       </c>
       <c r="V9" s="12"/>
       <c r="W9" s="208">
-        <v>7.9999999999999988E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="X9" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F9,W9/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999999914E-5</v>
       </c>
       <c r="Y9" s="264"/>
       <c r="Z9" s="84"/>
@@ -20406,7 +20408,7 @@
       </c>
       <c r="F10" s="194" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY6x9F_Quote#0002</v>
+        <v>JPY6x9F_Quote#0000</v>
       </c>
       <c r="G10" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -20482,7 +20484,7 @@
       </c>
       <c r="F11" s="194" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY9x12F_Quote#0002</v>
+        <v>JPY9x12F_Quote#0000</v>
       </c>
       <c r="G11" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -20510,18 +20512,18 @@
         <v>JPY9X12F=ICAP</v>
       </c>
       <c r="P11" s="274">
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Q11" s="274">
-        <v>8.4999999999999992E-2</v>
+        <v>0.08</v>
       </c>
       <c r="R11" s="208">
         <f t="shared" si="5"/>
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S11" s="208">
         <f t="shared" si="6"/>
-        <v>1.999999999999999E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="208">
@@ -20529,7 +20531,7 @@
       </c>
       <c r="V11" s="12"/>
       <c r="W11" s="208">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="X11" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/100,Trigger)</f>
@@ -20558,7 +20560,7 @@
       </c>
       <c r="F12" s="194" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY12x15F_Quote#0002</v>
+        <v>JPY12x15F_Quote#0000</v>
       </c>
       <c r="G12" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -20586,14 +20588,14 @@
         <v>JPY12X15F=ICAP</v>
       </c>
       <c r="P12" s="274">
-        <v>6.5000000000000002E-2</v>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="Q12" s="274">
-        <v>8.4999999999999992E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R12" s="208">
         <f t="shared" si="5"/>
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="S12" s="208">
         <f t="shared" si="6"/>
@@ -20605,7 +20607,7 @@
       </c>
       <c r="V12" s="12"/>
       <c r="W12" s="208">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="X12" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/100,Trigger)</f>
@@ -20634,7 +20636,7 @@
       </c>
       <c r="F13" s="194" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY15x18F_Quote#0002</v>
+        <v>JPY15x18F_Quote#0000</v>
       </c>
       <c r="G13" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -20662,18 +20664,18 @@
         <v>JPY15X18F=ICAP</v>
       </c>
       <c r="P13" s="274">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Q13" s="274">
-        <v>0.08</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="R13" s="208">
         <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="S13" s="208">
         <f t="shared" si="6"/>
-        <v>2.0000000000000018E-2</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="T13" s="12"/>
       <c r="U13" s="208">
@@ -20681,7 +20683,7 @@
       </c>
       <c r="V13" s="12"/>
       <c r="W13" s="208">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="X13" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/100,Trigger)</f>
@@ -20710,7 +20712,7 @@
       </c>
       <c r="F14" s="194" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY18x21F_Quote#0002</v>
+        <v>JPY18x21F_Quote#0000</v>
       </c>
       <c r="G14" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -20738,18 +20740,18 @@
         <v>JPY18X21F=ICAP</v>
       </c>
       <c r="P14" s="274">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Q14" s="274">
-        <v>0.08</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="R14" s="208">
         <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="S14" s="208">
         <f t="shared" si="6"/>
-        <v>2.0000000000000018E-2</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="T14" s="12"/>
       <c r="U14" s="208">
@@ -20757,7 +20759,7 @@
       </c>
       <c r="V14" s="12"/>
       <c r="W14" s="208">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="X14" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/100,Trigger)</f>
@@ -20786,7 +20788,7 @@
       </c>
       <c r="F15" s="194" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY21x24F_Quote#0002</v>
+        <v>JPY21x24F_Quote#0000</v>
       </c>
       <c r="G15" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -20814,14 +20816,14 @@
         <v>JPY21X24F=ICAP</v>
       </c>
       <c r="P15" s="275">
-        <v>6.5000000000000002E-2</v>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="Q15" s="275">
-        <v>8.4999999999999992E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R15" s="211">
         <f t="shared" si="5"/>
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="S15" s="211">
         <f t="shared" si="6"/>
@@ -20833,7 +20835,7 @@
       </c>
       <c r="V15" s="12"/>
       <c r="W15" s="211">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="X15" s="211">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/100,Trigger)</f>
@@ -20862,7 +20864,7 @@
       </c>
       <c r="F16" s="175" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY1x7F_Quote#0002</v>
+        <v>JPY1x7F_Quote#0000</v>
       </c>
       <c r="G16" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -20938,7 +20940,7 @@
       </c>
       <c r="F17" s="194" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY2x8F_Quote#0002</v>
+        <v>JPY2x8F_Quote#0000</v>
       </c>
       <c r="G17" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -20966,18 +20968,18 @@
         <v>JPY2X8F=ICAP</v>
       </c>
       <c r="P17" s="274">
-        <v>0.11499999999999999</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="Q17" s="274">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="R17" s="208">
         <f t="shared" si="5"/>
-        <v>0.125</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="S17" s="208">
         <f t="shared" si="6"/>
-        <v>2.0000000000000018E-2</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="208">
@@ -20985,7 +20987,7 @@
       </c>
       <c r="V17" s="12"/>
       <c r="W17" s="208">
-        <v>0.125</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="X17" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/100,Trigger)</f>
@@ -21014,7 +21016,7 @@
       </c>
       <c r="F18" s="194" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3x9F_Quote#0002</v>
+        <v>JPY3x9F_Quote#0000</v>
       </c>
       <c r="G18" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -21090,7 +21092,7 @@
       </c>
       <c r="F19" s="194" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY4x10F_Quote#0002</v>
+        <v>JPY4x10F_Quote#0000</v>
       </c>
       <c r="G19" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -21118,14 +21120,14 @@
         <v>JPY4X10F=ICAP</v>
       </c>
       <c r="P19" s="274">
-        <v>0.11000000000000001</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="Q19" s="274">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="R19" s="208">
         <f t="shared" si="5"/>
-        <v>0.12000000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="S19" s="208">
         <f t="shared" si="6"/>
@@ -21137,7 +21139,7 @@
       </c>
       <c r="V19" s="12"/>
       <c r="W19" s="208">
-        <v>0.12000000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="X19" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F19,W19/100,Trigger)</f>
@@ -21166,7 +21168,7 @@
       </c>
       <c r="F20" s="194" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY5x11F_Quote#0002</v>
+        <v>JPY5x11F_Quote#0000</v>
       </c>
       <c r="G20" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -21194,14 +21196,14 @@
         <v>JPY5X11F=ICAP</v>
       </c>
       <c r="P20" s="274">
-        <v>0.10500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Q20" s="274">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="R20" s="208">
         <f t="shared" si="5"/>
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="S20" s="208">
         <f t="shared" si="6"/>
@@ -21213,7 +21215,7 @@
       </c>
       <c r="V20" s="12"/>
       <c r="W20" s="208">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="X20" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/100,Trigger)</f>
@@ -21242,7 +21244,7 @@
       </c>
       <c r="F21" s="194" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY6x12F_Quote#0002</v>
+        <v>JPY6x12F_Quote#0000</v>
       </c>
       <c r="G21" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -21270,14 +21272,14 @@
         <v>JPY6X12F=ICAP</v>
       </c>
       <c r="P21" s="274">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q21" s="274">
-        <v>0.12</v>
+        <v>0.11499999999999999</v>
       </c>
       <c r="R21" s="208">
         <f t="shared" si="5"/>
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="S21" s="208">
         <f t="shared" si="6"/>
@@ -21289,7 +21291,7 @@
       </c>
       <c r="V21" s="12"/>
       <c r="W21" s="208">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="X21" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F21,W21/100,Trigger)</f>
@@ -21318,7 +21320,7 @@
       </c>
       <c r="F22" s="194" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY9x15F_Quote#0002</v>
+        <v>JPY9x15F_Quote#0000</v>
       </c>
       <c r="G22" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -21394,7 +21396,7 @@
       </c>
       <c r="F23" s="194" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY12x18F_Quote#0002</v>
+        <v>JPY12x18F_Quote#0000</v>
       </c>
       <c r="G23" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -21422,18 +21424,18 @@
         <v>JPY12X18F=ICAP</v>
       </c>
       <c r="P23" s="274">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="Q23" s="274">
-        <v>0.11000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R23" s="208">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="S23" s="208">
         <f t="shared" si="6"/>
-        <v>2.0000000000000018E-2</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="T23" s="12"/>
       <c r="U23" s="208">
@@ -21441,7 +21443,7 @@
       </c>
       <c r="V23" s="12"/>
       <c r="W23" s="208">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="X23" s="208">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/100,Trigger)</f>
@@ -21471,7 +21473,7 @@
       </c>
       <c r="F24" s="197" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY18x24F_Quote#0002</v>
+        <v>JPY18x24F_Quote#0000</v>
       </c>
       <c r="G24" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -21499,18 +21501,18 @@
         <v>JPY18X24F=ICAP</v>
       </c>
       <c r="P24" s="275">
-        <v>9.5000000000000001E-2</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="Q24" s="275">
-        <v>0.11499999999999999</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="R24" s="211">
         <f t="shared" si="5"/>
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="S24" s="211">
         <f t="shared" si="6"/>
-        <v>1.999999999999999E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="T24" s="12"/>
       <c r="U24" s="211">
@@ -21518,7 +21520,7 @@
       </c>
       <c r="V24" s="12"/>
       <c r="W24" s="211">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="X24" s="211">
         <f>_xll.qlSimpleQuoteSetValue(F24,W24/100,Trigger)</f>
@@ -21547,7 +21549,7 @@
       </c>
       <c r="F25" s="175" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY1x13F_Quote#0002</v>
+        <v>JPY1x13F_Quote#0000</v>
       </c>
       <c r="G25" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -21623,7 +21625,7 @@
       </c>
       <c r="F26" s="194" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY2x14F_Quote#0002</v>
+        <v>JPY2x14F_Quote#0000</v>
       </c>
       <c r="G26" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -21699,7 +21701,7 @@
       </c>
       <c r="F27" s="194" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY3x15F_Quote#0002</v>
+        <v>JPY3x15F_Quote#0000</v>
       </c>
       <c r="G27" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -21773,7 +21775,7 @@
       </c>
       <c r="F28" s="194" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY4x16F_Quote#0002</v>
+        <v>JPY4x16F_Quote#0000</v>
       </c>
       <c r="G28" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -21847,7 +21849,7 @@
       </c>
       <c r="F29" s="194" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY5x17F_Quote#0002</v>
+        <v>JPY5x17F_Quote#0000</v>
       </c>
       <c r="G29" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -21921,7 +21923,7 @@
       </c>
       <c r="F30" s="194" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY6x18F_Quote#0002</v>
+        <v>JPY6x18F_Quote#0000</v>
       </c>
       <c r="G30" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -21995,7 +21997,7 @@
       </c>
       <c r="F31" s="194" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY7x19F_Quote#0002</v>
+        <v>JPY7x19F_Quote#0000</v>
       </c>
       <c r="G31" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -22069,7 +22071,7 @@
       </c>
       <c r="F32" s="194" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY8x20F_Quote#0002</v>
+        <v>JPY8x20F_Quote#0000</v>
       </c>
       <c r="G32" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -22143,7 +22145,7 @@
       </c>
       <c r="F33" s="194" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY9x21F_Quote#0002</v>
+        <v>JPY9x21F_Quote#0000</v>
       </c>
       <c r="G33" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -22217,7 +22219,7 @@
       </c>
       <c r="F34" s="194" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY10x22F_Quote#0002</v>
+        <v>JPY10x22F_Quote#0000</v>
       </c>
       <c r="G34" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -22291,7 +22293,7 @@
       </c>
       <c r="F35" s="194" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY11x23F_Quote#0002</v>
+        <v>JPY11x23F_Quote#0000</v>
       </c>
       <c r="G35" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -22365,7 +22367,7 @@
       </c>
       <c r="F36" s="197" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPY12x24F_Quote#0002</v>
+        <v>JPY12x24F_Quote#0000</v>
       </c>
       <c r="G36" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -22520,7 +22522,7 @@
       </c>
       <c r="I1" s="276" t="str">
         <f>FuturesHWConvAdj!C5</f>
-        <v>JPYHW_Volatility_Quote#0002</v>
+        <v>JPYHW_Volatility_Quote#0000</v>
       </c>
       <c r="J1" s="124"/>
       <c r="K1" s="125"/>
@@ -22555,7 +22557,7 @@
       </c>
       <c r="I2" s="276" t="str">
         <f>FuturesHWConvAdj!C6</f>
-        <v>JPYHW_MeanReversion_Quote#0002</v>
+        <v>JPYHW_MeanReversion_Quote#0000</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="127"/>
@@ -22581,7 +22583,7 @@
       <c r="AA2" s="17"/>
       <c r="AB2" s="306">
         <f>_xll.ohTrigger(AB5:AB46)</f>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="277"/>
       <c r="AD2" s="84"/>
@@ -22677,7 +22679,7 @@
       </c>
       <c r="R4" s="222" t="str">
         <f>_xll.RData(R5:R46,S4:U4,"RTFEED:IDN",ReutersRtMode,,S5)</f>
-        <v>Updated at 13:10:26</v>
+        <v>Updated at 09:33:12</v>
       </c>
       <c r="S4" s="223" t="s">
         <v>149</v>
@@ -22729,7 +22731,7 @@
       </c>
       <c r="F5" s="175" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORV5_Quote#0002</v>
+        <v>JPYFUT3MTIBORV5_Quote#0000</v>
       </c>
       <c r="G5" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -22741,7 +22743,7 @@
       </c>
       <c r="I5" s="175" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H5,IborIndex,D5,F5,Volatility,MeanReversion,Permanent,AND(ISERROR(AB5),ISERROR(FuturesHWConvAdj!U5:U6)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORV5ConvAdj_Quote#0024</v>
+        <v>JPYFUT3MTIBORV5ConvAdj_Quote#0001</v>
       </c>
       <c r="J5" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -22793,9 +22795,9 @@
         <f t="array" ref="AA5:AA46">QuoteLive</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="294" t="e">
+      <c r="AB5" s="294">
         <f>_xll.qlSimpleQuoteSetValue(F5,AA5,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="183"/>
       <c r="AD5" s="84"/>
@@ -22821,7 +22823,7 @@
       </c>
       <c r="F6" s="194" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORX5_Quote#0002</v>
+        <v>JPYFUT3MTIBORX5_Quote#0000</v>
       </c>
       <c r="G6" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -22833,7 +22835,7 @@
       </c>
       <c r="I6" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H6,IborIndex,D6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(AB6),ISERROR(FuturesHWConvAdj!U6:U7)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORX5ConvAdj_Quote#0024</v>
+        <v>JPYFUT3MTIBORX5ConvAdj_Quote#0001</v>
       </c>
       <c r="J6" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -22882,9 +22884,9 @@
       <c r="AA6" s="208">
         <v>0</v>
       </c>
-      <c r="AB6" s="299" t="e">
+      <c r="AB6" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F6,AA6,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="183"/>
       <c r="AD6" s="84"/>
@@ -22910,7 +22912,7 @@
       </c>
       <c r="F7" s="194" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ5_Quote#0002</v>
+        <v>JPYFUT3MTIBORZ5_Quote#0000</v>
       </c>
       <c r="G7" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -22922,7 +22924,7 @@
       </c>
       <c r="I7" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H7,IborIndex,D7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(AB7),ISERROR(FuturesHWConvAdj!U7:U8)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ5ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORZ5ConvAdj_Quote#0001</v>
       </c>
       <c r="J7" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -22950,14 +22952,14 @@
         <v>42352</v>
       </c>
       <c r="T7" s="274">
-        <v>99.844999999999999</v>
+        <v>99.85</v>
       </c>
       <c r="U7" s="274">
-        <v>99.85</v>
+        <v>99.855000000000004</v>
       </c>
       <c r="V7" s="208">
         <f t="shared" si="2"/>
-        <v>99.847499999999997</v>
+        <v>99.852499999999992</v>
       </c>
       <c r="W7" s="208">
         <f t="shared" si="6"/>
@@ -22969,11 +22971,11 @@
       </c>
       <c r="Z7" s="65"/>
       <c r="AA7" s="208">
-        <v>99.847499999999997</v>
-      </c>
-      <c r="AB7" s="299" t="e">
+        <v>99.852499999999992</v>
+      </c>
+      <c r="AB7" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F7,AA7,Trigger)</f>
-        <v>#N/A</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="AC7" s="183"/>
       <c r="AD7" s="84"/>
@@ -22999,7 +23001,7 @@
       </c>
       <c r="F8" s="194" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORF6_Quote#0002</v>
+        <v>JPYFUT3MTIBORF6_Quote#0000</v>
       </c>
       <c r="G8" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -23011,7 +23013,7 @@
       </c>
       <c r="I8" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H8,IborIndex,D8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(AB8),ISERROR(FuturesHWConvAdj!U8:U9)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORF6ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORF6ConvAdj_Quote#0001</v>
       </c>
       <c r="J8" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -23088,7 +23090,7 @@
       </c>
       <c r="F9" s="194" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORG6_Quote#0002</v>
+        <v>JPYFUT3MTIBORG6_Quote#0000</v>
       </c>
       <c r="G9" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -23100,7 +23102,7 @@
       </c>
       <c r="I9" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H9,IborIndex,D9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(AB9),ISERROR(FuturesHWConvAdj!U9:U10)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORG6ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORG6ConvAdj_Quote#0001</v>
       </c>
       <c r="J9" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -23178,7 +23180,7 @@
       </c>
       <c r="F10" s="194" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH6_Quote#0002</v>
+        <v>JPYFUT3MTIBORH6_Quote#0000</v>
       </c>
       <c r="G10" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -23190,7 +23192,7 @@
       </c>
       <c r="I10" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H10,IborIndex,D10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(AB10),ISERROR(FuturesHWConvAdj!U10:U11)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH6ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORH6ConvAdj_Quote#0001</v>
       </c>
       <c r="J10" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -23218,18 +23220,18 @@
         <v>42443</v>
       </c>
       <c r="T10" s="274">
-        <v>99.855000000000004</v>
+        <v>99.86</v>
       </c>
       <c r="U10" s="274">
-        <v>99.864999999999995</v>
+        <v>99.87</v>
       </c>
       <c r="V10" s="208">
         <f t="shared" si="2"/>
-        <v>99.86</v>
+        <v>99.865000000000009</v>
       </c>
       <c r="W10" s="208">
         <f t="shared" si="6"/>
-        <v>9.9999999999909051E-3</v>
+        <v>1.0000000000019327E-2</v>
       </c>
       <c r="X10" s="65"/>
       <c r="Y10" s="298">
@@ -23237,11 +23239,11 @@
       </c>
       <c r="Z10" s="65"/>
       <c r="AA10" s="208">
-        <v>99.86</v>
-      </c>
-      <c r="AB10" s="299" t="e">
+        <v>99.865000000000009</v>
+      </c>
+      <c r="AB10" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F10,AA10,Trigger)</f>
-        <v>#N/A</v>
+        <v>5.0000000000096634E-3</v>
       </c>
       <c r="AC10" s="183"/>
       <c r="AD10" s="84"/>
@@ -23267,7 +23269,7 @@
       </c>
       <c r="F11" s="194" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORJ6_Quote#0002</v>
+        <v>JPYFUT3MTIBORJ6_Quote#0000</v>
       </c>
       <c r="G11" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -23279,7 +23281,7 @@
       </c>
       <c r="I11" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H11,IborIndex,D11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(AB11),ISERROR(FuturesHWConvAdj!U11:U12)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORJ6ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORJ6ConvAdj_Quote#0001</v>
       </c>
       <c r="J11" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -23356,7 +23358,7 @@
       </c>
       <c r="F12" s="194" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORK6_Quote#0002</v>
+        <v>JPYFUT3MTIBORK6_Quote#0000</v>
       </c>
       <c r="G12" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -23368,7 +23370,7 @@
       </c>
       <c r="I12" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H12,IborIndex,D12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(AB12),ISERROR(FuturesHWConvAdj!U12:U13)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORK6ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORK6ConvAdj_Quote#0001</v>
       </c>
       <c r="J12" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -23445,7 +23447,7 @@
       </c>
       <c r="F13" s="194" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM6_Quote#0002</v>
+        <v>JPYFUT3MTIBORM6_Quote#0000</v>
       </c>
       <c r="G13" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -23457,7 +23459,7 @@
       </c>
       <c r="I13" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H13,IborIndex,D13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(AB13),ISERROR(FuturesHWConvAdj!U13:U14)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM6ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORM6ConvAdj_Quote#0001</v>
       </c>
       <c r="J13" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -23485,18 +23487,18 @@
         <v>42534</v>
       </c>
       <c r="T13" s="274">
-        <v>99.864999999999995</v>
+        <v>99.87</v>
       </c>
       <c r="U13" s="274">
-        <v>99.87</v>
+        <v>99.875</v>
       </c>
       <c r="V13" s="208">
         <f t="shared" si="2"/>
-        <v>99.867500000000007</v>
+        <v>99.872500000000002</v>
       </c>
       <c r="W13" s="208">
         <f t="shared" si="6"/>
-        <v>5.0000000000238742E-3</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="X13" s="65"/>
       <c r="Y13" s="298">
@@ -23504,11 +23506,11 @@
       </c>
       <c r="Z13" s="65"/>
       <c r="AA13" s="208">
-        <v>99.867500000000007</v>
-      </c>
-      <c r="AB13" s="299" t="e">
+        <v>99.872500000000002</v>
+      </c>
+      <c r="AB13" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F13,AA13,Trigger)</f>
-        <v>#N/A</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="AC13" s="183"/>
       <c r="AD13" s="84"/>
@@ -23534,7 +23536,7 @@
       </c>
       <c r="F14" s="194" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORN6_Quote#0002</v>
+        <v>JPYFUT3MTIBORN6_Quote#0000</v>
       </c>
       <c r="G14" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -23546,7 +23548,7 @@
       </c>
       <c r="I14" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H14,IborIndex,D14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(AB14),ISERROR(FuturesHWConvAdj!U14:U15)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORN6ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORN6ConvAdj_Quote#0001</v>
       </c>
       <c r="J14" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -23623,7 +23625,7 @@
       </c>
       <c r="F15" s="194" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORQ6_Quote#0002</v>
+        <v>JPYFUT3MTIBORQ6_Quote#0000</v>
       </c>
       <c r="G15" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -23635,7 +23637,7 @@
       </c>
       <c r="I15" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H15,IborIndex,D15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(AB15),ISERROR(FuturesHWConvAdj!U15:U16)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORQ6ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORQ6ConvAdj_Quote#0001</v>
       </c>
       <c r="J15" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -23712,7 +23714,7 @@
       </c>
       <c r="F16" s="194" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU6_Quote#0002</v>
+        <v>JPYFUT3MTIBORU6_Quote#0000</v>
       </c>
       <c r="G16" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -23724,7 +23726,7 @@
       </c>
       <c r="I16" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H16,IborIndex,D16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(AB16),ISERROR(FuturesHWConvAdj!U16:U17)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU6ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORU6ConvAdj_Quote#0001</v>
       </c>
       <c r="J16" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -23752,18 +23754,18 @@
         <v>42629</v>
       </c>
       <c r="T16" s="274">
-        <v>99.87</v>
+        <v>99.875</v>
       </c>
       <c r="U16" s="274">
         <v>99.88</v>
       </c>
       <c r="V16" s="208">
         <f t="shared" si="2"/>
-        <v>99.875</v>
+        <v>99.877499999999998</v>
       </c>
       <c r="W16" s="208">
         <f t="shared" si="6"/>
-        <v>9.9999999999909051E-3</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="X16" s="65"/>
       <c r="Y16" s="298">
@@ -23771,11 +23773,11 @@
       </c>
       <c r="Z16" s="65"/>
       <c r="AA16" s="208">
-        <v>99.875</v>
-      </c>
-      <c r="AB16" s="299" t="e">
+        <v>99.877499999999998</v>
+      </c>
+      <c r="AB16" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F16,AA16,Trigger)</f>
-        <v>#N/A</v>
+        <v>2.4999999999977263E-3</v>
       </c>
       <c r="AC16" s="183"/>
       <c r="AD16" s="84"/>
@@ -23801,7 +23803,7 @@
       </c>
       <c r="F17" s="194" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ6_Quote#0002</v>
+        <v>JPYFUT3MTIBORZ6_Quote#0000</v>
       </c>
       <c r="G17" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -23813,7 +23815,7 @@
       </c>
       <c r="I17" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H17,IborIndex,D17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(AB17),ISERROR(FuturesHWConvAdj!U17:U18)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ6ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORZ6ConvAdj_Quote#0001</v>
       </c>
       <c r="J17" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -23841,18 +23843,18 @@
         <v>42723</v>
       </c>
       <c r="T17" s="274">
-        <v>99.875</v>
+        <v>99.885000000000005</v>
       </c>
       <c r="U17" s="274">
-        <v>99.885000000000005</v>
+        <v>99.89</v>
       </c>
       <c r="V17" s="208">
         <f t="shared" si="2"/>
-        <v>99.88</v>
+        <v>99.887500000000003</v>
       </c>
       <c r="W17" s="208">
         <f t="shared" si="6"/>
-        <v>9.9999999999909051E-3</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="X17" s="65"/>
       <c r="Y17" s="298">
@@ -23860,11 +23862,11 @@
       </c>
       <c r="Z17" s="65"/>
       <c r="AA17" s="208">
-        <v>99.88</v>
-      </c>
-      <c r="AB17" s="299" t="e">
+        <v>99.887500000000003</v>
+      </c>
+      <c r="AB17" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F17,AA17,Trigger)</f>
-        <v>#N/A</v>
+        <v>7.5000000000073896E-3</v>
       </c>
       <c r="AC17" s="183"/>
       <c r="AD17" s="84"/>
@@ -23890,7 +23892,7 @@
       </c>
       <c r="F18" s="194" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH7_Quote#0002</v>
+        <v>JPYFUT3MTIBORH7_Quote#0000</v>
       </c>
       <c r="G18" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -23902,7 +23904,7 @@
       </c>
       <c r="I18" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H18,IborIndex,D18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(AB18),ISERROR(FuturesHWConvAdj!U18:U19)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH7ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORH7ConvAdj_Quote#0001</v>
       </c>
       <c r="J18" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -23930,14 +23932,14 @@
         <v>42807</v>
       </c>
       <c r="T18" s="274">
-        <v>99.875</v>
+        <v>99.885000000000005</v>
       </c>
       <c r="U18" s="274">
-        <v>99.885000000000005</v>
+        <v>99.894999999999996</v>
       </c>
       <c r="V18" s="208">
         <f t="shared" si="2"/>
-        <v>99.88</v>
+        <v>99.89</v>
       </c>
       <c r="W18" s="208">
         <f t="shared" si="6"/>
@@ -23949,11 +23951,11 @@
       </c>
       <c r="Z18" s="65"/>
       <c r="AA18" s="208">
-        <v>99.88</v>
-      </c>
-      <c r="AB18" s="299" t="e">
+        <v>99.89</v>
+      </c>
+      <c r="AB18" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F18,AA18,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AC18" s="183"/>
       <c r="AD18" s="84"/>
@@ -23979,7 +23981,7 @@
       </c>
       <c r="F19" s="194" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM7_Quote#0002</v>
+        <v>JPYFUT3MTIBORM7_Quote#0000</v>
       </c>
       <c r="G19" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -23991,7 +23993,7 @@
       </c>
       <c r="I19" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H19,IborIndex,D19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(AB19),ISERROR(FuturesHWConvAdj!U19:U20)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM7ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORM7ConvAdj_Quote#0001</v>
       </c>
       <c r="J19" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -24019,14 +24021,14 @@
         <v>42905</v>
       </c>
       <c r="T19" s="274">
-        <v>99.875</v>
+        <v>99.885000000000005</v>
       </c>
       <c r="U19" s="274">
-        <v>99.885000000000005</v>
+        <v>99.894999999999996</v>
       </c>
       <c r="V19" s="208">
         <f t="shared" si="2"/>
-        <v>99.88</v>
+        <v>99.89</v>
       </c>
       <c r="W19" s="208">
         <f t="shared" si="6"/>
@@ -24038,11 +24040,11 @@
       </c>
       <c r="Z19" s="65"/>
       <c r="AA19" s="208">
-        <v>99.88</v>
-      </c>
-      <c r="AB19" s="299" t="e">
+        <v>99.89</v>
+      </c>
+      <c r="AB19" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F19,AA19,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AC19" s="183"/>
       <c r="AD19" s="84"/>
@@ -24068,7 +24070,7 @@
       </c>
       <c r="F20" s="194" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU7_Quote#0002</v>
+        <v>JPYFUT3MTIBORU7_Quote#0000</v>
       </c>
       <c r="G20" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -24080,7 +24082,7 @@
       </c>
       <c r="I20" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H20,IborIndex,D20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(AB20),ISERROR(FuturesHWConvAdj!U20:U21)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU7ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORU7ConvAdj_Quote#0001</v>
       </c>
       <c r="J20" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -24108,14 +24110,14 @@
         <v>42993</v>
       </c>
       <c r="T20" s="274">
-        <v>99.87</v>
+        <v>99.88</v>
       </c>
       <c r="U20" s="274">
-        <v>99.885000000000005</v>
+        <v>99.894999999999996</v>
       </c>
       <c r="V20" s="208">
         <f t="shared" si="2"/>
-        <v>99.877499999999998</v>
+        <v>99.887499999999989</v>
       </c>
       <c r="W20" s="208">
         <f t="shared" si="6"/>
@@ -24127,11 +24129,11 @@
       </c>
       <c r="Z20" s="65"/>
       <c r="AA20" s="208">
-        <v>99.877499999999998</v>
-      </c>
-      <c r="AB20" s="299" t="e">
+        <v>99.887499999999989</v>
+      </c>
+      <c r="AB20" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F20,AA20,Trigger)</f>
-        <v>#N/A</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="AC20" s="183"/>
       <c r="AD20" s="84"/>
@@ -24157,7 +24159,7 @@
       </c>
       <c r="F21" s="194" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ7_Quote#0002</v>
+        <v>JPYFUT3MTIBORZ7_Quote#0000</v>
       </c>
       <c r="G21" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -24169,7 +24171,7 @@
       </c>
       <c r="I21" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H21,IborIndex,D21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(AB21),ISERROR(FuturesHWConvAdj!U21:U22)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ7ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORZ7ConvAdj_Quote#0001</v>
       </c>
       <c r="J21" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -24197,18 +24199,18 @@
         <v>43087</v>
       </c>
       <c r="T21" s="274">
-        <v>99.86</v>
+        <v>99.87</v>
       </c>
       <c r="U21" s="274">
         <v>99.885000000000005</v>
       </c>
       <c r="V21" s="208">
         <f t="shared" si="2"/>
-        <v>99.872500000000002</v>
+        <v>99.877499999999998</v>
       </c>
       <c r="W21" s="208">
         <f t="shared" si="6"/>
-        <v>2.5000000000005684E-2</v>
+        <v>1.4999999999986358E-2</v>
       </c>
       <c r="X21" s="65"/>
       <c r="Y21" s="298">
@@ -24216,11 +24218,11 @@
       </c>
       <c r="Z21" s="65"/>
       <c r="AA21" s="208">
-        <v>99.872500000000002</v>
-      </c>
-      <c r="AB21" s="299" t="e">
+        <v>99.877499999999998</v>
+      </c>
+      <c r="AB21" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F21,AA21,Trigger)</f>
-        <v>#N/A</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="AC21" s="183"/>
       <c r="AD21" s="84"/>
@@ -24246,7 +24248,7 @@
       </c>
       <c r="F22" s="194" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH8_Quote#0002</v>
+        <v>JPYFUT3MTIBORH8_Quote#0000</v>
       </c>
       <c r="G22" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -24258,7 +24260,7 @@
       </c>
       <c r="I22" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H22,IborIndex,D22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(AB22),ISERROR(FuturesHWConvAdj!U22:U23)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH8ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORH8ConvAdj_Quote#0001</v>
       </c>
       <c r="J22" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -24286,18 +24288,18 @@
         <v>43178</v>
       </c>
       <c r="T22" s="274">
-        <v>99.834999999999994</v>
+        <v>99.855000000000004</v>
       </c>
       <c r="U22" s="274">
-        <v>99.88</v>
+        <v>99.875</v>
       </c>
       <c r="V22" s="208">
         <f t="shared" si="2"/>
-        <v>99.857499999999987</v>
+        <v>99.865000000000009</v>
       </c>
       <c r="W22" s="208">
         <f t="shared" si="6"/>
-        <v>4.4999999999987494E-2</v>
+        <v>2.0000000000010232E-2</v>
       </c>
       <c r="X22" s="65"/>
       <c r="Y22" s="298">
@@ -24305,11 +24307,11 @@
       </c>
       <c r="Z22" s="65"/>
       <c r="AA22" s="208">
-        <v>99.857499999999987</v>
-      </c>
-      <c r="AB22" s="299" t="e">
+        <v>99.865000000000009</v>
+      </c>
+      <c r="AB22" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F22,AA22,Trigger)</f>
-        <v>#N/A</v>
+        <v>7.5000000000216005E-3</v>
       </c>
       <c r="AC22" s="183"/>
       <c r="AD22" s="84"/>
@@ -24335,7 +24337,7 @@
       </c>
       <c r="F23" s="194" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM8_Quote#0002</v>
+        <v>JPYFUT3MTIBORM8_Quote#0000</v>
       </c>
       <c r="G23" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -24347,7 +24349,7 @@
       </c>
       <c r="I23" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H23,IborIndex,D23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(AB23),ISERROR(FuturesHWConvAdj!U23:U24)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM8ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORM8ConvAdj_Quote#0001</v>
       </c>
       <c r="J23" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -24375,18 +24377,18 @@
         <v>43269</v>
       </c>
       <c r="T23" s="274">
-        <v>99.82</v>
+        <v>99.834999999999994</v>
       </c>
       <c r="U23" s="274">
-        <v>99.87</v>
+        <v>99.86</v>
       </c>
       <c r="V23" s="208">
         <f t="shared" si="2"/>
-        <v>99.844999999999999</v>
+        <v>99.847499999999997</v>
       </c>
       <c r="W23" s="208">
         <f t="shared" si="6"/>
-        <v>5.0000000000011369E-2</v>
+        <v>2.5000000000005684E-2</v>
       </c>
       <c r="X23" s="65"/>
       <c r="Y23" s="298">
@@ -24394,11 +24396,11 @@
       </c>
       <c r="Z23" s="65"/>
       <c r="AA23" s="208">
-        <v>99.844999999999999</v>
-      </c>
-      <c r="AB23" s="299" t="e">
+        <v>99.847499999999997</v>
+      </c>
+      <c r="AB23" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F23,AA23,Trigger)</f>
-        <v>#N/A</v>
+        <v>2.4999999999977263E-3</v>
       </c>
       <c r="AC23" s="183"/>
       <c r="AD23" s="84"/>
@@ -24424,7 +24426,7 @@
       </c>
       <c r="F24" s="194" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU8_Quote#0002</v>
+        <v>JPYFUT3MTIBORU8_Quote#0000</v>
       </c>
       <c r="G24" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -24436,7 +24438,7 @@
       </c>
       <c r="I24" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H24,IborIndex,D24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(AB24),ISERROR(FuturesHWConvAdj!U24:U25)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU8ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORU8ConvAdj_Quote#0001</v>
       </c>
       <c r="J24" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -24464,18 +24466,18 @@
         <v>43357</v>
       </c>
       <c r="T24" s="274">
-        <v>99.795000000000002</v>
+        <v>99.814999999999998</v>
       </c>
       <c r="U24" s="274">
-        <v>99.844999999999999</v>
+        <v>99.84</v>
       </c>
       <c r="V24" s="208">
         <f t="shared" si="2"/>
-        <v>99.82</v>
+        <v>99.827500000000001</v>
       </c>
       <c r="W24" s="208">
         <f t="shared" si="6"/>
-        <v>4.9999999999982947E-2</v>
+        <v>2.5000000000005684E-2</v>
       </c>
       <c r="X24" s="65"/>
       <c r="Y24" s="298">
@@ -24483,11 +24485,11 @@
       </c>
       <c r="Z24" s="65"/>
       <c r="AA24" s="208">
-        <v>99.82</v>
-      </c>
-      <c r="AB24" s="299" t="e">
+        <v>99.827500000000001</v>
+      </c>
+      <c r="AB24" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F24,AA24,Trigger)</f>
-        <v>#N/A</v>
+        <v>7.5000000000073896E-3</v>
       </c>
       <c r="AC24" s="183"/>
       <c r="AD24" s="84"/>
@@ -24513,7 +24515,7 @@
       </c>
       <c r="F25" s="194" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ8_Quote#0002</v>
+        <v>JPYFUT3MTIBORZ8_Quote#0000</v>
       </c>
       <c r="G25" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -24525,7 +24527,7 @@
       </c>
       <c r="I25" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H25,IborIndex,D25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(AB25),ISERROR(FuturesHWConvAdj!U25:U26)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ8ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORZ8ConvAdj_Quote#0001</v>
       </c>
       <c r="J25" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -24574,9 +24576,9 @@
       <c r="AA25" s="208">
         <v>0</v>
       </c>
-      <c r="AB25" s="299" t="e">
+      <c r="AB25" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F25,AA25,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="183"/>
       <c r="AD25" s="84"/>
@@ -24602,7 +24604,7 @@
       </c>
       <c r="F26" s="194" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH9_Quote#0002</v>
+        <v>JPYFUT3MTIBORH9_Quote#0000</v>
       </c>
       <c r="G26" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -24614,7 +24616,7 @@
       </c>
       <c r="I26" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H26,IborIndex,D26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(AB26),ISERROR(FuturesHWConvAdj!U26:U27)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH9ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORH9ConvAdj_Quote#0001</v>
       </c>
       <c r="J26" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -24663,9 +24665,9 @@
       <c r="AA26" s="208">
         <v>0</v>
       </c>
-      <c r="AB26" s="299" t="e">
+      <c r="AB26" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F26,AA26,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="183"/>
       <c r="AD26" s="84"/>
@@ -24691,7 +24693,7 @@
       </c>
       <c r="F27" s="194" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM9_Quote#0002</v>
+        <v>JPYFUT3MTIBORM9_Quote#0000</v>
       </c>
       <c r="G27" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -24703,7 +24705,7 @@
       </c>
       <c r="I27" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H27,IborIndex,D27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(AB27),ISERROR(FuturesHWConvAdj!U27:U28)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM9ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORM9ConvAdj_Quote#0001</v>
       </c>
       <c r="J27" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -24752,9 +24754,9 @@
       <c r="AA27" s="208">
         <v>0</v>
       </c>
-      <c r="AB27" s="299" t="e">
+      <c r="AB27" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F27,AA27,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="183"/>
       <c r="AD27" s="84"/>
@@ -24780,7 +24782,7 @@
       </c>
       <c r="F28" s="194" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU9_Quote#0002</v>
+        <v>JPYFUT3MTIBORU9_Quote#0000</v>
       </c>
       <c r="G28" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -24792,7 +24794,7 @@
       </c>
       <c r="I28" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H28,IborIndex,D28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(AB28),ISERROR(FuturesHWConvAdj!U28:U29)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU9ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORU9ConvAdj_Quote#0001</v>
       </c>
       <c r="J28" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -24841,9 +24843,9 @@
       <c r="AA28" s="208">
         <v>0</v>
       </c>
-      <c r="AB28" s="299" t="e">
+      <c r="AB28" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F28,AA28,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="183"/>
       <c r="AD28" s="84"/>
@@ -24869,7 +24871,7 @@
       </c>
       <c r="F29" s="194" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ9_Quote#0002</v>
+        <v>JPYFUT3MTIBORZ9_Quote#0000</v>
       </c>
       <c r="G29" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -24881,7 +24883,7 @@
       </c>
       <c r="I29" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H29,IborIndex,D29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(AB29),ISERROR(FuturesHWConvAdj!U29:U30)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ9ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORZ9ConvAdj_Quote#0001</v>
       </c>
       <c r="J29" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -24930,9 +24932,9 @@
       <c r="AA29" s="208">
         <v>0</v>
       </c>
-      <c r="AB29" s="299" t="e">
+      <c r="AB29" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F29,AA29,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="183"/>
       <c r="AD29" s="84"/>
@@ -24958,7 +24960,7 @@
       </c>
       <c r="F30" s="194" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH0_Quote#0002</v>
+        <v>JPYFUT3MTIBORH0_Quote#0000</v>
       </c>
       <c r="G30" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -24970,7 +24972,7 @@
       </c>
       <c r="I30" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H30,IborIndex,D30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(AB30),ISERROR(FuturesHWConvAdj!U30:U31)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH0ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORH0ConvAdj_Quote#0001</v>
       </c>
       <c r="J30" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -25019,9 +25021,9 @@
       <c r="AA30" s="208">
         <v>0</v>
       </c>
-      <c r="AB30" s="299" t="e">
+      <c r="AB30" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F30,AA30,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="183"/>
       <c r="AD30" s="84"/>
@@ -25047,7 +25049,7 @@
       </c>
       <c r="F31" s="194" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM0_Quote#0002</v>
+        <v>JPYFUT3MTIBORM0_Quote#0000</v>
       </c>
       <c r="G31" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -25059,7 +25061,7 @@
       </c>
       <c r="I31" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H31,IborIndex,D31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(AB31),ISERROR(FuturesHWConvAdj!U31:U32)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM0ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORM0ConvAdj_Quote#0001</v>
       </c>
       <c r="J31" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -25108,9 +25110,9 @@
       <c r="AA31" s="208">
         <v>0</v>
       </c>
-      <c r="AB31" s="299" t="e">
+      <c r="AB31" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F31,AA31,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="183"/>
       <c r="AD31" s="84"/>
@@ -25136,7 +25138,7 @@
       </c>
       <c r="F32" s="194" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU0_Quote#0002</v>
+        <v>JPYFUT3MTIBORU0_Quote#0000</v>
       </c>
       <c r="G32" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -25148,7 +25150,7 @@
       </c>
       <c r="I32" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H32,IborIndex,D32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(AB32),ISERROR(FuturesHWConvAdj!U32:U33)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU0ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORU0ConvAdj_Quote#0001</v>
       </c>
       <c r="J32" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -25197,9 +25199,9 @@
       <c r="AA32" s="208">
         <v>0</v>
       </c>
-      <c r="AB32" s="299" t="e">
+      <c r="AB32" s="299">
         <f>_xll.qlSimpleQuoteSetValue(F32,AA32,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="183"/>
       <c r="AD32" s="84"/>
@@ -25225,7 +25227,7 @@
       </c>
       <c r="F33" s="194" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ0_Quote#0002</v>
+        <v>JPYFUT3MTIBORZ0_Quote#0000</v>
       </c>
       <c r="G33" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -25237,7 +25239,7 @@
       </c>
       <c r="I33" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H33,IborIndex,D33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(AB33),ISERROR(FuturesHWConvAdj!U33:U34)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ0ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORZ0ConvAdj_Quote#0001</v>
       </c>
       <c r="J33" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -25314,7 +25316,7 @@
       </c>
       <c r="F34" s="194" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH1_Quote#0002</v>
+        <v>JPYFUT3MTIBORH1_Quote#0000</v>
       </c>
       <c r="G34" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -25326,7 +25328,7 @@
       </c>
       <c r="I34" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H34,IborIndex,D34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(AB34),ISERROR(FuturesHWConvAdj!U34:U35)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH1ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORH1ConvAdj_Quote#0001</v>
       </c>
       <c r="J34" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -25403,7 +25405,7 @@
       </c>
       <c r="F35" s="194" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM1_Quote#0002</v>
+        <v>JPYFUT3MTIBORM1_Quote#0000</v>
       </c>
       <c r="G35" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -25415,7 +25417,7 @@
       </c>
       <c r="I35" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H35,IborIndex,D35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(AB35),ISERROR(FuturesHWConvAdj!U35:U36)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM1ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORM1ConvAdj_Quote#0001</v>
       </c>
       <c r="J35" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -25492,7 +25494,7 @@
       </c>
       <c r="F36" s="194" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU1_Quote#0002</v>
+        <v>JPYFUT3MTIBORU1_Quote#0000</v>
       </c>
       <c r="G36" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -25504,7 +25506,7 @@
       </c>
       <c r="I36" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H36,IborIndex,D36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(AB36),ISERROR(FuturesHWConvAdj!U36:U37)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU1ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORU1ConvAdj_Quote#0001</v>
       </c>
       <c r="J36" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -25581,7 +25583,7 @@
       </c>
       <c r="F37" s="194" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ1_Quote#0002</v>
+        <v>JPYFUT3MTIBORZ1_Quote#0000</v>
       </c>
       <c r="G37" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -25593,7 +25595,7 @@
       </c>
       <c r="I37" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H37,IborIndex,D37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(AB37),ISERROR(FuturesHWConvAdj!U37:U38)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ1ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORZ1ConvAdj_Quote#0001</v>
       </c>
       <c r="J37" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -25670,7 +25672,7 @@
       </c>
       <c r="F38" s="194" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH2_Quote#0002</v>
+        <v>JPYFUT3MTIBORH2_Quote#0000</v>
       </c>
       <c r="G38" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -25682,7 +25684,7 @@
       </c>
       <c r="I38" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H38,IborIndex,D38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(AB38),ISERROR(FuturesHWConvAdj!U38:U39)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH2ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORH2ConvAdj_Quote#0001</v>
       </c>
       <c r="J38" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -25759,7 +25761,7 @@
       </c>
       <c r="F39" s="194" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM2_Quote#0002</v>
+        <v>JPYFUT3MTIBORM2_Quote#0000</v>
       </c>
       <c r="G39" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -25771,7 +25773,7 @@
       </c>
       <c r="I39" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H39,IborIndex,D39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(AB39),ISERROR(FuturesHWConvAdj!U39:U40)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM2ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORM2ConvAdj_Quote#0001</v>
       </c>
       <c r="J39" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -25848,7 +25850,7 @@
       </c>
       <c r="F40" s="194" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU2_Quote#0002</v>
+        <v>JPYFUT3MTIBORU2_Quote#0000</v>
       </c>
       <c r="G40" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -25860,7 +25862,7 @@
       </c>
       <c r="I40" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H40,IborIndex,D40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(AB40),ISERROR(FuturesHWConvAdj!U40:U41)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU2ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORU2ConvAdj_Quote#0001</v>
       </c>
       <c r="J40" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -25937,7 +25939,7 @@
       </c>
       <c r="F41" s="194" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ2_Quote#0002</v>
+        <v>JPYFUT3MTIBORZ2_Quote#0000</v>
       </c>
       <c r="G41" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -25949,7 +25951,7 @@
       </c>
       <c r="I41" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H41,IborIndex,D41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(AB41),ISERROR(FuturesHWConvAdj!U41:U42)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ2ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORZ2ConvAdj_Quote#0001</v>
       </c>
       <c r="J41" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -26026,7 +26028,7 @@
       </c>
       <c r="F42" s="194" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH3_Quote#0002</v>
+        <v>JPYFUT3MTIBORH3_Quote#0000</v>
       </c>
       <c r="G42" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -26038,7 +26040,7 @@
       </c>
       <c r="I42" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H42,IborIndex,D42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(AB42),ISERROR(FuturesHWConvAdj!U42:U43)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH3ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORH3ConvAdj_Quote#0001</v>
       </c>
       <c r="J42" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -26115,7 +26117,7 @@
       </c>
       <c r="F43" s="194" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM3_Quote#0002</v>
+        <v>JPYFUT3MTIBORM3_Quote#0000</v>
       </c>
       <c r="G43" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -26127,7 +26129,7 @@
       </c>
       <c r="I43" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H43,IborIndex,D43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(AB43),ISERROR(FuturesHWConvAdj!U43:U44)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM3ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORM3ConvAdj_Quote#0001</v>
       </c>
       <c r="J43" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -26204,7 +26206,7 @@
       </c>
       <c r="F44" s="194" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU3_Quote#0002</v>
+        <v>JPYFUT3MTIBORU3_Quote#0000</v>
       </c>
       <c r="G44" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -26216,7 +26218,7 @@
       </c>
       <c r="I44" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H44,IborIndex,D44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(AB44),ISERROR(FuturesHWConvAdj!U44:U45)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU3ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORU3ConvAdj_Quote#0001</v>
       </c>
       <c r="J44" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -26293,7 +26295,7 @@
       </c>
       <c r="F45" s="194" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ3_Quote#0002</v>
+        <v>JPYFUT3MTIBORZ3_Quote#0000</v>
       </c>
       <c r="G45" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -26305,7 +26307,7 @@
       </c>
       <c r="I45" s="194" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H45,IborIndex,D45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(AB45),ISERROR(FuturesHWConvAdj!U45:U46)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ3ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORZ3ConvAdj_Quote#0001</v>
       </c>
       <c r="J45" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -26382,7 +26384,7 @@
       </c>
       <c r="F46" s="197" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH4_Quote#0002</v>
+        <v>JPYFUT3MTIBORH4_Quote#0000</v>
       </c>
       <c r="G46" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -26394,7 +26396,7 @@
       </c>
       <c r="I46" s="197" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(H46,IborIndex,D46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(AB46),ISERROR(FuturesHWConvAdj!U46:U47)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH4ConvAdj_Quote#0021</v>
+        <v>JPYFUT3MTIBORH4ConvAdj_Quote#0001</v>
       </c>
       <c r="J46" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -26595,7 +26597,7 @@
       <c r="T2" s="17"/>
       <c r="U2" s="306">
         <f>_xll.ohTrigger(U5:U9)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V2" s="183"/>
       <c r="W2" s="84"/>
@@ -26648,7 +26650,7 @@
       <c r="K4" s="203"/>
       <c r="L4" s="314" t="str">
         <f>_xll.RData(L5,M4,"RTFEED:IDN",ReutersRtMode,,M5)</f>
-        <v>Updated at 10:07:56</v>
+        <v>Updated at 09:33:12</v>
       </c>
       <c r="M4" s="315" t="s">
         <v>136</v>
@@ -26680,7 +26682,7 @@
       </c>
       <c r="C5" s="240" t="str">
         <f>_xll.qlSimpleQuote(B5,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYHW_Volatility_Quote#0002</v>
+        <v>JPYHW_Volatility_Quote#0000</v>
       </c>
       <c r="D5" s="318" t="str">
         <f>_xll.ohRangeRetrieveError(C5)</f>
@@ -26707,7 +26709,7 @@
         <v>JP4Y6LATM=ICAP</v>
       </c>
       <c r="M5" s="343">
-        <v>142.58000000000001</v>
+        <v>151.44999999999999</v>
       </c>
       <c r="N5" s="316"/>
       <c r="O5" s="228" t="s">
@@ -26741,7 +26743,7 @@
       </c>
       <c r="C6" s="240" t="str">
         <f>_xll.qlSimpleQuote(B6,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYHW_MeanReversion_Quote#0002</v>
+        <v>JPYHW_MeanReversion_Quote#0000</v>
       </c>
       <c r="D6" s="318" t="str">
         <f>_xll.ohRangeRetrieveError(C6)</f>
